--- a/gd/Demo/副本设计v0.4.xlsx
+++ b/gd/Demo/副本设计v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="boss局设计" sheetId="3" r:id="rId4"/>
     <sheet name="通用技能说明" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="788">
   <si>
     <t>月光森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1430,23 +1430,1344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutSlight</t>
+  </si>
+  <si>
+    <t>弱攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1秒时物理弱伤害敌方单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutMedium</t>
+  </si>
+  <si>
+    <t>中斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1秒时物理中伤害敌方单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutStrong</t>
+  </si>
+  <si>
+    <t>强斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1秒时物理强伤害敌方单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutTriSlight</t>
+  </si>
+  <si>
+    <t>3连弱斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连弱击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1秒，1.15秒，1.45秒时分别物理弱伤害敌方单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutTriMedium</t>
+  </si>
+  <si>
+    <t>3连中斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1秒，1.15秒，1.45秒时分别物理中伤害敌方单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutTriStrong</t>
+  </si>
+  <si>
+    <t>3连强斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连强击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1秒，1.15秒，1.45秒时分别物理强伤害敌方单体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabSlight</t>
+  </si>
+  <si>
+    <t>弱刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabMedium</t>
+  </si>
+  <si>
+    <t>attackStabStrong</t>
+  </si>
+  <si>
+    <t>强刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabTriSlight</t>
+  </si>
+  <si>
+    <t>1秒，1.15秒，1.45秒时分别物理弱伤害敌方单体（伤害效果生效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabTriMedium</t>
+  </si>
+  <si>
+    <t>3连中刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabTriStrong</t>
+  </si>
+  <si>
+    <t>3连强刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSmashSlight</t>
+  </si>
+  <si>
+    <t>attackSmashMedium</t>
+  </si>
+  <si>
+    <t>中砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSmashStrong</t>
+  </si>
+  <si>
+    <t>强砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalSlight</t>
+  </si>
+  <si>
+    <t>弱光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalMedium</t>
+  </si>
+  <si>
+    <t>中光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5秒施法，1.5秒时发出法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalStrong</t>
+  </si>
+  <si>
+    <t>强光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantSlight</t>
+  </si>
+  <si>
+    <t>弱木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞叶斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantMedium</t>
+  </si>
+  <si>
+    <t>中木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantStrong</t>
+  </si>
+  <si>
+    <t>强木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterSlight</t>
+  </si>
+  <si>
+    <t>弱水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterMedium</t>
+  </si>
+  <si>
+    <t>中水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀑布冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterStrong</t>
+  </si>
+  <si>
+    <t>强水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireSlight</t>
+  </si>
+  <si>
+    <t>弱火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火苗术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5秒施法，1.5秒时发出法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireMedium</t>
+  </si>
+  <si>
+    <t>中火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽焰击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireStrong</t>
+  </si>
+  <si>
+    <t>强火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthSlight</t>
+  </si>
+  <si>
+    <t>弱暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影突袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthMedium</t>
+  </si>
+  <si>
+    <t>中暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthStrong</t>
+  </si>
+  <si>
+    <t>强暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影强袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureSlight</t>
+  </si>
+  <si>
+    <t>治疗弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureMedium</t>
+  </si>
+  <si>
+    <t>治疗中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureStrong</t>
+  </si>
+  <si>
+    <t>治疗强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强效治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14个小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个大怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2中boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2大boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5秒施法（对应相应属性施法），1.5秒时发出法术（伤害效果生效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理大招 10秒6次物理攻击（特别弱）附带眩晕1回合，附带暗属性强dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻大招，10秒7次，一定几率附带物理伤害弱dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗属性强dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻一定几率附带暗属性强dot（同buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33基础物攻/法攻技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14被动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻，boss技能1，boss技能2，一定几率附带暗属性强dot（同buff）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15boss技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2bossAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用小怪，拆mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~4场景（看boss需要需要额外配置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffMagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffHot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffMagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5秒施法，1.5秒时发出法术</t>
+  </si>
+  <si>
+    <t>buffAttackSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffDefenseSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffMagicSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffSpeedSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升自身防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升自身速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31基础buff技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffFireDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffFireDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffFireDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffWaterDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffWateDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffWateDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffPlantDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffPlantDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffPlantDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffMetalDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffMetalDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffMetalDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffEarthDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffEarthDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuffEarthDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理弱Dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理中Dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理强Dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见技能文档tips通用规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水弱Dot</t>
+  </si>
+  <si>
+    <t>水中Dot</t>
+  </si>
+  <si>
+    <t>水强Dot</t>
+  </si>
+  <si>
+    <t>火弱Dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火中Dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火强Dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木弱Dot</t>
+  </si>
+  <si>
+    <t>木中Dot</t>
+  </si>
+  <si>
+    <t>木强Dot</t>
+  </si>
+  <si>
+    <t>光弱Dot</t>
+  </si>
+  <si>
+    <t>光中Dot</t>
+  </si>
+  <si>
+    <t>光强Dot</t>
+  </si>
+  <si>
+    <t>暗弱Dot</t>
+  </si>
+  <si>
+    <t>暗中Dot</t>
+  </si>
+  <si>
+    <t>暗强Dot</t>
+  </si>
+  <si>
+    <t>溺水（弱）</t>
+  </si>
+  <si>
+    <t>溺水（中）</t>
+  </si>
+  <si>
+    <t>溺水（强）</t>
+  </si>
+  <si>
+    <t>痛楚（弱）</t>
+  </si>
+  <si>
+    <t>痛楚（中）</t>
+  </si>
+  <si>
+    <t>痛楚（强）</t>
+  </si>
+  <si>
+    <t>耀斑（弱）</t>
+  </si>
+  <si>
+    <t>耀斑（中）</t>
+  </si>
+  <si>
+    <t>耀斑（强）</t>
+  </si>
+  <si>
+    <t>恢复术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂（弱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂（强）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃（弱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃（强）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施毒（弱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施毒（中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施毒（强）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林 - 2</t>
+  </si>
+  <si>
+    <t>月光森林 - 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林 - 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光森林 - 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥河 - 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥河 - 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥河 - 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥河 - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥河 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgwp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认没有提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会对物理攻击进行压制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎被什么东西控制了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉动的韵文，释放出强大的魔力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外装甲看起来不那么结实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个右爪在左边，3个左爪在右边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgHapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升自身力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低力量</t>
+  </si>
+  <si>
+    <t>降低力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓速术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力提升（永久型）</t>
+  </si>
+  <si>
+    <t>使用物攻时一定几率是自身的力量上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系大招攻击敌方全体，造成伤害并降低力量及防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系大招群体提升力量-驱散妨害buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系大招攻击敌方全体，造成伤害并降低力量及防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具下隐藏着弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%血以下时，力量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系大招攻击敌方全体，造成伤害并降低智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“法攻命中-金-弱”下落一个音效，爆点一个音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“法攻命中-金-弱”下落复用弱光音效，爆点一个音效余韵稍长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“水箭”下落一个音效，爆点一个音效（水花四溅声音）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“瀑布”下落一个音效，爆点复用“弱水”技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“水技能”汇聚一个音效，爆点复用“弱水”技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“火焰_小”汇聚一个音效，爆点一个音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“火焰_大”，一个音效即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“法攻命中-土-弱”，一个音效即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频”法攻命中-治疗-中“一个音效即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频”物攻命中-单击-刺-弱“，一个刺击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“鬼爪“，一个音效即可（抓挠和鬼火的声音）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“金色气旋”一个音效即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用”斩击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加护术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御姿态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频”物攻命中-单击-砸-强“，一个砸击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metale2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频”法攻命中-木-中“，一个音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firep1,firee1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firep2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curep1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“紫色dbuff”一个音效即可(爆点音效闷一点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divine Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf Darts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piercing Spikes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild Growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterspout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hell Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Swipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Claw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesser Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potent Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overwhelming Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive Stance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Intellect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stupefy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失心术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossyueguangsenlin11Zouyincao</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin17Xiyiren</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin18Meidusha</t>
+  </si>
+  <si>
+    <t>bossminghe12Longgongtongzi</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin14Luoxinfu</t>
+  </si>
+  <si>
+    <t>bossminghe17Anpusha</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin12Mantuoluo</t>
+  </si>
+  <si>
+    <t>bossminghe14Amute</t>
+  </si>
+  <si>
+    <t>bossminghe18Karong</t>
+  </si>
+  <si>
+    <t>爪子十分锋利，但是看起来很易碎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自认为美艳的美杜莎会对没有头发感到愤怒！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会对法术攻击进行压制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>设计代号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能效果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效说明</t>
+    <t>lock_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1454,1017 +2775,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能量增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackCutSlight</t>
-  </si>
-  <si>
-    <t>弱攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1秒时物理弱伤害敌方单体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackCutMedium</t>
-  </si>
-  <si>
-    <t>中斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1秒时物理中伤害敌方单体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackCutStrong</t>
-  </si>
-  <si>
-    <t>强斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强力攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1秒时物理强伤害敌方单体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackCutTriSlight</t>
-  </si>
-  <si>
-    <t>3连弱斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连弱击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1秒，1.15秒，1.45秒时分别物理弱伤害敌方单体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackCutTriMedium</t>
-  </si>
-  <si>
-    <t>3连中斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1秒，1.15秒，1.45秒时分别物理中伤害敌方单体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackCutTriStrong</t>
-  </si>
-  <si>
-    <t>3连强斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连强击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1秒，1.15秒，1.45秒时分别物理强伤害敌方单体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackStabSlight</t>
-  </si>
-  <si>
-    <t>弱刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackStabMedium</t>
-  </si>
-  <si>
-    <t>attackStabStrong</t>
-  </si>
-  <si>
-    <t>强刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackStabTriSlight</t>
-  </si>
-  <si>
-    <t>1秒，1.15秒，1.45秒时分别物理弱伤害敌方单体（伤害效果生效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackStabTriMedium</t>
-  </si>
-  <si>
-    <t>3连中刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackStabTriStrong</t>
-  </si>
-  <si>
-    <t>3连强刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackSmashSlight</t>
-  </si>
-  <si>
-    <t>attackSmashMedium</t>
-  </si>
-  <si>
-    <t>中砸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackSmashStrong</t>
-  </si>
-  <si>
-    <t>强砸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicMetalSlight</t>
-  </si>
-  <si>
-    <t>弱光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicMetalMedium</t>
-  </si>
-  <si>
-    <t>中光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5秒施法，1.5秒时发出法术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicMetalStrong</t>
-  </si>
-  <si>
-    <t>强光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicPlantSlight</t>
-  </si>
-  <si>
-    <t>弱木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞叶斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicPlantMedium</t>
-  </si>
-  <si>
-    <t>中木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆棘穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicPlantStrong</t>
-  </si>
-  <si>
-    <t>强木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂生长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWaterSlight</t>
-  </si>
-  <si>
-    <t>弱水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水流术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWaterMedium</t>
-  </si>
-  <si>
-    <t>中水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀑布冲击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWaterStrong</t>
-  </si>
-  <si>
-    <t>强水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水龙卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicFireSlight</t>
-  </si>
-  <si>
-    <t>弱火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火苗术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5秒施法，1.5秒时发出法术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicFireMedium</t>
-  </si>
-  <si>
-    <t>中火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炽焰击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicFireStrong</t>
-  </si>
-  <si>
-    <t>强火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱烈焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicEarthSlight</t>
-  </si>
-  <si>
-    <t>弱暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影突袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicEarthMedium</t>
-  </si>
-  <si>
-    <t>中暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicEarthStrong</t>
-  </si>
-  <si>
-    <t>强暗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影强袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicCureSlight</t>
-  </si>
-  <si>
-    <t>治疗弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicCureMedium</t>
-  </si>
-  <si>
-    <t>治疗中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicCureStrong</t>
-  </si>
-  <si>
-    <t>治疗强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强效治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14个小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个大怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2中boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2大boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5秒施法（对应相应属性施法），1.5秒时发出法术（伤害效果生效）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用小怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon Forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理大招 10秒6次物理攻击（特别弱）附带眩晕1回合，附带暗属性强dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻大招，10秒7次，一定几率附带物理伤害弱dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗属性强dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻一定几率附带暗属性强dot（同buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33基础物攻/法攻技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14被动技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物攻，boss技能1，boss技能2，一定几率附带暗属性强dot（同buff）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15boss技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2bossAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用小怪，拆mesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~4场景（看boss需要需要额外配置）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffDefense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffMagic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffHot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffDefense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffMagic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5秒施法，1.5秒时发出法术</t>
-  </si>
-  <si>
-    <t>buffAttackSelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffDefenseSelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffMagicSelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffSpeedSelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升自身防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升自身速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffDotSlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffDotStrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31基础buff技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffFireDotSlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffDotMedium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffFireDotMedium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffFireDotStrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffWaterDotSlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffWateDotMedium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffWateDotStrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffPlantDotSlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffPlantDotMedium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffPlantDotStrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffMetalDotSlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffMetalDotMedium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffMetalDotStrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffEarthDotSlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffEarthDotMedium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuffEarthDotStrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理弱Dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理中Dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理强Dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见技能文档tips通用规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水弱Dot</t>
-  </si>
-  <si>
-    <t>水中Dot</t>
-  </si>
-  <si>
-    <t>水强Dot</t>
-  </si>
-  <si>
-    <t>火弱Dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火中Dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火强Dot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木弱Dot</t>
-  </si>
-  <si>
-    <t>木中Dot</t>
-  </si>
-  <si>
-    <t>木强Dot</t>
-  </si>
-  <si>
-    <t>光弱Dot</t>
-  </si>
-  <si>
-    <t>光中Dot</t>
-  </si>
-  <si>
-    <t>光强Dot</t>
-  </si>
-  <si>
-    <t>暗弱Dot</t>
-  </si>
-  <si>
-    <t>暗中Dot</t>
-  </si>
-  <si>
-    <t>暗强Dot</t>
-  </si>
-  <si>
-    <t>溺水（弱）</t>
-  </si>
-  <si>
-    <t>溺水（中）</t>
-  </si>
-  <si>
-    <t>溺水（强）</t>
-  </si>
-  <si>
-    <t>痛楚（弱）</t>
-  </si>
-  <si>
-    <t>痛楚（中）</t>
-  </si>
-  <si>
-    <t>痛楚（强）</t>
-  </si>
-  <si>
-    <t>耀斑（弱）</t>
-  </si>
-  <si>
-    <t>耀斑（中）</t>
-  </si>
-  <si>
-    <t>耀斑（强）</t>
-  </si>
-  <si>
-    <t>恢复术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕裂（弱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕裂（中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕裂（强）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点燃（弱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点燃（中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点燃（强）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施毒（弱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施毒（中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施毒（强）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1副本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月光森林 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月光森林 - 2</t>
-  </si>
-  <si>
-    <t>月光森林 - 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月光森林 - 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月光森林 - 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥河 - 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥河 - 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥河 - 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥河 - 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥河 - 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgwp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爪子十分锋利，但是看起来很易碎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认没有提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会对物理攻击进行压制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会对法术攻击进行压制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自认为美艳的美杜莎会对没有头发感到愤怒！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>似乎被什么东西控制了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉动的韵文，释放出强大的魔力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外装甲看起来不那么结实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个右爪在左边，3个左爪在右边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xgHapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升自身力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低力量</t>
-  </si>
-  <si>
-    <t>降低力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚弱术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓速术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力提升（永久型）</t>
-  </si>
-  <si>
-    <t>使用物攻时一定几率是自身的力量上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法系大招攻击敌方全体，造成伤害并降低力量及防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法系大招群体提升力量-驱散妨害buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法系大招攻击敌方全体，造成伤害并降低力量及防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面具下隐藏着弱点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25%血以下时，力量提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法系大招攻击敌方全体，造成伤害并降低智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用特效音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“法攻命中-金-弱”下落一个音效，爆点一个音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“法攻命中-金-弱”下落复用弱光音效，爆点一个音效余韵稍长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“水箭”下落一个音效，爆点一个音效（水花四溅声音）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“瀑布”下落一个音效，爆点复用“弱水”技能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“水技能”汇聚一个音效，爆点复用“弱水”技能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“火焰_小”汇聚一个音效，爆点一个音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“火焰_大”，一个音效即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“法攻命中-土-弱”，一个音效即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频”法攻命中-治疗-中“一个音效即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频”物攻命中-单击-刺-弱“，一个刺击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“鬼爪“，一个音效即可（抓挠和鬼火的声音）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“金色气旋”一个音效即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用”斩击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参考视频”物攻命中-单击-斩-中“，一个斩击音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>破甲术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激励术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加护术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5属性聚气，分别参考“聚气-金”，“聚气-木”，“聚气-水”，“聚气-火”，“聚气-土”，只用在特效一开始时有音效，1秒左右开始淡出，1.5秒左右彻底消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量爆发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力爆发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御姿态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度爆发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频”物攻命中-单击-砸-强“，一个砸击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smash</t>
+    <t xml:space="preserve">commonBuff </t>
+  </si>
+  <si>
+    <t>commonDebuff</t>
+  </si>
+  <si>
+    <t>dotMetal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castPlant </t>
+  </si>
+  <si>
+    <t>castWater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castMetal </t>
+  </si>
+  <si>
+    <t>castFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castEarth </t>
+  </si>
+  <si>
+    <t>hotCure</t>
+  </si>
+  <si>
+    <t>dotPhy</t>
+  </si>
+  <si>
+    <t>dotPlant</t>
+  </si>
+  <si>
+    <t>dotWater</t>
+  </si>
+  <si>
+    <t>dotFire</t>
+  </si>
+  <si>
+    <t>dotEarth</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填</t>
+  </si>
+  <si>
+    <t>不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metalp1,metale1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metale1</t>
+  </si>
+  <si>
+    <t>metale2</t>
+  </si>
+  <si>
+    <t>cmetal</t>
+  </si>
+  <si>
+    <t>cplant</t>
+  </si>
+  <si>
+    <t>cwater</t>
+  </si>
+  <si>
+    <t>cfire</t>
+  </si>
+  <si>
+    <t>cearth</t>
+  </si>
+  <si>
+    <t>plantp1</t>
+  </si>
+  <si>
+    <t>plantp2</t>
+  </si>
+  <si>
+    <t>waterp1,watere1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watere1</t>
+  </si>
+  <si>
+    <t>waterp1</t>
+  </si>
+  <si>
+    <t>waterp2</t>
+  </si>
+  <si>
+    <t>watere2</t>
+  </si>
+  <si>
+    <t>watere3</t>
+  </si>
+  <si>
+    <t>waterp3</t>
+  </si>
+  <si>
+    <t>waterp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSmashSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效配置方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.施法挂接点全都是e_shifa，attach都是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有延迟特效有locky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.延迟挂接点全都是e_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSmashSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟类特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆点特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot/hot爆点特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2472,330 +3001,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metalp1,metale1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metale2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频”法攻命中-木-中“，一个音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterp1,watere1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterp2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firep1,firee1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firep2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthp2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curep1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“紫色dbuff”一个音效即可(爆点音效闷一点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名：cmetal，cplant，cwater，cfire，cearth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strong Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Triple Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triple Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strong Triple Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holy Bolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holy Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Divine Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leaf Darts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Piercing Spikes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wild Growth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Splash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterfall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterspout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hell Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow Swipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow Claw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lesser Healing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Healing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potent Healing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inspire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haste</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overwhelming Strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive Stance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High Intellect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inhibit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tear (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tear (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tear (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignite (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignite (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignite (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gush (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gush (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gush (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flare (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flare (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flare (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anguish (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anguish (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anguish (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stupefy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失心术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossyueguangsenlin11Zouyincao</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin17Xiyiren</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin18Meidusha</t>
-  </si>
-  <si>
-    <t>bossminghe12Longgongtongzi</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin14Luoxinfu</t>
-  </si>
-  <si>
-    <t>bossminghe17Anpusha</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin12Mantuoluo</t>
-  </si>
-  <si>
-    <t>bossminghe14Amute</t>
-  </si>
-  <si>
-    <t>bossminghe18Karong</t>
+    <t>lock_y</t>
+  </si>
+  <si>
+    <t>3.爆点挂接点（包括dot/hot爆点)全都是e_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locky=1的不要填attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2897,8 +3126,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2928,8 +3171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3120,6 +3369,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3151,7 +3409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3271,6 +3529,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3315,6 +3576,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3589,7 +3907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3738,17 +4056,17 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" thickTop="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -3757,11 +4075,11 @@
         <v>311</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -3770,11 +4088,11 @@
         <v>312</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -3783,11 +4101,11 @@
         <v>313</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -3796,11 +4114,11 @@
         <v>314</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -3811,11 +4129,11 @@
       <c r="C16" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -3824,11 +4142,11 @@
         <v>316</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" thickBot="1">
@@ -3837,11 +4155,11 @@
         <v>317</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" thickTop="1">
@@ -3953,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3991,7 +4309,7 @@
     <row r="10" spans="1:12">
       <c r="D10" s="3"/>
       <c r="E10" s="34" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
@@ -4017,10 +4335,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="D11" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -4050,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -4080,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -4110,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -4140,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -4226,7 +4544,7 @@
     <row r="25" spans="3:12">
       <c r="D25" s="6"/>
       <c r="E25" s="34" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
@@ -4255,7 +4573,7 @@
         <v>180</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
@@ -4285,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
@@ -4315,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
@@ -4345,7 +4663,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
@@ -4375,7 +4693,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -4415,62 +4733,62 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="34" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F36" s="33"/>
     </row>
     <row r="38" spans="2:6">
       <c r="C38" s="33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="C39" s="33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="C40" s="33" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="C41" s="33" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="C43" s="33" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="C44" s="33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="C45" s="33" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="C46" s="33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="C47" s="33" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -5299,7 +5617,7 @@
         <v>46</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="40"/>
@@ -7000,7 +7318,7 @@
         <v>45</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E126" s="35"/>
       <c r="F126" s="35"/>
@@ -7021,7 +7339,7 @@
         <v>46</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E127" s="40"/>
       <c r="F127" s="40"/>
@@ -7225,7 +7543,7 @@
         <v>43</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E137" s="35"/>
       <c r="F137" s="35"/>
@@ -7246,7 +7564,7 @@
         <v>45</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E138" s="35"/>
       <c r="F138" s="35"/>
@@ -7471,7 +7789,7 @@
         <v>43</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E149" s="35"/>
       <c r="F149" s="35"/>
@@ -7492,7 +7810,7 @@
         <v>45</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="E150" s="35"/>
       <c r="F150" s="35"/>
@@ -7734,7 +8052,7 @@
         <v>43</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E162" s="35"/>
       <c r="F162" s="35"/>
@@ -7755,7 +8073,7 @@
         <v>89</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E163" s="35"/>
       <c r="F163" s="35"/>
@@ -7776,7 +8094,7 @@
         <v>46</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E164" s="35"/>
       <c r="F164" s="35"/>
@@ -8062,7 +8380,7 @@
         <v>294</v>
       </c>
       <c r="D178" s="35" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E178" s="35"/>
       <c r="F178" s="35"/>
@@ -8254,7 +8572,7 @@
         <v>46</v>
       </c>
       <c r="D188" s="40" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="2:16">
@@ -8280,8 +8598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N316" sqref="N316"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -8390,7 +8708,7 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -8407,7 +8725,7 @@
     </row>
     <row r="7" spans="1:16" s="33" customFormat="1">
       <c r="A7" s="33" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -8428,10 +8746,10 @@
     <row r="8" spans="1:16" s="33" customFormat="1">
       <c r="B8" s="35"/>
       <c r="C8" s="35" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -8600,7 +8918,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
@@ -8676,7 +8994,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -8688,7 +9006,7 @@
         <v>89</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
@@ -8848,7 +9166,7 @@
         <v>294</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
@@ -9352,7 +9670,7 @@
         <v>342</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -9459,7 +9777,7 @@
         <v>342</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="E87" s="35"/>
       <c r="F87" s="35"/>
@@ -9529,7 +9847,7 @@
         <v>43</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96" spans="2:8">
@@ -9537,7 +9855,7 @@
         <v>45</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -9665,7 +9983,7 @@
         <v>342</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="35"/>
@@ -9900,7 +10218,7 @@
         <v>342</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="E139" s="35"/>
       <c r="F139" s="35"/>
@@ -9999,7 +10317,7 @@
         <v>43</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="3:12">
@@ -10007,7 +10325,7 @@
         <v>89</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="3:12">
@@ -10015,7 +10333,7 @@
         <v>46</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="3:12">
@@ -10158,10 +10476,10 @@
     <row r="166" spans="2:14">
       <c r="D166" s="35"/>
       <c r="E166" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>580</v>
+        <v>709</v>
       </c>
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
@@ -10171,10 +10489,10 @@
     <row r="167" spans="2:14" s="33" customFormat="1">
       <c r="D167" s="35"/>
       <c r="E167" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F167" s="35" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
@@ -10200,7 +10518,7 @@
         <v>342</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="E170" s="35"/>
       <c r="F170" s="35"/>
@@ -10573,20 +10891,20 @@
     <row r="199" spans="1:7" s="33" customFormat="1">
       <c r="C199" s="34"/>
       <c r="E199" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F199" s="40" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G199" s="40"/>
     </row>
     <row r="200" spans="1:7" s="33" customFormat="1">
       <c r="C200" s="34"/>
       <c r="E200" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F200" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G200" s="35"/>
     </row>
@@ -10625,7 +10943,7 @@
         <v>342</v>
       </c>
       <c r="D208" s="35" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E208" s="35"/>
     </row>
@@ -11330,10 +11648,10 @@
     <row r="269" spans="4:15">
       <c r="D269" s="35"/>
       <c r="E269" s="35" t="s">
-        <v>473</v>
+        <v>710</v>
       </c>
       <c r="F269" s="35" t="s">
-        <v>586</v>
+        <v>711</v>
       </c>
       <c r="G269" s="35"/>
       <c r="H269" s="35"/>
@@ -11341,10 +11659,10 @@
     <row r="270" spans="4:15">
       <c r="D270" s="35"/>
       <c r="E270" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F270" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G270" s="35"/>
       <c r="H270" s="35"/>
@@ -11416,10 +11734,10 @@
     <row r="277" spans="4:8" s="33" customFormat="1">
       <c r="D277" s="35"/>
       <c r="E277" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F277" s="35" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G277" s="35"/>
       <c r="H277" s="35"/>
@@ -11427,10 +11745,10 @@
     <row r="278" spans="4:8" s="33" customFormat="1">
       <c r="D278" s="35"/>
       <c r="E278" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F278" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G278" s="35"/>
       <c r="H278" s="35"/>
@@ -11502,10 +11820,10 @@
     <row r="285" spans="4:8" s="33" customFormat="1">
       <c r="D285" s="35"/>
       <c r="E285" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F285" s="35" t="s">
-        <v>585</v>
+        <v>712</v>
       </c>
       <c r="G285" s="35"/>
       <c r="H285" s="35"/>
@@ -11513,10 +11831,10 @@
     <row r="286" spans="4:8" s="33" customFormat="1">
       <c r="D286" s="35"/>
       <c r="E286" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F286" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G286" s="35"/>
       <c r="H286" s="35"/>
@@ -11647,7 +11965,7 @@
         <v>342</v>
       </c>
       <c r="D306" s="35" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
     </row>
     <row r="307" spans="2:17">
@@ -11935,10 +12253,10 @@
     </row>
     <row r="346" spans="3:10" s="33" customFormat="1">
       <c r="E346" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F346" s="35" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G346" s="35"/>
       <c r="H346" s="35"/>
@@ -11947,10 +12265,10 @@
     </row>
     <row r="347" spans="3:10" s="33" customFormat="1">
       <c r="E347" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F347" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G347" s="35"/>
       <c r="H347" s="35"/>
@@ -12068,10 +12386,10 @@
     </row>
     <row r="358" spans="4:10" s="33" customFormat="1">
       <c r="E358" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F358" s="35" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G358" s="35"/>
       <c r="H358" s="35"/>
@@ -12080,10 +12398,10 @@
     </row>
     <row r="359" spans="4:10" s="33" customFormat="1">
       <c r="E359" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F359" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G359" s="35"/>
       <c r="H359" s="35"/>
@@ -12219,10 +12537,10 @@
     <row r="378" spans="4:9" s="33" customFormat="1">
       <c r="D378" s="35"/>
       <c r="E378" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F378" s="35" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="35"/>
@@ -12231,10 +12549,10 @@
     <row r="379" spans="4:9" s="33" customFormat="1">
       <c r="D379" s="35"/>
       <c r="E379" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F379" s="35" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G379" s="35"/>
       <c r="H379" s="35"/>
@@ -12341,10 +12659,10 @@
     <row r="389" spans="3:14" s="33" customFormat="1">
       <c r="D389" s="35"/>
       <c r="E389" s="35" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F389" s="35" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="35"/>
@@ -12353,10 +12671,10 @@
     <row r="390" spans="3:14" s="33" customFormat="1">
       <c r="D390" s="35"/>
       <c r="E390" s="35" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F390" s="35" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G390" s="35"/>
       <c r="H390" s="35"/>
@@ -12573,10 +12891,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12584,1558 +12905,3556 @@
     <col min="1" max="1" width="22.625" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="32.875" style="41" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="33"/>
+    <col min="4" max="4" width="25" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="68" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="72" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="68" customWidth="1"/>
+    <col min="15" max="15" width="17" style="33" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="33" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="75" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="68" customWidth="1"/>
+    <col min="19" max="19" width="32.875" style="33" customWidth="1"/>
+    <col min="20" max="20" width="32.875" style="41" customWidth="1"/>
+    <col min="21" max="21" width="23.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:32" s="34" customFormat="1" ht="15">
+      <c r="A1" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="62" t="s">
+        <v>777</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>778</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>715</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>785</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>716</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q1" s="76" t="s">
+        <v>783</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>738</v>
+      </c>
+      <c r="S1" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="T1" s="61" t="s">
+        <v>717</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>718</v>
+      </c>
+      <c r="V1" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="F1" s="33" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="33" t="s">
         <v>370</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>637</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="33" t="s">
-        <v>373</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N2" s="68">
+        <v>1</v>
+      </c>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="V2" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>626</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>641</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="I2" s="36">
+      <c r="D3" s="42" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N3" s="68">
+        <v>1</v>
+      </c>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="V3" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="B3" s="33" t="s">
+    <row r="4" spans="1:32">
+      <c r="A4" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="B4" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="C4" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="I3" s="36">
+      <c r="D4" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N4" s="68">
+        <v>1</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="V4" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" s="33" t="s">
+    <row r="5" spans="1:32">
+      <c r="A5" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="B5" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>660</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="C5" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="I4" s="36">
+      <c r="D5" s="42" t="s">
+        <v>647</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="M5" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N5" s="68">
+        <v>1</v>
+      </c>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="V5" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="B5" s="33" t="s">
+    <row r="6" spans="1:32">
+      <c r="A6" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="B6" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="E5" s="33" t="s">
+      <c r="C6" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="I5" s="36">
+      <c r="D6" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N6" s="68">
+        <v>1</v>
+      </c>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="V6" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="33" t="s">
+    <row r="7" spans="1:32">
+      <c r="A7" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="B7" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>662</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="C7" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="I6" s="36">
+      <c r="D7" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N7" s="68">
+        <v>1</v>
+      </c>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="V7" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" s="33" t="s">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="B8" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="C8" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N8" s="68">
+        <v>1</v>
+      </c>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="V8" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="33" t="s">
         <v>395</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="I7" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A8" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>622</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>640</v>
-      </c>
-      <c r="I8" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="33" t="s">
-        <v>398</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="E9" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N9" s="68">
+        <v>1</v>
+      </c>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="V9" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="I9" s="36">
+      <c r="D10" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N10" s="68">
+        <v>1</v>
+      </c>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="V10" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>660</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="I10" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:32">
       <c r="A11" s="33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>340</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="E11" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N11" s="68">
+        <v>1</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="V11" s="36">
+        <v>20</v>
+      </c>
+      <c r="AF11" s="37"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>648</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="M12" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N12" s="68">
+        <v>1</v>
+      </c>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="V12" s="36">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="37"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="I11" s="36">
+      <c r="B13" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>734</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="M13" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N13" s="68">
+        <v>1</v>
+      </c>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="V13" s="36">
         <v>20</v>
       </c>
-      <c r="S11" s="37"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="33" t="s">
+    </row>
+    <row r="14" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A14" s="33" t="s">
         <v>404</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>662</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="I12" s="36">
-        <v>20</v>
-      </c>
-      <c r="S12" s="37"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>663</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="I13" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A14" s="33" t="s">
-        <v>407</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D14" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>776</v>
+      </c>
+      <c r="I14" s="60"/>
+      <c r="J14" s="69">
+        <v>1</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>629</v>
+      </c>
+      <c r="M14" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N14" s="68">
+        <v>1</v>
+      </c>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="T14" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="V14" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>645</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="I15" s="60"/>
+      <c r="J15" s="69">
+        <v>1</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="L15" s="65" t="s">
+        <v>629</v>
+      </c>
+      <c r="M15" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N15" s="68">
+        <v>1</v>
+      </c>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="V15" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>646</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="69">
+        <v>1</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>629</v>
+      </c>
+      <c r="M16" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N16" s="68">
+        <v>1</v>
+      </c>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="V16" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="33">
+      <c r="A17" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>757</v>
+      </c>
+      <c r="I17" s="60"/>
+      <c r="J17" s="69">
+        <v>1</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="L17" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="M17" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N17" s="68">
+        <v>1</v>
+      </c>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="58" t="s">
+        <v>606</v>
+      </c>
+      <c r="T17" s="58" t="s">
+        <v>739</v>
+      </c>
+      <c r="V17" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>651</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>758</v>
+      </c>
+      <c r="I18" s="60"/>
+      <c r="J18" s="69">
+        <v>1</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="M18" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N18" s="68">
+        <v>1</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="V18" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="33">
+      <c r="A19" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>652</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="I19" s="60"/>
+      <c r="J19" s="69">
+        <v>1</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>741</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N19" s="68">
+        <v>1</v>
+      </c>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="T19" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="V19" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>781</v>
+      </c>
+      <c r="M20" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N20" s="68">
+        <v>1</v>
+      </c>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="V20" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>654</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>761</v>
+      </c>
+      <c r="I21" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="J21" s="69">
+        <v>1</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="L21" s="66"/>
+      <c r="M21" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N21" s="68">
+        <v>1</v>
+      </c>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="T21" s="58" t="s">
+        <v>634</v>
+      </c>
+      <c r="V21" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>655</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>762</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="J22" s="69">
+        <v>1</v>
+      </c>
+      <c r="K22" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="L22" s="66"/>
+      <c r="M22" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N22" s="68">
+        <v>1</v>
+      </c>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="V22" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="33">
+      <c r="A23" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>763</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>751</v>
+      </c>
+      <c r="J23" s="69">
+        <v>1</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>750</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N23" s="68">
+        <v>1</v>
+      </c>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>749</v>
+      </c>
+      <c r="V23" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="33">
+      <c r="A24" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>657</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>752</v>
+      </c>
+      <c r="J24" s="69">
+        <v>1</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24" s="66" t="s">
+        <v>753</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N24" s="68">
+        <v>1</v>
+      </c>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="T24" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="V24" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="33">
+      <c r="A25" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="F14" s="57" t="s">
+      <c r="E25" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>755</v>
+      </c>
+      <c r="J25" s="69">
+        <v>1</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>754</v>
+      </c>
+      <c r="M25" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N25" s="68">
+        <v>1</v>
+      </c>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="T25" s="43" t="s">
+        <v>756</v>
+      </c>
+      <c r="V25" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="33" customHeight="1">
+      <c r="A26" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>726</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="69" t="s">
+        <v>736</v>
+      </c>
+      <c r="K26" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N26" s="68">
+        <v>1</v>
+      </c>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="T26" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="V26" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>660</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>726</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="I27" s="60"/>
+      <c r="J27" s="69" t="s">
+        <v>736</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="M27" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N27" s="68">
+        <v>1</v>
+      </c>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="V27" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>726</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="69">
+        <v>1</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="M28" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N28" s="68">
+        <v>1</v>
+      </c>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="T28" s="41" t="s">
+        <v>637</v>
+      </c>
+      <c r="V28" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="33">
+      <c r="A29" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>769</v>
+      </c>
+      <c r="I29" s="60"/>
+      <c r="J29" s="69">
+        <v>1</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="M29" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N29" s="68">
+        <v>1</v>
+      </c>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="T29" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="V29" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="33" customHeight="1">
+      <c r="A30" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>770</v>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="69" t="s">
+        <v>736</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>450</v>
+      </c>
+      <c r="M30" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N30" s="68">
+        <v>1</v>
+      </c>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="T30" s="58" t="s">
         <v>639</v>
       </c>
-      <c r="I14" s="36">
+      <c r="V30" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="I15" s="36">
+    <row r="31" spans="1:22">
+      <c r="A31" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="I31" s="60"/>
+      <c r="J31" s="69" t="s">
+        <v>736</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="M31" s="71" t="s">
+        <v>736</v>
+      </c>
+      <c r="N31" s="68">
+        <v>1</v>
+      </c>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="V31" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>660</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="I16" s="36">
+    <row r="32" spans="1:22">
+      <c r="A32" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>665</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F32" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="M32" s="72">
+        <v>1</v>
+      </c>
+      <c r="N32" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="T32" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="V32" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33">
-      <c r="A17" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>664</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="I17" s="36">
+    <row r="33" spans="1:22">
+      <c r="A33" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>666</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="M33" s="72">
+        <v>1</v>
+      </c>
+      <c r="N33" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="V33" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>665</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="I18" s="36">
+    <row r="34" spans="1:22">
+      <c r="A34" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="M34" s="72">
+        <v>1</v>
+      </c>
+      <c r="N34" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="V34" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33">
-      <c r="A19" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>666</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>643</v>
-      </c>
-      <c r="I19" s="36">
+    <row r="35" spans="1:22">
+      <c r="A35" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M35" s="72">
+        <v>1</v>
+      </c>
+      <c r="N35" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="T35" s="58" t="s">
+        <v>641</v>
+      </c>
+      <c r="V35" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>667</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>625</v>
-      </c>
-      <c r="I20" s="36">
+    <row r="36" spans="1:22">
+      <c r="A36" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>669</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M36" s="72">
+        <v>1</v>
+      </c>
+      <c r="N36" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="V36" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>668</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>644</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>645</v>
-      </c>
-      <c r="I21" s="36">
+    <row r="37" spans="1:22">
+      <c r="A37" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M37" s="72">
+        <v>1</v>
+      </c>
+      <c r="N37" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="V37" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>669</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="I22" s="36">
+    <row r="38" spans="1:22">
+      <c r="A38" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>671</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M38" s="72">
+        <v>1</v>
+      </c>
+      <c r="N38" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="V38" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33">
-      <c r="A23" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>670</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>646</v>
-      </c>
-      <c r="I23" s="36">
+    <row r="39" spans="1:22">
+      <c r="A39" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M39" s="72">
+        <v>1</v>
+      </c>
+      <c r="N39" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="V39" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33">
-      <c r="A24" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="I24" s="36">
+    <row r="40" spans="1:22">
+      <c r="A40" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>673</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M40" s="72">
+        <v>1</v>
+      </c>
+      <c r="N40" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="V40" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33">
-      <c r="A25" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="I25" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="33" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>618</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="I26" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>674</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="I27" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>675</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>619</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="I28" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="33">
-      <c r="A29" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>676</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I29" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="33" customHeight="1">
-      <c r="A30" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>677</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>652</v>
-      </c>
-      <c r="I30" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>678</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="I31" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>621</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>653</v>
-      </c>
-      <c r="I32" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="I33" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>681</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="I34" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>682</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>624</v>
-      </c>
-      <c r="G35" s="57" t="s">
-        <v>654</v>
-      </c>
-      <c r="I35" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>683</v>
-      </c>
-      <c r="E36" s="33" t="s">
+    <row r="41" spans="1:22">
+      <c r="A41" s="33" t="s">
         <v>497</v>
-      </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="I36" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>594</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>684</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="I37" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>685</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="I38" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>595</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="I39" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="I40" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="33" t="s">
-        <v>500</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D41" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G41" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M41" s="72">
+        <v>1</v>
+      </c>
+      <c r="N41" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="V41" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F42" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G42" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M42" s="72">
+        <v>1</v>
+      </c>
+      <c r="N42" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="V42" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F43" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="M43" s="72">
+        <v>1</v>
+      </c>
+      <c r="N43" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q43" s="75">
+        <v>1</v>
+      </c>
+      <c r="R43" s="68" t="s">
+        <v>786</v>
+      </c>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="V43" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16.5" customHeight="1">
+      <c r="A44" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>677</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F44" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M44" s="72">
+        <v>1</v>
+      </c>
+      <c r="N44" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="T44" s="58" t="s">
+        <v>642</v>
+      </c>
+      <c r="V44" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F45" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G45" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M45" s="72">
+        <v>1</v>
+      </c>
+      <c r="N45" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="V45" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F46" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G46" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M46" s="72">
+        <v>1</v>
+      </c>
+      <c r="N46" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="V46" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F47" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G47" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M47" s="72">
+        <v>1</v>
+      </c>
+      <c r="N47" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="V47" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F48" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G48" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M48" s="72">
+        <v>1</v>
+      </c>
+      <c r="N48" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O48" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q48" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R48" s="68">
+        <v>1</v>
+      </c>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="V48" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G49" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I49" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M49" s="72">
+        <v>1</v>
+      </c>
+      <c r="N49" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O49" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q49" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R49" s="68">
+        <v>1</v>
+      </c>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="V49" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>682</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M50" s="72">
+        <v>1</v>
+      </c>
+      <c r="N50" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O50" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q50" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R50" s="68">
+        <v>1</v>
+      </c>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+      <c r="V50" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G51" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I51" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M51" s="72">
+        <v>1</v>
+      </c>
+      <c r="N51" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O51" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q51" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R51" s="68">
+        <v>1</v>
+      </c>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+      <c r="V51" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F52" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M52" s="72">
+        <v>1</v>
+      </c>
+      <c r="N52" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O52" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q52" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R52" s="68">
+        <v>1</v>
+      </c>
+      <c r="S52" s="58"/>
+      <c r="T52" s="58"/>
+      <c r="V52" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F53" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G53" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M53" s="72">
+        <v>1</v>
+      </c>
+      <c r="N53" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O53" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q53" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R53" s="68">
+        <v>1</v>
+      </c>
+      <c r="S53" s="58"/>
+      <c r="T53" s="58"/>
+      <c r="V53" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F54" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G54" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M54" s="72">
+        <v>1</v>
+      </c>
+      <c r="N54" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O54" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q54" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R54" s="68">
+        <v>1</v>
+      </c>
+      <c r="S54" s="58"/>
+      <c r="T54" s="58"/>
+      <c r="V54" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F55" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G55" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J55" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M55" s="72">
+        <v>1</v>
+      </c>
+      <c r="N55" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O55" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q55" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R55" s="68">
+        <v>1</v>
+      </c>
+      <c r="S55" s="58"/>
+      <c r="T55" s="58"/>
+      <c r="V55" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="D56" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="I41" s="36">
+      <c r="E56" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G56" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M56" s="72">
+        <v>1</v>
+      </c>
+      <c r="N56" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O56" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q56" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R56" s="68">
+        <v>1</v>
+      </c>
+      <c r="S56" s="58"/>
+      <c r="T56" s="58"/>
+      <c r="V56" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="D42" s="42" t="s">
+    <row r="57" spans="1:22">
+      <c r="A57" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="D57" s="42" t="s">
         <v>689</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="I42" s="36">
+      <c r="E57" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G57" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M57" s="72">
+        <v>1</v>
+      </c>
+      <c r="N57" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O57" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q57" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R57" s="68">
+        <v>1</v>
+      </c>
+      <c r="S57" s="58"/>
+      <c r="T57" s="58"/>
+      <c r="V57" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="D43" s="42" t="s">
+    <row r="58" spans="1:22">
+      <c r="A58" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>690</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="I43" s="36">
+      <c r="E58" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F58" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G58" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I58" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J58" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M58" s="72">
+        <v>1</v>
+      </c>
+      <c r="N58" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O58" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q58" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R58" s="68">
+        <v>1</v>
+      </c>
+      <c r="S58" s="58"/>
+      <c r="T58" s="58"/>
+      <c r="V58" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A44" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>597</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="D44" s="42" t="s">
+    <row r="59" spans="1:22">
+      <c r="A59" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="D59" s="42" t="s">
         <v>691</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>656</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>655</v>
-      </c>
-      <c r="I44" s="36">
+      <c r="E59" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F59" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G59" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I59" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M59" s="72">
+        <v>1</v>
+      </c>
+      <c r="N59" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O59" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q59" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R59" s="68">
+        <v>1</v>
+      </c>
+      <c r="S59" s="58"/>
+      <c r="T59" s="58"/>
+      <c r="V59" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="33" t="s">
+    <row r="60" spans="1:22">
+      <c r="A60" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>692</v>
+      </c>
+      <c r="E60" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>627</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="I45" s="36">
+      <c r="F60" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G60" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I60" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M60" s="72">
+        <v>1</v>
+      </c>
+      <c r="N60" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O60" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q60" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R60" s="68">
+        <v>1</v>
+      </c>
+      <c r="S60" s="58"/>
+      <c r="T60" s="58"/>
+      <c r="V60" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>713</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>712</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="I46" s="36">
+    <row r="61" spans="1:22">
+      <c r="A61" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F61" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G61" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M61" s="72">
+        <v>1</v>
+      </c>
+      <c r="N61" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O61" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q61" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R61" s="68">
+        <v>1</v>
+      </c>
+      <c r="S61" s="58"/>
+      <c r="T61" s="58"/>
+      <c r="V61" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>693</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="I47" s="36">
+    <row r="62" spans="1:22">
+      <c r="A62" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F62" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J62" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M62" s="72">
+        <v>1</v>
+      </c>
+      <c r="N62" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O62" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q62" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R62" s="68">
+        <v>1</v>
+      </c>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="V62" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="33" t="s">
-        <v>507</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>557</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>694</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="I48" s="36">
+    <row r="63" spans="1:22">
+      <c r="A63" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>695</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F63" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G63" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I63" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J63" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M63" s="72">
+        <v>1</v>
+      </c>
+      <c r="N63" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O63" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q63" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R63" s="68">
+        <v>1</v>
+      </c>
+      <c r="S63" s="58"/>
+      <c r="T63" s="58"/>
+      <c r="V63" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>558</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>695</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="I49" s="36">
+    <row r="64" spans="1:22">
+      <c r="A64" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>696</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F64" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G64" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I64" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J64" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M64" s="72">
+        <v>1</v>
+      </c>
+      <c r="N64" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O64" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q64" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R64" s="68">
+        <v>1</v>
+      </c>
+      <c r="S64" s="58"/>
+      <c r="T64" s="58"/>
+      <c r="V64" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>696</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="I50" s="36">
+    <row r="65" spans="1:22">
+      <c r="A65" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>697</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="F65" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="G65" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="I65" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="J65" s="35" t="s">
+        <v>734</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="M65" s="72">
+        <v>1</v>
+      </c>
+      <c r="N65" s="68" t="s">
+        <v>736</v>
+      </c>
+      <c r="O65" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q65" s="75" t="s">
+        <v>735</v>
+      </c>
+      <c r="R65" s="68">
+        <v>1</v>
+      </c>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="V65" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>697</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="I51" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>698</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="I52" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>537</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>562</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>699</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="I53" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="33" t="s">
-        <v>514</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>700</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="I54" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>548</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>701</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="I55" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="33" t="s">
-        <v>516</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>549</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>702</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="I56" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>703</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="I57" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>564</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>704</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="I58" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="33" t="s">
-        <v>519</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="D59" s="42" t="s">
-        <v>705</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="I59" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>706</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="I60" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>554</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>707</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="I61" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>555</v>
-      </c>
-      <c r="D62" s="42" t="s">
-        <v>708</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="I62" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>709</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="I63" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>551</v>
-      </c>
-      <c r="D64" s="42" t="s">
-        <v>710</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="I64" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="I65" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="33" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="33" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="33" t="s">
-        <v>657</v>
+    <row r="68" spans="1:22">
+      <c r="B68" s="33" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="C69" s="33" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="C70" s="33" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="D71" s="33" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="D72" s="33" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="C74" s="33" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F44:F65"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F43"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G35:G43"/>
-    <mergeCell ref="G44:G65"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="T44:T65"/>
+    <mergeCell ref="T2:T7"/>
+    <mergeCell ref="T8:T13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="S44:S65"/>
+    <mergeCell ref="S8:S13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S2:S7"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="S35:S43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/Demo/副本设计v0.4.xlsx
+++ b/gd/Demo/副本设计v0.4.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="834">
   <si>
     <t>月光森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2452,571 +2452,748 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>earthp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频“紫色dbuff”一个音效即可(爆点音效闷一点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divine Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf Darts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piercing Spikes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild Growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterspout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hell Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Swipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Claw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesser Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potent Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overwhelming Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive Stance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Intellect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stupefy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失心术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossyueguangsenlin11Zouyincao</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin17Xiyiren</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin18Meidusha</t>
+  </si>
+  <si>
+    <t>bossminghe12Longgongtongzi</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin14Luoxinfu</t>
+  </si>
+  <si>
+    <t>bossminghe17Anpusha</t>
+  </si>
+  <si>
+    <t>bossyueguangsenlin12Mantuoluo</t>
+  </si>
+  <si>
+    <t>bossminghe14Amute</t>
+  </si>
+  <si>
+    <t>bossminghe18Karong</t>
+  </si>
+  <si>
+    <t>爪子十分锋利，但是看起来很易碎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自认为美艳的美杜莎会对没有头发感到愤怒！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会对法术攻击进行压制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考视频”物攻命中-单击-斩-中“，一个斩击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">commonBuff </t>
+  </si>
+  <si>
+    <t>commonDebuff</t>
+  </si>
+  <si>
+    <t>dotMetal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castPlant </t>
+  </si>
+  <si>
+    <t>castWater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castMetal </t>
+  </si>
+  <si>
+    <t>castFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castEarth </t>
+  </si>
+  <si>
+    <t>hotCure</t>
+  </si>
+  <si>
+    <t>dotPhy</t>
+  </si>
+  <si>
+    <t>dotPlant</t>
+  </si>
+  <si>
+    <t>dotWater</t>
+  </si>
+  <si>
+    <t>dotFire</t>
+  </si>
+  <si>
+    <t>dotEarth</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填</t>
+  </si>
+  <si>
+    <t>不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metalp1,metale1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metale1</t>
+  </si>
+  <si>
+    <t>metale2</t>
+  </si>
+  <si>
+    <t>cmetal</t>
+  </si>
+  <si>
+    <t>cplant</t>
+  </si>
+  <si>
+    <t>cwater</t>
+  </si>
+  <si>
+    <t>cfire</t>
+  </si>
+  <si>
+    <t>cearth</t>
+  </si>
+  <si>
+    <t>plantp1</t>
+  </si>
+  <si>
+    <t>plantp2</t>
+  </si>
+  <si>
+    <t>waterp1,watere1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watere1</t>
+  </si>
+  <si>
+    <t>waterp2</t>
+  </si>
+  <si>
+    <t>waterp3</t>
+  </si>
+  <si>
+    <t>magicMetalSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用特效配置方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.施法挂接点全都是e_shifa，attach都是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有延迟特效有locky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.延迟挂接点全都是e_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟类特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆点特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot/hot爆点特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_y</t>
+  </si>
+  <si>
+    <t>3.爆点挂接点（包括dot/hot爆点)全都是e_shouji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locky=1的不要填attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+  </si>
+  <si>
+    <t>curep1</t>
+  </si>
+  <si>
+    <t>curep1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curep2</t>
+  </si>
+  <si>
+    <t>curep3</t>
+  </si>
+  <si>
+    <t>earthp2</t>
+  </si>
+  <si>
+    <t>earthp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firep2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firep2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>firep1,firee1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>firep2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthp2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curep1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频“紫色dbuff”一个音效即可(爆点音效闷一点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strong Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Triple Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triple Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strong Triple Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holy Bolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Holy Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Divine Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leaf Darts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Piercing Spikes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wild Growth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Splash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterfall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waterspout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hell Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow Swipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow Claw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lesser Healing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Healing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potent Healing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inspire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haste</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overwhelming Strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defensive Stance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High Intellect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inhibit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tear (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tear (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tear (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignite (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignite (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignite (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gush (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gush (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gush (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flare (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flare (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flare (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anguish (Weak)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anguish (Normal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anguish (Strong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stupefy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失心术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossyueguangsenlin11Zouyincao</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin17Xiyiren</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin18Meidusha</t>
-  </si>
-  <si>
-    <t>bossminghe12Longgongtongzi</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin14Luoxinfu</t>
-  </si>
-  <si>
-    <t>bossminghe17Anpusha</t>
-  </si>
-  <si>
-    <t>bossyueguangsenlin12Mantuoluo</t>
-  </si>
-  <si>
-    <t>bossminghe14Amute</t>
-  </si>
-  <si>
-    <t>bossminghe18Karong</t>
-  </si>
-  <si>
-    <t>爪子十分锋利，但是看起来很易碎。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自认为美艳的美杜莎会对没有头发感到愤怒！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会对法术攻击进行压制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计代号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考视频”物攻命中-单击-斩-中“，一个斩击音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">commonBuff </t>
-  </si>
-  <si>
-    <t>commonDebuff</t>
+    <t>firep1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firee1</t>
+  </si>
+  <si>
+    <t>waterp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有技能特效都是.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackStabMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackCutSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicMetalMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicPlantMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicEarthMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotPlant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dotMetal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotPhy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">castPlant </t>
-  </si>
-  <si>
-    <t>castWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">castMetal </t>
-  </si>
-  <si>
-    <t>castFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotEarth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">castEarth </t>
-  </si>
-  <si>
-    <t>hotCure</t>
-  </si>
-  <si>
-    <t>dotPhy</t>
-  </si>
-  <si>
-    <t>dotPlant</t>
-  </si>
-  <si>
-    <t>dotWater</t>
-  </si>
-  <si>
-    <t>dotFire</t>
-  </si>
-  <si>
-    <t>dotEarth</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填</t>
-  </si>
-  <si>
-    <t>不填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metalp1,metale1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metale1</t>
-  </si>
-  <si>
-    <t>metale2</t>
-  </si>
-  <si>
-    <t>cmetal</t>
-  </si>
-  <si>
-    <t>cplant</t>
-  </si>
-  <si>
-    <t>cwater</t>
-  </si>
-  <si>
-    <t>cfire</t>
-  </si>
-  <si>
-    <t>cearth</t>
-  </si>
-  <si>
-    <t>plantp1</t>
-  </si>
-  <si>
-    <t>plantp2</t>
-  </si>
-  <si>
-    <t>waterp1,watere1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>watere1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicCureSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效prefab图示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对部分prefab进行复用，更改配置即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚缺少资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>waterp1</t>
-  </si>
-  <si>
-    <t>waterp2</t>
-  </si>
-  <si>
-    <t>watere2</t>
-  </si>
-  <si>
-    <t>watere3</t>
-  </si>
-  <si>
-    <t>waterp3</t>
-  </si>
-  <si>
-    <t>waterp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicMetalSlightp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicMetalMediump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicMetalStrongp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The claws are very sharp, but fragile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Underneath the mask lies the weakpoint.</t>
+  </si>
+  <si>
+    <t>The beautiful Medusa would be quite upset without hair.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppresses physical attacks. </t>
+  </si>
+  <si>
+    <t>Suppresses magic attacks.</t>
+  </si>
+  <si>
+    <t>It seems as if she is being controlled by something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The flowing verses release powerful magic.</t>
+  </si>
+  <si>
+    <t>The claws doesn't seem to be that tough.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSmashMediump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSmashStrongp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attackSmashSlightp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicPlantMediump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicPlantStrongp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWaterSlightp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWaterMediump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicWaterStrongp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicFireStrongp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicFireMediump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicFireSlightp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicEarthSlightp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicEarthMediump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magicEarthStrongp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用特效配置方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.施法挂接点全都是e_shifa，attach都是1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有延迟特效有locky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.延迟挂接点全都是e_shouji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackSmashSlightp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延迟类特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆点特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dot/hot爆点特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_y</t>
-  </si>
-  <si>
-    <t>3.爆点挂接点（包括dot/hot爆点)全都是e_shouji</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>locky=1的不要填attach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3024,7 +3201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3127,21 +3304,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3174,6 +3358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3409,7 +3599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3517,9 +3707,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3531,6 +3718,96 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3576,63 +3853,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4056,17 +4276,17 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" thickTop="1">
       <c r="A11" s="16"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5">
@@ -4075,11 +4295,11 @@
         <v>311</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="16.5">
@@ -4088,11 +4308,11 @@
         <v>312</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -4101,11 +4321,11 @@
         <v>313</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="16.5">
@@ -4114,11 +4334,11 @@
         <v>314</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="16.5">
@@ -4129,11 +4349,11 @@
       <c r="C16" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="16.5">
@@ -4142,11 +4362,11 @@
         <v>316</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" thickBot="1">
@@ -4155,11 +4375,11 @@
         <v>317</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" thickTop="1">
@@ -4802,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5620,8 +5840,8 @@
         <v>597</v>
       </c>
       <c r="E43" s="35"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
@@ -6066,10 +6286,10 @@
       <c r="C65" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="40"/>
+      <c r="E65" s="39"/>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
@@ -7341,8 +7561,8 @@
       <c r="D127" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
       <c r="I127" s="35"/>
@@ -7568,8 +7788,8 @@
       </c>
       <c r="E138" s="35"/>
       <c r="F138" s="35"/>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
       <c r="I138" s="35"/>
       <c r="J138" s="35"/>
       <c r="K138" s="35"/>
@@ -7788,7 +8008,7 @@
       <c r="C149" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D149" s="40" t="s">
+      <c r="D149" s="39" t="s">
         <v>605</v>
       </c>
       <c r="E149" s="35"/>
@@ -7814,8 +8034,8 @@
       </c>
       <c r="E150" s="35"/>
       <c r="F150" s="35"/>
-      <c r="G150" s="40"/>
-      <c r="H150" s="40"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="39"/>
       <c r="I150" s="35"/>
       <c r="J150" s="35"/>
       <c r="K150" s="35"/>
@@ -8571,7 +8791,7 @@
       <c r="C188" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D188" s="40" t="s">
+      <c r="D188" s="39" t="s">
         <v>596</v>
       </c>
     </row>
@@ -8598,8 +8818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q406"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I285" sqref="I285:K285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -8918,7 +9138,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
@@ -8993,7 +9213,7 @@
       <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>595</v>
       </c>
       <c r="E27" s="13"/>
@@ -9008,8 +9228,8 @@
       <c r="D28" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
@@ -9166,7 +9386,7 @@
         <v>294</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
@@ -9670,7 +9890,7 @@
         <v>342</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -9721,31 +9941,36 @@
       </c>
     </row>
     <row r="78" spans="2:16">
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="35" t="s">
         <v>42</v>
       </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
     </row>
     <row r="79" spans="2:16">
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="40"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
     </row>
     <row r="80" spans="2:16">
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+    </row>
+    <row r="81" spans="2:9">
       <c r="C81" s="3" t="s">
         <v>46</v>
       </c>
@@ -9753,37 +9978,37 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:9">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:9">
       <c r="C83" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:9">
       <c r="D84" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="8" customFormat="1">
+    <row r="86" spans="2:9" s="8" customFormat="1">
       <c r="B86" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="2:8" s="13" customFormat="1">
+    <row r="87" spans="2:9" s="13" customFormat="1">
       <c r="B87" s="35"/>
       <c r="C87" s="30" t="s">
         <v>342</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E87" s="35"/>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:9">
       <c r="B88" s="35"/>
       <c r="C88" s="30" t="s">
         <v>35</v>
@@ -9795,7 +10020,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:9">
       <c r="B89" s="35"/>
       <c r="C89" s="30" t="s">
         <v>37</v>
@@ -9807,7 +10032,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:9">
       <c r="C90" s="3" t="s">
         <v>64</v>
       </c>
@@ -9815,7 +10040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:9">
       <c r="C91" s="3" t="s">
         <v>48</v>
       </c>
@@ -9823,10 +10048,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:9">
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:9">
       <c r="C93" s="3" t="s">
         <v>39</v>
       </c>
@@ -9834,7 +10059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:9">
       <c r="C94" s="3" t="s">
         <v>40</v>
       </c>
@@ -9842,7 +10067,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:9">
       <c r="C95" s="3" t="s">
         <v>43</v>
       </c>
@@ -9850,15 +10075,16 @@
         <v>601</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:9">
       <c r="C96" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D96" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
     </row>
     <row r="97" spans="2:9">
       <c r="C97" s="3" t="s">
@@ -9983,7 +10209,7 @@
         <v>342</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="35"/>
@@ -10218,7 +10444,7 @@
         <v>342</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E139" s="35"/>
       <c r="F139" s="35"/>
@@ -10479,12 +10705,17 @@
         <v>470</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G166" s="35"/>
       <c r="H166" s="35"/>
       <c r="I166" s="35"/>
-      <c r="J166" s="35"/>
+      <c r="J166" s="67" t="s">
+        <v>823</v>
+      </c>
+      <c r="K166" s="67"/>
+      <c r="L166" s="67"/>
+      <c r="M166" s="67"/>
     </row>
     <row r="167" spans="2:14" s="33" customFormat="1">
       <c r="D167" s="35"/>
@@ -10518,7 +10749,7 @@
         <v>342</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E170" s="35"/>
       <c r="F170" s="35"/>
@@ -10842,7 +11073,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:13">
       <c r="D194" s="2" t="s">
         <v>136</v>
       </c>
@@ -10853,7 +11084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:13">
       <c r="E195" s="2" t="s">
         <v>121</v>
       </c>
@@ -10861,7 +11092,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:13">
       <c r="C196" s="3"/>
       <c r="E196" s="2" t="s">
         <v>105</v>
@@ -10870,7 +11101,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:13">
       <c r="C197" s="3"/>
       <c r="E197" s="2" t="s">
         <v>107</v>
@@ -10879,26 +11110,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:13">
       <c r="C198" s="3"/>
       <c r="E198" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="31" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" s="33" customFormat="1">
+      <c r="G198" s="35"/>
+      <c r="H198" s="35"/>
+    </row>
+    <row r="199" spans="1:13" s="33" customFormat="1">
       <c r="C199" s="34"/>
       <c r="E199" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="F199" s="40" t="s">
+      <c r="F199" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="G199" s="40"/>
-    </row>
-    <row r="200" spans="1:7" s="33" customFormat="1">
+      <c r="G199" s="35"/>
+      <c r="H199" s="35"/>
+      <c r="I199" s="67" t="s">
+        <v>824</v>
+      </c>
+      <c r="J199" s="67"/>
+      <c r="K199" s="67"/>
+      <c r="L199" s="67"/>
+      <c r="M199" s="67"/>
+    </row>
+    <row r="200" spans="1:13" s="33" customFormat="1">
       <c r="C200" s="34"/>
       <c r="E200" s="35" t="s">
         <v>577</v>
@@ -10907,19 +11148,20 @@
         <v>578</v>
       </c>
       <c r="G200" s="35"/>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200" s="35"/>
+    </row>
+    <row r="201" spans="1:13">
       <c r="C201" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:13">
       <c r="C202" s="3"/>
       <c r="D202" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:13">
       <c r="C204" s="3" t="s">
         <v>134</v>
       </c>
@@ -10927,23 +11169,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:13">
       <c r="A206" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="8" customFormat="1">
+    <row r="207" spans="1:13" s="8" customFormat="1">
       <c r="B207" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="13" customFormat="1">
+    <row r="208" spans="1:13" s="13" customFormat="1">
       <c r="B208" s="35"/>
       <c r="C208" s="30" t="s">
         <v>342</v>
       </c>
       <c r="D208" s="35" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E208" s="35"/>
     </row>
@@ -11526,7 +11768,7 @@
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
     </row>
-    <row r="257" spans="4:15">
+    <row r="257" spans="4:16">
       <c r="E257" s="2" t="s">
         <v>157</v>
       </c>
@@ -11541,7 +11783,7 @@
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
     </row>
-    <row r="258" spans="4:15">
+    <row r="258" spans="4:16">
       <c r="F258" s="13" t="s">
         <v>104</v>
       </c>
@@ -11557,7 +11799,7 @@
       <c r="N258" s="13"/>
       <c r="O258" s="13"/>
     </row>
-    <row r="259" spans="4:15">
+    <row r="259" spans="4:16">
       <c r="F259" s="13" t="s">
         <v>121</v>
       </c>
@@ -11573,7 +11815,7 @@
       <c r="N259" s="13"/>
       <c r="O259" s="13"/>
     </row>
-    <row r="260" spans="4:15">
+    <row r="260" spans="4:16">
       <c r="F260" s="2" t="s">
         <v>105</v>
       </c>
@@ -11581,7 +11823,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="261" spans="4:15">
+    <row r="261" spans="4:16">
       <c r="F261" s="2" t="s">
         <v>107</v>
       </c>
@@ -11589,7 +11831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="262" spans="4:15">
+    <row r="262" spans="4:16">
       <c r="F262" s="2" t="s">
         <v>119</v>
       </c>
@@ -11597,12 +11839,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="263" spans="4:15">
+    <row r="263" spans="4:16">
       <c r="E263" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="264" spans="4:15">
+    <row r="264" spans="4:16">
       <c r="F264" s="2" t="s">
         <v>104</v>
       </c>
@@ -11610,7 +11852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="265" spans="4:15">
+    <row r="265" spans="4:16">
       <c r="F265" s="2" t="s">
         <v>121</v>
       </c>
@@ -11618,7 +11860,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="266" spans="4:15">
+    <row r="266" spans="4:16">
       <c r="F266" s="2" t="s">
         <v>105</v>
       </c>
@@ -11626,7 +11868,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="267" spans="4:15">
+    <row r="267" spans="4:16">
       <c r="F267" s="2" t="s">
         <v>107</v>
       </c>
@@ -11634,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="4:15">
+    <row r="268" spans="4:16">
       <c r="D268" s="35"/>
       <c r="E268" s="35"/>
       <c r="F268" s="35" t="s">
@@ -11645,18 +11887,26 @@
       </c>
       <c r="H268" s="35"/>
     </row>
-    <row r="269" spans="4:15">
+    <row r="269" spans="4:16">
       <c r="D269" s="35"/>
       <c r="E269" s="35" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F269" s="35" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G269" s="35"/>
       <c r="H269" s="35"/>
-    </row>
-    <row r="270" spans="4:15">
+      <c r="K269" s="67" t="s">
+        <v>825</v>
+      </c>
+      <c r="L269" s="67"/>
+      <c r="M269" s="67"/>
+      <c r="N269" s="67"/>
+      <c r="O269" s="67"/>
+      <c r="P269" s="67"/>
+    </row>
+    <row r="270" spans="4:16">
       <c r="D270" s="35"/>
       <c r="E270" s="35" t="s">
         <v>577</v>
@@ -11667,14 +11917,14 @@
       <c r="G270" s="35"/>
       <c r="H270" s="35"/>
     </row>
-    <row r="271" spans="4:15" s="33" customFormat="1">
+    <row r="271" spans="4:16" s="33" customFormat="1">
       <c r="D271" s="35"/>
       <c r="E271" s="35"/>
       <c r="F271" s="35"/>
       <c r="G271" s="35"/>
       <c r="H271" s="35"/>
     </row>
-    <row r="272" spans="4:15">
+    <row r="272" spans="4:16">
       <c r="D272" s="35" t="s">
         <v>147</v>
       </c>
@@ -11687,7 +11937,7 @@
       <c r="G272" s="35"/>
       <c r="H272" s="35"/>
     </row>
-    <row r="273" spans="4:8">
+    <row r="273" spans="4:11">
       <c r="D273" s="35"/>
       <c r="E273" s="35" t="s">
         <v>121</v>
@@ -11698,7 +11948,7 @@
       <c r="G273" s="35"/>
       <c r="H273" s="35"/>
     </row>
-    <row r="274" spans="4:8">
+    <row r="274" spans="4:11">
       <c r="D274" s="35"/>
       <c r="E274" s="35" t="s">
         <v>105</v>
@@ -11709,7 +11959,7 @@
       <c r="G274" s="35"/>
       <c r="H274" s="35"/>
     </row>
-    <row r="275" spans="4:8">
+    <row r="275" spans="4:11">
       <c r="D275" s="35"/>
       <c r="E275" s="35" t="s">
         <v>107</v>
@@ -11720,7 +11970,7 @@
       <c r="G275" s="35"/>
       <c r="H275" s="35"/>
     </row>
-    <row r="276" spans="4:8">
+    <row r="276" spans="4:11">
       <c r="D276" s="35"/>
       <c r="E276" s="35" t="s">
         <v>119</v>
@@ -11731,7 +11981,7 @@
       <c r="G276" s="35"/>
       <c r="H276" s="35"/>
     </row>
-    <row r="277" spans="4:8" s="33" customFormat="1">
+    <row r="277" spans="4:11" s="33" customFormat="1">
       <c r="D277" s="35"/>
       <c r="E277" s="35" t="s">
         <v>470</v>
@@ -11741,8 +11991,13 @@
       </c>
       <c r="G277" s="35"/>
       <c r="H277" s="35"/>
-    </row>
-    <row r="278" spans="4:8" s="33" customFormat="1">
+      <c r="I277" s="67" t="s">
+        <v>826</v>
+      </c>
+      <c r="J277" s="67"/>
+      <c r="K277" s="67"/>
+    </row>
+    <row r="278" spans="4:11" s="33" customFormat="1">
       <c r="D278" s="35"/>
       <c r="E278" s="35" t="s">
         <v>577</v>
@@ -11753,14 +12008,14 @@
       <c r="G278" s="35"/>
       <c r="H278" s="35"/>
     </row>
-    <row r="279" spans="4:8">
+    <row r="279" spans="4:11">
       <c r="D279" s="35"/>
       <c r="E279" s="35"/>
       <c r="F279" s="35"/>
       <c r="G279" s="35"/>
       <c r="H279" s="35"/>
     </row>
-    <row r="280" spans="4:8">
+    <row r="280" spans="4:11">
       <c r="D280" s="35" t="s">
         <v>148</v>
       </c>
@@ -11773,7 +12028,7 @@
       <c r="G280" s="35"/>
       <c r="H280" s="35"/>
     </row>
-    <row r="281" spans="4:8">
+    <row r="281" spans="4:11">
       <c r="D281" s="35"/>
       <c r="E281" s="35" t="s">
         <v>121</v>
@@ -11784,7 +12039,7 @@
       <c r="G281" s="35"/>
       <c r="H281" s="35"/>
     </row>
-    <row r="282" spans="4:8">
+    <row r="282" spans="4:11">
       <c r="D282" s="35"/>
       <c r="E282" s="35" t="s">
         <v>105</v>
@@ -11795,7 +12050,7 @@
       <c r="G282" s="35"/>
       <c r="H282" s="35"/>
     </row>
-    <row r="283" spans="4:8">
+    <row r="283" spans="4:11">
       <c r="D283" s="35"/>
       <c r="E283" s="35" t="s">
         <v>107</v>
@@ -11806,7 +12061,7 @@
       <c r="G283" s="35"/>
       <c r="H283" s="35"/>
     </row>
-    <row r="284" spans="4:8">
+    <row r="284" spans="4:11">
       <c r="D284" s="35"/>
       <c r="E284" s="35" t="s">
         <v>119</v>
@@ -11817,18 +12072,23 @@
       <c r="G284" s="35"/>
       <c r="H284" s="35"/>
     </row>
-    <row r="285" spans="4:8" s="33" customFormat="1">
+    <row r="285" spans="4:11" s="33" customFormat="1">
       <c r="D285" s="35"/>
       <c r="E285" s="35" t="s">
         <v>470</v>
       </c>
       <c r="F285" s="35" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G285" s="35"/>
       <c r="H285" s="35"/>
-    </row>
-    <row r="286" spans="4:8" s="33" customFormat="1">
+      <c r="I285" s="67" t="s">
+        <v>827</v>
+      </c>
+      <c r="J285" s="67"/>
+      <c r="K285" s="67"/>
+    </row>
+    <row r="286" spans="4:11" s="33" customFormat="1">
       <c r="D286" s="35"/>
       <c r="E286" s="35" t="s">
         <v>577</v>
@@ -11839,14 +12099,14 @@
       <c r="G286" s="35"/>
       <c r="H286" s="35"/>
     </row>
-    <row r="287" spans="4:8">
+    <row r="287" spans="4:11">
       <c r="D287" s="35"/>
       <c r="E287" s="35"/>
       <c r="F287" s="35"/>
       <c r="G287" s="35"/>
       <c r="H287" s="35"/>
     </row>
-    <row r="288" spans="4:8">
+    <row r="288" spans="4:11">
       <c r="D288" s="2" t="s">
         <v>149</v>
       </c>
@@ -11965,7 +12225,7 @@
         <v>342</v>
       </c>
       <c r="D306" s="35" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="307" spans="2:17">
@@ -12185,23 +12445,23 @@
         <v>359</v>
       </c>
     </row>
-    <row r="337" spans="3:10">
+    <row r="337" spans="3:14">
       <c r="C337" s="3"/>
       <c r="F337" s="15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="338" spans="3:10">
+    <row r="338" spans="3:14">
       <c r="C338" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="339" spans="3:10">
+    <row r="339" spans="3:14">
       <c r="D339" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="340" spans="3:10">
+    <row r="340" spans="3:14">
       <c r="E340" s="2" t="s">
         <v>104</v>
       </c>
@@ -12209,7 +12469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="341" spans="3:10">
+    <row r="341" spans="3:14">
       <c r="E341" s="2" t="s">
         <v>121</v>
       </c>
@@ -12217,7 +12477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="342" spans="3:10">
+    <row r="342" spans="3:14">
       <c r="E342" s="2" t="s">
         <v>105</v>
       </c>
@@ -12225,7 +12485,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="343" spans="3:10">
+    <row r="343" spans="3:14">
       <c r="E343" s="2" t="s">
         <v>107</v>
       </c>
@@ -12233,7 +12493,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="344" spans="3:10">
+    <row r="344" spans="3:14">
       <c r="E344" s="2" t="s">
         <v>119</v>
       </c>
@@ -12241,7 +12501,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="345" spans="3:10">
+    <row r="345" spans="3:14">
       <c r="E345" s="35" t="s">
         <v>227</v>
       </c>
@@ -12251,7 +12511,7 @@
       <c r="I345" s="35"/>
       <c r="J345" s="35"/>
     </row>
-    <row r="346" spans="3:10" s="33" customFormat="1">
+    <row r="346" spans="3:14" s="33" customFormat="1">
       <c r="E346" s="35" t="s">
         <v>470</v>
       </c>
@@ -12260,10 +12520,16 @@
       </c>
       <c r="G346" s="35"/>
       <c r="H346" s="35"/>
-      <c r="I346" s="35"/>
-      <c r="J346" s="35"/>
-    </row>
-    <row r="347" spans="3:10" s="33" customFormat="1">
+      <c r="I346" s="67" t="s">
+        <v>828</v>
+      </c>
+      <c r="J346" s="67"/>
+      <c r="K346" s="67"/>
+      <c r="L346" s="67"/>
+      <c r="M346" s="67"/>
+      <c r="N346" s="67"/>
+    </row>
+    <row r="347" spans="3:14" s="33" customFormat="1">
       <c r="E347" s="35" t="s">
         <v>577</v>
       </c>
@@ -12275,7 +12541,7 @@
       <c r="I347" s="35"/>
       <c r="J347" s="35"/>
     </row>
-    <row r="348" spans="3:10">
+    <row r="348" spans="3:14">
       <c r="E348" s="35"/>
       <c r="F348" s="35"/>
       <c r="G348" s="35"/>
@@ -12283,7 +12549,7 @@
       <c r="I348" s="35"/>
       <c r="J348" s="35"/>
     </row>
-    <row r="349" spans="3:10">
+    <row r="349" spans="3:14">
       <c r="D349" s="2" t="s">
         <v>192</v>
       </c>
@@ -12294,7 +12560,7 @@
       <c r="I349" s="35"/>
       <c r="J349" s="35"/>
     </row>
-    <row r="350" spans="3:10">
+    <row r="350" spans="3:14">
       <c r="E350" s="35" t="s">
         <v>167</v>
       </c>
@@ -12304,7 +12570,7 @@
       <c r="I350" s="35"/>
       <c r="J350" s="35"/>
     </row>
-    <row r="351" spans="3:10">
+    <row r="351" spans="3:14">
       <c r="E351" s="35" t="s">
         <v>157</v>
       </c>
@@ -12314,7 +12580,7 @@
       <c r="I351" s="35"/>
       <c r="J351" s="35"/>
     </row>
-    <row r="352" spans="3:10">
+    <row r="352" spans="3:14">
       <c r="E352" s="35"/>
       <c r="F352" s="35" t="s">
         <v>104</v>
@@ -12326,7 +12592,7 @@
       <c r="I352" s="35"/>
       <c r="J352" s="35"/>
     </row>
-    <row r="353" spans="4:10">
+    <row r="353" spans="4:14">
       <c r="E353" s="35"/>
       <c r="F353" s="35" t="s">
         <v>121</v>
@@ -12338,7 +12604,7 @@
       <c r="I353" s="35"/>
       <c r="J353" s="35"/>
     </row>
-    <row r="354" spans="4:10">
+    <row r="354" spans="4:14">
       <c r="E354" s="35"/>
       <c r="F354" s="35" t="s">
         <v>105</v>
@@ -12350,7 +12616,7 @@
       <c r="I354" s="35"/>
       <c r="J354" s="35"/>
     </row>
-    <row r="355" spans="4:10">
+    <row r="355" spans="4:14">
       <c r="E355" s="35"/>
       <c r="F355" s="35" t="s">
         <v>107</v>
@@ -12362,7 +12628,7 @@
       <c r="I355" s="35"/>
       <c r="J355" s="35"/>
     </row>
-    <row r="356" spans="4:10">
+    <row r="356" spans="4:14">
       <c r="E356" s="35"/>
       <c r="F356" s="35" t="s">
         <v>119</v>
@@ -12374,7 +12640,7 @@
       <c r="I356" s="35"/>
       <c r="J356" s="35"/>
     </row>
-    <row r="357" spans="4:10">
+    <row r="357" spans="4:14">
       <c r="E357" s="35" t="s">
         <v>227</v>
       </c>
@@ -12384,7 +12650,7 @@
       <c r="I357" s="35"/>
       <c r="J357" s="35"/>
     </row>
-    <row r="358" spans="4:10" s="33" customFormat="1">
+    <row r="358" spans="4:14" s="33" customFormat="1">
       <c r="E358" s="35" t="s">
         <v>470</v>
       </c>
@@ -12394,9 +12660,15 @@
       <c r="G358" s="35"/>
       <c r="H358" s="35"/>
       <c r="I358" s="35"/>
-      <c r="J358" s="35"/>
-    </row>
-    <row r="359" spans="4:10" s="33" customFormat="1">
+      <c r="J358" s="67" t="s">
+        <v>829</v>
+      </c>
+      <c r="K358" s="67"/>
+      <c r="L358" s="67"/>
+      <c r="M358" s="67"/>
+      <c r="N358" s="67"/>
+    </row>
+    <row r="359" spans="4:14" s="33" customFormat="1">
       <c r="E359" s="35" t="s">
         <v>577</v>
       </c>
@@ -12408,7 +12680,7 @@
       <c r="I359" s="35"/>
       <c r="J359" s="35"/>
     </row>
-    <row r="360" spans="4:10">
+    <row r="360" spans="4:14">
       <c r="E360" s="35"/>
       <c r="F360" s="35"/>
       <c r="G360" s="35"/>
@@ -12416,22 +12688,22 @@
       <c r="I360" s="35"/>
       <c r="J360" s="35"/>
     </row>
-    <row r="361" spans="4:10">
+    <row r="361" spans="4:14">
       <c r="D361" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="362" spans="4:10">
+    <row r="362" spans="4:14">
       <c r="E362" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="363" spans="4:10">
+    <row r="363" spans="4:14">
       <c r="E363" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="364" spans="4:10">
+    <row r="364" spans="4:14">
       <c r="F364" s="2" t="s">
         <v>104</v>
       </c>
@@ -12439,7 +12711,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="365" spans="4:10">
+    <row r="365" spans="4:14">
       <c r="F365" s="2" t="s">
         <v>121</v>
       </c>
@@ -12447,7 +12719,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="366" spans="4:10">
+    <row r="366" spans="4:14">
       <c r="F366" s="2" t="s">
         <v>105</v>
       </c>
@@ -12455,7 +12727,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="367" spans="4:10">
+    <row r="367" spans="4:14">
       <c r="F367" s="2" t="s">
         <v>107</v>
       </c>
@@ -12463,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="4:10">
+    <row r="368" spans="4:14">
       <c r="F368" s="2" t="s">
         <v>119</v>
       </c>
@@ -12471,22 +12743,22 @@
         <v>159</v>
       </c>
     </row>
-    <row r="370" spans="4:9">
+    <row r="370" spans="4:13">
       <c r="D370" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="371" spans="4:9">
+    <row r="371" spans="4:13">
       <c r="E371" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="372" spans="4:9">
+    <row r="372" spans="4:13">
       <c r="E372" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="373" spans="4:9">
+    <row r="373" spans="4:13">
       <c r="F373" s="2" t="s">
         <v>104</v>
       </c>
@@ -12494,7 +12766,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="374" spans="4:9">
+    <row r="374" spans="4:13">
       <c r="F374" s="2" t="s">
         <v>121</v>
       </c>
@@ -12502,7 +12774,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="375" spans="4:9">
+    <row r="375" spans="4:13">
       <c r="F375" s="2" t="s">
         <v>105</v>
       </c>
@@ -12510,7 +12782,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="376" spans="4:9">
+    <row r="376" spans="4:13">
       <c r="D376" s="35"/>
       <c r="E376" s="35"/>
       <c r="F376" s="35" t="s">
@@ -12522,7 +12794,7 @@
       <c r="H376" s="35"/>
       <c r="I376" s="35"/>
     </row>
-    <row r="377" spans="4:9">
+    <row r="377" spans="4:13">
       <c r="D377" s="35"/>
       <c r="E377" s="35"/>
       <c r="F377" s="35" t="s">
@@ -12534,7 +12806,7 @@
       <c r="H377" s="35"/>
       <c r="I377" s="35"/>
     </row>
-    <row r="378" spans="4:9" s="33" customFormat="1">
+    <row r="378" spans="4:13" s="33" customFormat="1">
       <c r="D378" s="35"/>
       <c r="E378" s="35" t="s">
         <v>470</v>
@@ -12544,9 +12816,15 @@
       </c>
       <c r="G378" s="35"/>
       <c r="H378" s="35"/>
-      <c r="I378" s="35"/>
-    </row>
-    <row r="379" spans="4:9" s="33" customFormat="1">
+      <c r="I378" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="J378" s="67"/>
+      <c r="K378" s="67"/>
+      <c r="L378" s="67"/>
+      <c r="M378" s="67"/>
+    </row>
+    <row r="379" spans="4:13" s="33" customFormat="1">
       <c r="D379" s="35"/>
       <c r="E379" s="35" t="s">
         <v>577</v>
@@ -12558,7 +12836,7 @@
       <c r="H379" s="35"/>
       <c r="I379" s="35"/>
     </row>
-    <row r="380" spans="4:9">
+    <row r="380" spans="4:13">
       <c r="D380" s="35"/>
       <c r="E380" s="35"/>
       <c r="F380" s="35"/>
@@ -12566,7 +12844,7 @@
       <c r="H380" s="35"/>
       <c r="I380" s="35"/>
     </row>
-    <row r="381" spans="4:9">
+    <row r="381" spans="4:13">
       <c r="D381" s="35" t="s">
         <v>165</v>
       </c>
@@ -12576,7 +12854,7 @@
       <c r="H381" s="35"/>
       <c r="I381" s="35"/>
     </row>
-    <row r="382" spans="4:9">
+    <row r="382" spans="4:13">
       <c r="D382" s="35"/>
       <c r="E382" s="35" t="s">
         <v>229</v>
@@ -12586,7 +12864,7 @@
       <c r="H382" s="35"/>
       <c r="I382" s="35"/>
     </row>
-    <row r="383" spans="4:9">
+    <row r="383" spans="4:13">
       <c r="D383" s="35"/>
       <c r="E383" s="35" t="s">
         <v>157</v>
@@ -12596,7 +12874,7 @@
       <c r="H383" s="35"/>
       <c r="I383" s="35"/>
     </row>
-    <row r="384" spans="4:9">
+    <row r="384" spans="4:13">
       <c r="D384" s="35"/>
       <c r="E384" s="35"/>
       <c r="F384" s="35" t="s">
@@ -12666,7 +12944,13 @@
       </c>
       <c r="G389" s="35"/>
       <c r="H389" s="35"/>
-      <c r="I389" s="35"/>
+      <c r="I389" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="J389" s="67"/>
+      <c r="K389" s="67"/>
+      <c r="L389" s="67"/>
+      <c r="M389" s="67"/>
     </row>
     <row r="390" spans="3:14" s="33" customFormat="1">
       <c r="D390" s="35"/>
@@ -12891,13 +13175,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12907,21 +13191,21 @@
     <col min="3" max="3" width="11.25" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="58" customWidth="1"/>
     <col min="8" max="8" width="19.25" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="68" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="48" customWidth="1"/>
     <col min="11" max="11" width="21.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="72" customWidth="1"/>
-    <col min="14" max="14" width="11.75" style="68" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="51" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="48" customWidth="1"/>
     <col min="15" max="15" width="17" style="33" customWidth="1"/>
     <col min="16" max="16" width="11.75" style="33" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="75" customWidth="1"/>
-    <col min="18" max="18" width="11.75" style="68" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="54" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="48" customWidth="1"/>
     <col min="19" max="19" width="32.875" style="33" customWidth="1"/>
-    <col min="20" max="20" width="32.875" style="41" customWidth="1"/>
+    <col min="20" max="20" width="32.875" style="40" customWidth="1"/>
     <col min="21" max="21" width="23.25" style="33" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="33"/>
   </cols>
@@ -12931,64 +13215,64 @@
         <v>365</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>366</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="F1" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>737</v>
+      <c r="F1" s="45" t="s">
+        <v>761</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>733</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>737</v>
-      </c>
-      <c r="J1" s="70" t="s">
-        <v>715</v>
+        <v>733</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>711</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>779</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>737</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>785</v>
-      </c>
-      <c r="N1" s="70" t="s">
-        <v>716</v>
+        <v>763</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>733</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>712</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q1" s="76" t="s">
-        <v>783</v>
-      </c>
-      <c r="R1" s="70" t="s">
-        <v>738</v>
+        <v>733</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>766</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>734</v>
       </c>
       <c r="S1" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="T1" s="61" t="s">
-        <v>717</v>
+      <c r="T1" s="44" t="s">
+        <v>713</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="V1" s="34" t="s">
         <v>369</v>
@@ -13004,47 +13288,47 @@
       <c r="C2" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>644</v>
+      <c r="D2" s="41" t="s">
+        <v>640</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>734</v>
+      <c r="F2" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K2" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K2" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="L2" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N2" s="68">
+      <c r="L2" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N2" s="48">
         <v>1</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="58" t="s">
-        <v>719</v>
-      </c>
-      <c r="T2" s="58" t="s">
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="87" t="s">
+        <v>715</v>
+      </c>
+      <c r="T2" s="87" t="s">
         <v>631</v>
       </c>
       <c r="U2" s="33" t="s">
@@ -13064,45 +13348,45 @@
       <c r="C3" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>645</v>
+      <c r="D3" s="41" t="s">
+        <v>641</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>734</v>
+      <c r="F3" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K3" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K3" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="L3" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="M3" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N3" s="68">
+      <c r="L3" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N3" s="48">
         <v>1</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
       <c r="V3" s="36">
         <v>20</v>
       </c>
@@ -13117,45 +13401,45 @@
       <c r="C4" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>646</v>
+      <c r="D4" s="41" t="s">
+        <v>642</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>734</v>
+      <c r="F4" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K4" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K4" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="L4" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N4" s="68">
+      <c r="L4" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N4" s="48">
         <v>1</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
       <c r="V4" s="36">
         <v>20</v>
       </c>
@@ -13170,45 +13454,45 @@
       <c r="C5" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>647</v>
+      <c r="D5" s="41" t="s">
+        <v>643</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>734</v>
+      <c r="F5" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="M5" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N5" s="68">
+        <v>730</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>792</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N5" s="48">
         <v>1</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
       <c r="V5" s="36">
         <v>20</v>
       </c>
@@ -13223,45 +13507,45 @@
       <c r="C6" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>648</v>
+      <c r="D6" s="41" t="s">
+        <v>644</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>734</v>
+      <c r="F6" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J6" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K6" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K6" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="L6" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N6" s="68">
+      <c r="L6" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N6" s="48">
         <v>1</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
       <c r="V6" s="36">
         <v>20</v>
       </c>
@@ -13276,45 +13560,45 @@
       <c r="C7" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>649</v>
+      <c r="D7" s="41" t="s">
+        <v>645</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>734</v>
+      <c r="F7" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K7" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K7" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="L7" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="M7" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N7" s="68">
+      <c r="L7" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N7" s="48">
         <v>1</v>
       </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
       <c r="V7" s="36">
         <v>20</v>
       </c>
@@ -13329,47 +13613,47 @@
       <c r="C8" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>644</v>
+      <c r="D8" s="41" t="s">
+        <v>640</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="F8" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>734</v>
+      <c r="F8" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J8" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K8" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K8" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="L8" s="65" t="s">
-        <v>782</v>
-      </c>
-      <c r="M8" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N8" s="68">
+      <c r="L8" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N8" s="48">
         <v>1</v>
       </c>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="58" t="s">
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="87" t="s">
         <v>615</v>
       </c>
-      <c r="T8" s="58" t="s">
+      <c r="T8" s="87" t="s">
         <v>630</v>
       </c>
       <c r="V8" s="36">
@@ -13386,45 +13670,45 @@
       <c r="C9" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>645</v>
+      <c r="D9" s="41" t="s">
+        <v>641</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="F9" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>734</v>
+      <c r="F9" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="L9" s="65" t="s">
-        <v>782</v>
-      </c>
-      <c r="M9" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N9" s="68">
+        <v>730</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N9" s="48">
         <v>1</v>
       </c>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
       <c r="V9" s="36">
         <v>20</v>
       </c>
@@ -13439,45 +13723,45 @@
       <c r="C10" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>646</v>
+      <c r="D10" s="41" t="s">
+        <v>642</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="F10" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>734</v>
+      <c r="F10" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J10" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K10" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K10" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="L10" s="65" t="s">
-        <v>782</v>
-      </c>
-      <c r="M10" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N10" s="68">
+      <c r="L10" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N10" s="48">
         <v>1</v>
       </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
       <c r="V10" s="36">
         <v>20</v>
       </c>
@@ -13492,45 +13776,45 @@
       <c r="C11" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>647</v>
+      <c r="D11" s="41" t="s">
+        <v>643</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="F11" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>734</v>
+      <c r="F11" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K11" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K11" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="L11" s="65" t="s">
-        <v>782</v>
-      </c>
-      <c r="M11" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N11" s="68">
+      <c r="L11" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N11" s="48">
         <v>1</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
       <c r="V11" s="36">
         <v>20</v>
       </c>
@@ -13546,45 +13830,45 @@
       <c r="C12" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>648</v>
+      <c r="D12" s="41" t="s">
+        <v>644</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="F12" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>734</v>
+      <c r="F12" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K12" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K12" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="L12" s="65" t="s">
-        <v>782</v>
-      </c>
-      <c r="M12" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N12" s="68">
+      <c r="L12" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N12" s="48">
         <v>1</v>
       </c>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
       <c r="V12" s="36">
         <v>20</v>
       </c>
@@ -13600,45 +13884,45 @@
       <c r="C13" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>649</v>
+      <c r="D13" s="41" t="s">
+        <v>645</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="F13" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>734</v>
+      <c r="F13" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="K13" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="K13" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="L13" s="65" t="s">
-        <v>782</v>
-      </c>
-      <c r="M13" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N13" s="68">
+      <c r="L13" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N13" s="48">
         <v>1</v>
       </c>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
       <c r="V13" s="36">
         <v>20</v>
       </c>
@@ -13653,45 +13937,47 @@
       <c r="C14" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>644</v>
+      <c r="D14" s="41" t="s">
+        <v>640</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="F14" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>734</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="69">
+      <c r="F14" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>833</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="J14" s="62">
         <v>1</v>
       </c>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="66" t="s">
         <v>404</v>
       </c>
-      <c r="L14" s="65" t="s">
-        <v>629</v>
-      </c>
-      <c r="M14" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N14" s="68">
+      <c r="L14" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N14" s="48">
         <v>1</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="58" t="s">
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="87" t="s">
         <v>628</v>
       </c>
-      <c r="T14" s="58" t="s">
+      <c r="T14" s="87" t="s">
         <v>629</v>
       </c>
       <c r="V14" s="36">
@@ -13708,43 +13994,45 @@
       <c r="C15" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>645</v>
+      <c r="D15" s="41" t="s">
+        <v>641</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="F15" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>734</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>760</v>
-      </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="69">
+      <c r="F15" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>831</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="J15" s="62">
         <v>1</v>
       </c>
-      <c r="K15" s="60" t="s">
+      <c r="K15" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="L15" s="65" t="s">
-        <v>629</v>
-      </c>
-      <c r="M15" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N15" s="68">
+      <c r="L15" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N15" s="48">
         <v>1</v>
       </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
       <c r="V15" s="36">
         <v>20</v>
       </c>
@@ -13759,49 +14047,51 @@
       <c r="C16" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>646</v>
+      <c r="D16" s="41" t="s">
+        <v>642</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="F16" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>734</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>760</v>
-      </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="69">
+      <c r="F16" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>832</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="J16" s="62">
         <v>1</v>
       </c>
-      <c r="K16" s="60" t="s">
+      <c r="K16" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="L16" s="65" t="s">
-        <v>629</v>
-      </c>
-      <c r="M16" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N16" s="68">
+      <c r="L16" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N16" s="48">
         <v>1</v>
       </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
       <c r="V16" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="33">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="72" t="s">
         <v>409</v>
       </c>
       <c r="B17" s="33" t="s">
@@ -13810,53 +14100,55 @@
       <c r="C17" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>650</v>
+      <c r="D17" s="41" t="s">
+        <v>646</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="F17" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>742</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>757</v>
-      </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="69">
+      <c r="F17" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>738</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>749</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="J17" s="62">
         <v>1</v>
       </c>
-      <c r="K17" s="60" t="s">
-        <v>409</v>
-      </c>
-      <c r="L17" s="66" t="s">
-        <v>740</v>
-      </c>
-      <c r="M17" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N17" s="68">
+      <c r="K17" s="66" t="s">
+        <v>793</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N17" s="48">
         <v>1</v>
       </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="58" t="s">
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="87" t="s">
         <v>606</v>
       </c>
-      <c r="T17" s="58" t="s">
-        <v>739</v>
+      <c r="T17" s="87" t="s">
+        <v>735</v>
       </c>
       <c r="V17" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="72" t="s">
         <v>412</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -13865,49 +14157,51 @@
       <c r="C18" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>651</v>
+      <c r="D18" s="41" t="s">
+        <v>647</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F18" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>742</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>758</v>
-      </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="69">
+      <c r="F18" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>738</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>750</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="J18" s="62">
         <v>1</v>
       </c>
-      <c r="K18" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="L18" s="66" t="s">
-        <v>740</v>
-      </c>
-      <c r="M18" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N18" s="68">
+      <c r="K18" s="66" t="s">
+        <v>794</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N18" s="48">
         <v>1</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
       <c r="V18" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="33">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="72" t="s">
         <v>416</v>
       </c>
       <c r="B19" s="33" t="s">
@@ -13916,45 +14210,47 @@
       <c r="C19" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>652</v>
+      <c r="D19" s="41" t="s">
+        <v>648</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F19" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>742</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="69">
+      <c r="F19" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>738</v>
+      </c>
+      <c r="H19" s="65" t="s">
+        <v>751</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>737</v>
+      </c>
+      <c r="J19" s="62">
         <v>1</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="L19" s="66" t="s">
-        <v>741</v>
-      </c>
-      <c r="M19" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N19" s="68">
+      <c r="L19" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N19" s="48">
         <v>1</v>
       </c>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="77"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="56"/>
       <c r="S19" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="T19" s="43" t="s">
+      <c r="T19" s="42" t="s">
         <v>632</v>
       </c>
       <c r="V19" s="36">
@@ -13971,43 +14267,43 @@
       <c r="C20" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>653</v>
+      <c r="D20" s="41" t="s">
+        <v>649</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F20" s="63" t="s">
-        <v>723</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>743</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="K20" s="60" t="s">
+      <c r="F20" s="71" t="s">
+        <v>719</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>739</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K20" s="65" t="s">
         <v>419</v>
       </c>
-      <c r="L20" s="65" t="s">
-        <v>781</v>
-      </c>
-      <c r="M20" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N20" s="68">
+      <c r="L20" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N20" s="48">
         <v>1</v>
       </c>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="77"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="56"/>
       <c r="S20" s="33" t="s">
         <v>618</v>
       </c>
@@ -14025,45 +14321,47 @@
       <c r="C21" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>654</v>
+      <c r="D21" s="41" t="s">
+        <v>650</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F21" s="63" t="s">
-        <v>723</v>
-      </c>
-      <c r="G21" s="64" t="s">
+      <c r="F21" s="71" t="s">
+        <v>719</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>739</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>796</v>
+      </c>
+      <c r="I21" s="35" t="s">
         <v>743</v>
       </c>
-      <c r="H21" s="60" t="s">
-        <v>761</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="J21" s="69">
+      <c r="J21" s="62">
         <v>1</v>
       </c>
-      <c r="K21" s="60" t="s">
-        <v>422</v>
-      </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N21" s="68">
+      <c r="K21" s="70" t="s">
+        <v>795</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N21" s="48">
         <v>1</v>
       </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="58" t="s">
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="87" t="s">
         <v>633</v>
       </c>
-      <c r="T21" s="58" t="s">
+      <c r="T21" s="87" t="s">
         <v>634</v>
       </c>
       <c r="V21" s="36">
@@ -14080,49 +14378,51 @@
       <c r="C22" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>655</v>
+      <c r="D22" s="41" t="s">
+        <v>651</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F22" s="63" t="s">
-        <v>723</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>743</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>762</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>748</v>
-      </c>
-      <c r="J22" s="69">
+      <c r="F22" s="71" t="s">
+        <v>805</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>739</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>752</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="J22" s="62">
         <v>1</v>
       </c>
-      <c r="K22" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="L22" s="66"/>
-      <c r="M22" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N22" s="68">
+      <c r="K22" s="65" t="s">
+        <v>795</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>786</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N22" s="48">
         <v>1</v>
       </c>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
       <c r="V22" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="33">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="72" t="s">
         <v>428</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -14131,55 +14431,55 @@
       <c r="C23" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="D23" s="42" t="s">
-        <v>656</v>
+      <c r="D23" s="41" t="s">
+        <v>652</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F23" s="63" t="s">
-        <v>724</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>763</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>751</v>
-      </c>
-      <c r="J23" s="69">
+      <c r="F23" s="71" t="s">
+        <v>720</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>740</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>790</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="J23" s="62">
         <v>1</v>
       </c>
-      <c r="K23" s="60" t="s">
+      <c r="K23" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="L23" s="66" t="s">
-        <v>750</v>
-      </c>
-      <c r="M23" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N23" s="68">
+      <c r="L23" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N23" s="48">
         <v>1</v>
       </c>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="77"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="56"/>
       <c r="S23" s="38" t="s">
         <v>608</v>
       </c>
-      <c r="T23" s="43" t="s">
-        <v>749</v>
+      <c r="T23" s="42" t="s">
+        <v>745</v>
       </c>
       <c r="V23" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="33">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="72" t="s">
         <v>431</v>
       </c>
       <c r="B24" s="33" t="s">
@@ -14188,47 +14488,47 @@
       <c r="C24" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="D24" s="42" t="s">
-        <v>657</v>
+      <c r="D24" s="41" t="s">
+        <v>653</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>724</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>764</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>752</v>
-      </c>
-      <c r="J24" s="69">
+      <c r="F24" s="71" t="s">
+        <v>720</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>740</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>753</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="J24" s="62">
         <v>1</v>
       </c>
-      <c r="K24" s="60" t="s">
-        <v>431</v>
-      </c>
-      <c r="L24" s="66" t="s">
-        <v>753</v>
-      </c>
-      <c r="M24" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N24" s="68">
+      <c r="K24" s="70" t="s">
+        <v>812</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N24" s="48">
         <v>1</v>
       </c>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="77"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="56"/>
       <c r="S24" s="38" t="s">
         <v>609</v>
       </c>
-      <c r="T24" s="43" t="s">
+      <c r="T24" s="42" t="s">
         <v>635</v>
       </c>
       <c r="V24" s="36">
@@ -14236,7 +14536,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="33">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="72" t="s">
         <v>434</v>
       </c>
       <c r="B25" s="33" t="s">
@@ -14245,55 +14545,55 @@
       <c r="C25" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>658</v>
+      <c r="D25" s="41" t="s">
+        <v>654</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="F25" s="63" t="s">
-        <v>724</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>765</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>755</v>
-      </c>
-      <c r="J25" s="69">
+      <c r="F25" s="71" t="s">
+        <v>720</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>740</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>754</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="J25" s="62">
         <v>1</v>
       </c>
-      <c r="K25" s="60" t="s">
-        <v>434</v>
-      </c>
-      <c r="L25" s="66" t="s">
-        <v>754</v>
-      </c>
-      <c r="M25" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N25" s="68">
+      <c r="K25" s="65" t="s">
+        <v>812</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N25" s="48">
         <v>1</v>
       </c>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="77"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="56"/>
       <c r="S25" s="38" t="s">
         <v>610</v>
       </c>
       <c r="T25" s="43" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="V25" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="33" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="72" t="s">
         <v>437</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -14302,50 +14602,55 @@
       <c r="C26" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="D26" s="42" t="s">
-        <v>659</v>
+      <c r="D26" s="41" t="s">
+        <v>655</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F26" s="63" t="s">
-        <v>726</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>745</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>768</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="69" t="s">
-        <v>736</v>
-      </c>
-      <c r="K26" s="60" t="s">
+      <c r="F26" s="71" t="s">
+        <v>804</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>741</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>807</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>781</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="K26" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="M26" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N26" s="68">
+      <c r="L26" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N26" s="48">
         <v>1</v>
       </c>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="58" t="s">
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="87" t="s">
         <v>611</v>
       </c>
-      <c r="T26" s="58" t="s">
-        <v>636</v>
+      <c r="T26" s="87" t="s">
+        <v>780</v>
       </c>
       <c r="V26" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="72" t="s">
         <v>441</v>
       </c>
       <c r="B27" s="33" t="s">
@@ -14354,40 +14659,45 @@
       <c r="C27" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>660</v>
+      <c r="D27" s="41" t="s">
+        <v>656</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F27" s="63" t="s">
-        <v>726</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>745</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>767</v>
-      </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="69" t="s">
-        <v>736</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="M27" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N27" s="68">
+      <c r="F27" s="71" t="s">
+        <v>722</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>741</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>808</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="K27" s="65" t="s">
+        <v>810</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>782</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N27" s="48">
         <v>1</v>
       </c>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
       <c r="V27" s="36">
         <v>20</v>
       </c>
@@ -14402,43 +14712,48 @@
       <c r="C28" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="D28" s="42" t="s">
-        <v>661</v>
+      <c r="D28" s="41" t="s">
+        <v>657</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F28" s="63" t="s">
-        <v>726</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>745</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="69">
+      <c r="F28" s="71" t="s">
+        <v>722</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>741</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>809</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="J28" s="62">
         <v>1</v>
       </c>
-      <c r="K28" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="M28" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N28" s="68">
+      <c r="K28" s="70" t="s">
+        <v>811</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N28" s="48">
         <v>1</v>
       </c>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="77"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="56"/>
       <c r="S28" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="T28" s="41" t="s">
-        <v>637</v>
+      <c r="T28" s="40" t="s">
+        <v>778</v>
       </c>
       <c r="V28" s="36">
         <v>20</v>
@@ -14454,43 +14769,48 @@
       <c r="C29" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>662</v>
+      <c r="D29" s="41" t="s">
+        <v>658</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F29" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>746</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>769</v>
-      </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="69">
+      <c r="F29" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>798</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>799</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="K29" s="67" t="s">
+        <v>797</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N29" s="48">
         <v>1</v>
       </c>
-      <c r="K29" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="M29" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N29" s="68">
-        <v>1</v>
-      </c>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="77"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="56"/>
       <c r="S29" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="T29" s="39" t="s">
-        <v>638</v>
+      <c r="T29" s="43" t="s">
+        <v>777</v>
       </c>
       <c r="V29" s="36">
         <v>20</v>
@@ -14506,50 +14826,55 @@
       <c r="C30" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>663</v>
+      <c r="D30" s="41" t="s">
+        <v>659</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F30" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>746</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>770</v>
-      </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="69" t="s">
-        <v>736</v>
-      </c>
-      <c r="K30" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="M30" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N30" s="68">
+      <c r="F30" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="J30" s="68">
         <v>1</v>
       </c>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="58" t="s">
+      <c r="K30" s="65" t="s">
+        <v>797</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N30" s="48">
+        <v>1</v>
+      </c>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="87" t="s">
         <v>616</v>
       </c>
-      <c r="T30" s="58" t="s">
-        <v>639</v>
+      <c r="T30" s="87" t="s">
+        <v>636</v>
       </c>
       <c r="V30" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="72" t="s">
         <v>453</v>
       </c>
       <c r="B31" s="33" t="s">
@@ -14558,40 +14883,45 @@
       <c r="C31" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="42" t="s">
-        <v>664</v>
+      <c r="D31" s="41" t="s">
+        <v>660</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F31" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G31" s="64" t="s">
-        <v>746</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>771</v>
-      </c>
-      <c r="I31" s="60"/>
-      <c r="J31" s="69" t="s">
-        <v>736</v>
-      </c>
-      <c r="K31" s="60" t="s">
+      <c r="F31" s="71" t="s">
+        <v>814</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>756</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="K31" s="65" t="s">
         <v>453</v>
       </c>
-      <c r="M31" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="N31" s="68">
+      <c r="L31" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="N31" s="48">
         <v>1</v>
       </c>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
       <c r="V31" s="36">
         <v>20</v>
       </c>
@@ -14606,45 +14936,48 @@
       <c r="C32" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="D32" s="42" t="s">
-        <v>665</v>
+      <c r="D32" s="41" t="s">
+        <v>661</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F32" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>742</v>
+      <c r="F32" s="71" t="s">
+        <v>806</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="M32" s="72">
+        <v>730</v>
+      </c>
+      <c r="J32" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>815</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="M32" s="51">
         <v>1</v>
       </c>
-      <c r="N32" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="58" t="s">
+      <c r="N32" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="87" t="s">
         <v>614</v>
       </c>
-      <c r="T32" s="58" t="s">
-        <v>640</v>
+      <c r="T32" s="87" t="s">
+        <v>773</v>
       </c>
       <c r="V32" s="36">
         <v>20</v>
@@ -14660,42 +14993,45 @@
       <c r="C33" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D33" s="42" t="s">
-        <v>666</v>
+      <c r="D33" s="41" t="s">
+        <v>662</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F33" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>742</v>
+      <c r="F33" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K33" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K33" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="M33" s="72">
+      <c r="L33" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="M33" s="51">
         <v>1</v>
       </c>
-      <c r="N33" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
+      <c r="N33" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
       <c r="V33" s="36">
         <v>20</v>
       </c>
@@ -14710,42 +15046,45 @@
       <c r="C34" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="D34" s="42" t="s">
-        <v>667</v>
+      <c r="D34" s="41" t="s">
+        <v>663</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F34" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>742</v>
+      <c r="F34" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K34" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="J34" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K34" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="M34" s="72">
+      <c r="L34" s="36" t="s">
+        <v>775</v>
+      </c>
+      <c r="M34" s="51">
         <v>1</v>
       </c>
-      <c r="N34" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
+      <c r="N34" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
       <c r="V34" s="36">
         <v>20</v>
       </c>
@@ -14760,45 +15099,48 @@
       <c r="C35" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>668</v>
+      <c r="D35" s="41" t="s">
+        <v>664</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F35" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G35" s="64" t="s">
-        <v>742</v>
+      <c r="F35" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M35" s="72">
+        <v>730</v>
+      </c>
+      <c r="J35" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K35" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="51">
         <v>1</v>
       </c>
-      <c r="N35" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="58" t="s">
+      <c r="N35" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="87" t="s">
         <v>617</v>
       </c>
-      <c r="T35" s="58" t="s">
-        <v>641</v>
+      <c r="T35" s="87" t="s">
+        <v>637</v>
       </c>
       <c r="V35" s="36">
         <v>20</v>
@@ -14814,42 +15156,45 @@
       <c r="C36" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="D36" s="42" t="s">
-        <v>669</v>
+      <c r="D36" s="41" t="s">
+        <v>665</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F36" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>742</v>
+      <c r="F36" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M36" s="72">
+        <v>730</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="51">
         <v>1</v>
       </c>
-      <c r="N36" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
+      <c r="N36" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
       <c r="V36" s="36">
         <v>20</v>
       </c>
@@ -14864,42 +15209,45 @@
       <c r="C37" s="33" t="s">
         <v>620</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>670</v>
+      <c r="D37" s="41" t="s">
+        <v>666</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F37" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G37" s="64" t="s">
-        <v>742</v>
+      <c r="F37" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M37" s="72">
+        <v>730</v>
+      </c>
+      <c r="J37" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K37" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="51">
         <v>1</v>
       </c>
-      <c r="N37" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
+      <c r="N37" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
       <c r="V37" s="36">
         <v>20</v>
       </c>
@@ -14914,42 +15262,45 @@
       <c r="C38" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>671</v>
+      <c r="D38" s="41" t="s">
+        <v>667</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F38" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>742</v>
+      <c r="F38" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M38" s="72">
+        <v>730</v>
+      </c>
+      <c r="J38" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K38" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="51">
         <v>1</v>
       </c>
-      <c r="N38" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
+      <c r="N38" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
       <c r="V38" s="36">
         <v>20</v>
       </c>
@@ -14964,42 +15315,45 @@
       <c r="C39" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>672</v>
+      <c r="D39" s="41" t="s">
+        <v>668</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F39" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G39" s="64" t="s">
-        <v>742</v>
+      <c r="F39" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M39" s="72">
+        <v>730</v>
+      </c>
+      <c r="J39" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L39" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="51">
         <v>1</v>
       </c>
-      <c r="N39" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
+      <c r="N39" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="87"/>
       <c r="V39" s="36">
         <v>20</v>
       </c>
@@ -15014,42 +15368,45 @@
       <c r="C40" s="33" t="s">
         <v>626</v>
       </c>
-      <c r="D40" s="42" t="s">
-        <v>673</v>
+      <c r="D40" s="41" t="s">
+        <v>669</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F40" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>742</v>
+      <c r="F40" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M40" s="72">
+        <v>730</v>
+      </c>
+      <c r="J40" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K40" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L40" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="51">
         <v>1</v>
       </c>
-      <c r="N40" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
+      <c r="N40" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
       <c r="V40" s="36">
         <v>20</v>
       </c>
@@ -15064,42 +15421,45 @@
       <c r="C41" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>674</v>
+      <c r="D41" s="41" t="s">
+        <v>670</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F41" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G41" s="64" t="s">
-        <v>742</v>
+      <c r="F41" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M41" s="72">
+        <v>730</v>
+      </c>
+      <c r="J41" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K41" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L41" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="51">
         <v>1</v>
       </c>
-      <c r="N41" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
+      <c r="N41" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
       <c r="V41" s="36">
         <v>20</v>
       </c>
@@ -15114,42 +15474,45 @@
       <c r="C42" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="D42" s="42" t="s">
-        <v>675</v>
+      <c r="D42" s="41" t="s">
+        <v>671</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F42" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G42" s="64" t="s">
-        <v>742</v>
+      <c r="F42" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M42" s="72">
+        <v>730</v>
+      </c>
+      <c r="J42" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K42" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="51">
         <v>1</v>
       </c>
-      <c r="N42" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
+      <c r="N42" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
       <c r="V42" s="36">
         <v>20</v>
       </c>
@@ -15164,47 +15527,53 @@
       <c r="C43" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="D43" s="42" t="s">
-        <v>676</v>
+      <c r="D43" s="41" t="s">
+        <v>672</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F43" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="G43" s="64" t="s">
-        <v>742</v>
+      <c r="F43" s="71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>738</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I43" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M43" s="72">
+        <v>730</v>
+      </c>
+      <c r="J43" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K43" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" s="51">
         <v>1</v>
       </c>
-      <c r="N43" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O43" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q43" s="75">
+      <c r="N43" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O43" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q43" s="54">
         <v>1</v>
       </c>
-      <c r="R43" s="68" t="s">
-        <v>786</v>
-      </c>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
+      <c r="R43" s="48" t="s">
+        <v>769</v>
+      </c>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
       <c r="V43" s="36">
         <v>20</v>
       </c>
@@ -15219,45 +15588,48 @@
       <c r="C44" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="D44" s="42" t="s">
-        <v>677</v>
+      <c r="D44" s="41" t="s">
+        <v>673</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F44" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G44" s="64" t="s">
-        <v>746</v>
+      <c r="F44" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M44" s="72">
+        <v>730</v>
+      </c>
+      <c r="J44" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M44" s="51">
         <v>1</v>
       </c>
-      <c r="N44" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="77"/>
-      <c r="S44" s="58" t="s">
-        <v>643</v>
-      </c>
-      <c r="T44" s="58" t="s">
-        <v>642</v>
+      <c r="N44" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="87" t="s">
+        <v>639</v>
+      </c>
+      <c r="T44" s="87" t="s">
+        <v>638</v>
       </c>
       <c r="V44" s="36">
         <v>20</v>
@@ -15273,42 +15645,45 @@
       <c r="C45" s="33" t="s">
         <v>619</v>
       </c>
-      <c r="D45" s="42" t="s">
-        <v>678</v>
+      <c r="D45" s="41" t="s">
+        <v>674</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F45" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G45" s="64" t="s">
-        <v>746</v>
+      <c r="F45" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I45" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M45" s="72">
+        <v>730</v>
+      </c>
+      <c r="J45" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K45" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M45" s="51">
         <v>1</v>
       </c>
-      <c r="N45" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
+      <c r="N45" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
       <c r="V45" s="36">
         <v>20</v>
       </c>
@@ -15321,44 +15696,47 @@
         <v>592</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>699</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>698</v>
+        <v>695</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>694</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F46" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G46" s="64" t="s">
-        <v>746</v>
+      <c r="F46" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M46" s="72">
+        <v>730</v>
+      </c>
+      <c r="J46" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K46" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M46" s="51">
         <v>1</v>
       </c>
-      <c r="N46" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="77"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
+      <c r="N46" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
       <c r="V46" s="36">
         <v>20</v>
       </c>
@@ -15373,42 +15751,45 @@
       <c r="C47" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="D47" s="42" t="s">
-        <v>679</v>
+      <c r="D47" s="41" t="s">
+        <v>675</v>
       </c>
       <c r="E47" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F47" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G47" s="64" t="s">
-        <v>746</v>
+      <c r="F47" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M47" s="72">
+        <v>730</v>
+      </c>
+      <c r="J47" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K47" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M47" s="51">
         <v>1</v>
       </c>
-      <c r="N47" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="77"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="58"/>
+      <c r="N47" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
       <c r="V47" s="36">
         <v>20</v>
       </c>
@@ -15423,47 +15804,53 @@
       <c r="C48" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D48" s="42" t="s">
-        <v>680</v>
+      <c r="D48" s="41" t="s">
+        <v>676</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F48" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G48" s="64" t="s">
-        <v>746</v>
+      <c r="F48" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I48" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K48" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M48" s="72">
+        <v>730</v>
+      </c>
+      <c r="J48" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K48" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M48" s="51">
         <v>1</v>
       </c>
-      <c r="N48" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O48" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q48" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R48" s="68">
+      <c r="N48" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O48" s="65" t="s">
+        <v>803</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q48" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R48" s="48">
         <v>1</v>
       </c>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
       <c r="V48" s="36">
         <v>20</v>
       </c>
@@ -15478,47 +15865,53 @@
       <c r="C49" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="D49" s="42" t="s">
-        <v>681</v>
+      <c r="D49" s="41" t="s">
+        <v>677</v>
       </c>
       <c r="E49" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F49" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>746</v>
+      <c r="F49" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K49" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M49" s="72">
+        <v>730</v>
+      </c>
+      <c r="J49" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K49" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M49" s="51">
         <v>1</v>
       </c>
-      <c r="N49" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O49" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q49" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R49" s="68">
+      <c r="N49" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O49" s="65" t="s">
+        <v>725</v>
+      </c>
+      <c r="P49" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q49" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R49" s="48">
         <v>1</v>
       </c>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="87"/>
       <c r="V49" s="36">
         <v>20</v>
       </c>
@@ -15533,47 +15926,53 @@
       <c r="C50" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="D50" s="42" t="s">
-        <v>682</v>
+      <c r="D50" s="41" t="s">
+        <v>678</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F50" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G50" s="64" t="s">
-        <v>746</v>
+      <c r="F50" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M50" s="72">
+        <v>730</v>
+      </c>
+      <c r="J50" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K50" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M50" s="51">
         <v>1</v>
       </c>
-      <c r="N50" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O50" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q50" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R50" s="68">
+      <c r="N50" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O50" s="65" t="s">
+        <v>725</v>
+      </c>
+      <c r="P50" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q50" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R50" s="48">
         <v>1</v>
       </c>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="87"/>
       <c r="V50" s="36">
         <v>20</v>
       </c>
@@ -15588,47 +15987,53 @@
       <c r="C51" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="D51" s="42" t="s">
-        <v>683</v>
+      <c r="D51" s="41" t="s">
+        <v>679</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F51" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G51" s="64" t="s">
-        <v>746</v>
+      <c r="F51" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J51" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M51" s="72">
+        <v>730</v>
+      </c>
+      <c r="J51" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K51" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M51" s="51">
         <v>1</v>
       </c>
-      <c r="N51" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O51" s="33" t="s">
+      <c r="N51" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="Q51" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R51" s="68">
+      <c r="O51" s="65" t="s">
+        <v>728</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q51" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R51" s="48">
         <v>1</v>
       </c>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
+      <c r="S51" s="87"/>
+      <c r="T51" s="87"/>
       <c r="V51" s="36">
         <v>20</v>
       </c>
@@ -15643,47 +16048,53 @@
       <c r="C52" s="33" t="s">
         <v>558</v>
       </c>
-      <c r="D52" s="42" t="s">
-        <v>684</v>
+      <c r="D52" s="41" t="s">
+        <v>680</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F52" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G52" s="64" t="s">
-        <v>746</v>
+      <c r="F52" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J52" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K52" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M52" s="72">
+        <v>730</v>
+      </c>
+      <c r="J52" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K52" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M52" s="51">
         <v>1</v>
       </c>
-      <c r="N52" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O52" s="33" t="s">
+      <c r="N52" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="Q52" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R52" s="68">
+      <c r="O52" s="65" t="s">
+        <v>802</v>
+      </c>
+      <c r="P52" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q52" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R52" s="48">
         <v>1</v>
       </c>
-      <c r="S52" s="58"/>
-      <c r="T52" s="58"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="87"/>
       <c r="V52" s="36">
         <v>20</v>
       </c>
@@ -15698,47 +16109,53 @@
       <c r="C53" s="33" t="s">
         <v>559</v>
       </c>
-      <c r="D53" s="42" t="s">
-        <v>685</v>
+      <c r="D53" s="41" t="s">
+        <v>681</v>
       </c>
       <c r="E53" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F53" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G53" s="64" t="s">
-        <v>746</v>
+      <c r="F53" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K53" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M53" s="72">
+        <v>730</v>
+      </c>
+      <c r="J53" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K53" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M53" s="51">
         <v>1</v>
       </c>
-      <c r="N53" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O53" s="33" t="s">
+      <c r="N53" s="48" t="s">
         <v>732</v>
       </c>
-      <c r="Q53" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R53" s="68">
+      <c r="O53" s="65" t="s">
+        <v>728</v>
+      </c>
+      <c r="P53" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q53" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R53" s="48">
         <v>1</v>
       </c>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="87"/>
       <c r="V53" s="36">
         <v>20</v>
       </c>
@@ -15753,47 +16170,53 @@
       <c r="C54" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="D54" s="42" t="s">
-        <v>686</v>
+      <c r="D54" s="41" t="s">
+        <v>682</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="J54" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K54" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M54" s="51">
+        <v>1</v>
+      </c>
+      <c r="N54" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O54" s="65" t="s">
         <v>727</v>
       </c>
-      <c r="G54" s="64" t="s">
-        <v>746</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="I54" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K54" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M54" s="72">
+      <c r="P54" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q54" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R54" s="48">
         <v>1</v>
       </c>
-      <c r="N54" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O54" s="33" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q54" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R54" s="68">
-        <v>1</v>
-      </c>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
+      <c r="S54" s="87"/>
+      <c r="T54" s="87"/>
       <c r="V54" s="36">
         <v>20</v>
       </c>
@@ -15808,47 +16231,53 @@
       <c r="C55" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="D55" s="42" t="s">
-        <v>687</v>
+      <c r="D55" s="41" t="s">
+        <v>683</v>
       </c>
       <c r="E55" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F55" s="63" t="s">
+      <c r="F55" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="J55" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K55" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M55" s="51">
+        <v>1</v>
+      </c>
+      <c r="N55" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O55" s="65" t="s">
         <v>727</v>
       </c>
-      <c r="G55" s="64" t="s">
-        <v>746</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="I55" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K55" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M55" s="72">
+      <c r="P55" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q55" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R55" s="48">
         <v>1</v>
       </c>
-      <c r="N55" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O55" s="33" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q55" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R55" s="68">
-        <v>1</v>
-      </c>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="87"/>
       <c r="V55" s="36">
         <v>20</v>
       </c>
@@ -15863,47 +16292,53 @@
       <c r="C56" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="D56" s="42" t="s">
-        <v>688</v>
+      <c r="D56" s="41" t="s">
+        <v>684</v>
       </c>
       <c r="E56" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>730</v>
+      </c>
+      <c r="J56" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K56" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M56" s="51">
+        <v>1</v>
+      </c>
+      <c r="N56" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O56" s="65" t="s">
         <v>727</v>
       </c>
-      <c r="G56" s="64" t="s">
-        <v>746</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="I56" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K56" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M56" s="72">
+      <c r="P56" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q56" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R56" s="48">
         <v>1</v>
       </c>
-      <c r="N56" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O56" s="33" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q56" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R56" s="68">
-        <v>1</v>
-      </c>
-      <c r="S56" s="58"/>
-      <c r="T56" s="58"/>
+      <c r="S56" s="87"/>
+      <c r="T56" s="87"/>
       <c r="V56" s="36">
         <v>20</v>
       </c>
@@ -15918,47 +16353,53 @@
       <c r="C57" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="D57" s="42" t="s">
-        <v>689</v>
+      <c r="D57" s="41" t="s">
+        <v>685</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F57" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G57" s="64" t="s">
-        <v>746</v>
+      <c r="F57" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K57" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M57" s="72">
+        <v>730</v>
+      </c>
+      <c r="J57" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K57" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M57" s="51">
         <v>1</v>
       </c>
-      <c r="N57" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O57" s="33" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q57" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R57" s="68">
+      <c r="N57" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O57" s="65" t="s">
+        <v>800</v>
+      </c>
+      <c r="P57" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q57" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R57" s="48">
         <v>1</v>
       </c>
-      <c r="S57" s="58"/>
-      <c r="T57" s="58"/>
+      <c r="S57" s="87"/>
+      <c r="T57" s="87"/>
       <c r="V57" s="36">
         <v>20</v>
       </c>
@@ -15973,47 +16414,53 @@
       <c r="C58" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="D58" s="42" t="s">
-        <v>690</v>
+      <c r="D58" s="41" t="s">
+        <v>686</v>
       </c>
       <c r="E58" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F58" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G58" s="64" t="s">
-        <v>746</v>
+      <c r="F58" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H58" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J58" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K58" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M58" s="72">
+        <v>730</v>
+      </c>
+      <c r="J58" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K58" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M58" s="51">
         <v>1</v>
       </c>
-      <c r="N58" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O58" s="33" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q58" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R58" s="68">
+      <c r="N58" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O58" s="65" t="s">
+        <v>726</v>
+      </c>
+      <c r="P58" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q58" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R58" s="48">
         <v>1</v>
       </c>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
       <c r="V58" s="36">
         <v>20</v>
       </c>
@@ -16028,47 +16475,53 @@
       <c r="C59" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="42" t="s">
-        <v>691</v>
+      <c r="D59" s="41" t="s">
+        <v>687</v>
       </c>
       <c r="E59" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F59" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G59" s="64" t="s">
-        <v>746</v>
+      <c r="F59" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H59" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J59" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K59" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M59" s="72">
+        <v>730</v>
+      </c>
+      <c r="J59" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K59" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M59" s="51">
         <v>1</v>
       </c>
-      <c r="N59" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O59" s="33" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q59" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R59" s="68">
+      <c r="N59" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O59" s="65" t="s">
+        <v>726</v>
+      </c>
+      <c r="P59" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q59" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R59" s="48">
         <v>1</v>
       </c>
-      <c r="S59" s="58"/>
-      <c r="T59" s="58"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="87"/>
       <c r="V59" s="36">
         <v>20</v>
       </c>
@@ -16083,47 +16536,53 @@
       <c r="C60" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="D60" s="42" t="s">
-        <v>692</v>
+      <c r="D60" s="41" t="s">
+        <v>688</v>
       </c>
       <c r="E60" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F60" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G60" s="64" t="s">
-        <v>746</v>
+      <c r="F60" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G60" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J60" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K60" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M60" s="72">
+        <v>730</v>
+      </c>
+      <c r="J60" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M60" s="51">
         <v>1</v>
       </c>
-      <c r="N60" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O60" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q60" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R60" s="68">
+      <c r="N60" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O60" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="P60" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q60" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R60" s="48">
         <v>1</v>
       </c>
-      <c r="S60" s="58"/>
-      <c r="T60" s="58"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="87"/>
       <c r="V60" s="36">
         <v>20</v>
       </c>
@@ -16138,47 +16597,53 @@
       <c r="C61" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="D61" s="42" t="s">
-        <v>693</v>
+      <c r="D61" s="41" t="s">
+        <v>689</v>
       </c>
       <c r="E61" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F61" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G61" s="64" t="s">
-        <v>746</v>
+      <c r="F61" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J61" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K61" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M61" s="72">
+        <v>730</v>
+      </c>
+      <c r="J61" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K61" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M61" s="51">
         <v>1</v>
       </c>
-      <c r="N61" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O61" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q61" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R61" s="68">
+      <c r="N61" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O61" s="65" t="s">
+        <v>718</v>
+      </c>
+      <c r="P61" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q61" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R61" s="48">
         <v>1</v>
       </c>
-      <c r="S61" s="58"/>
-      <c r="T61" s="58"/>
+      <c r="S61" s="87"/>
+      <c r="T61" s="87"/>
       <c r="V61" s="36">
         <v>20</v>
       </c>
@@ -16193,47 +16658,53 @@
       <c r="C62" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="D62" s="42" t="s">
-        <v>694</v>
+      <c r="D62" s="41" t="s">
+        <v>690</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F62" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>746</v>
+      <c r="F62" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G62" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J62" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K62" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M62" s="72">
+        <v>730</v>
+      </c>
+      <c r="J62" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K62" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M62" s="51">
         <v>1</v>
       </c>
-      <c r="N62" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O62" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q62" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R62" s="68">
+      <c r="N62" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O62" s="65" t="s">
+        <v>718</v>
+      </c>
+      <c r="P62" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q62" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R62" s="48">
         <v>1</v>
       </c>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
+      <c r="S62" s="87"/>
+      <c r="T62" s="87"/>
       <c r="V62" s="36">
         <v>20</v>
       </c>
@@ -16248,47 +16719,53 @@
       <c r="C63" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="D63" s="42" t="s">
-        <v>695</v>
+      <c r="D63" s="41" t="s">
+        <v>691</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F63" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G63" s="64" t="s">
-        <v>746</v>
+      <c r="F63" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J63" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K63" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M63" s="72">
+        <v>730</v>
+      </c>
+      <c r="J63" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K63" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M63" s="51">
         <v>1</v>
       </c>
-      <c r="N63" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O63" s="33" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q63" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R63" s="68">
+      <c r="N63" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O63" s="65" t="s">
+        <v>813</v>
+      </c>
+      <c r="P63" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q63" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R63" s="48">
         <v>1</v>
       </c>
-      <c r="S63" s="58"/>
-      <c r="T63" s="58"/>
+      <c r="S63" s="87"/>
+      <c r="T63" s="87"/>
       <c r="V63" s="36">
         <v>20</v>
       </c>
@@ -16303,47 +16780,53 @@
       <c r="C64" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="D64" s="42" t="s">
-        <v>696</v>
+      <c r="D64" s="41" t="s">
+        <v>692</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F64" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G64" s="64" t="s">
-        <v>746</v>
+      <c r="F64" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J64" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K64" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M64" s="72">
+        <v>730</v>
+      </c>
+      <c r="J64" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K64" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M64" s="51">
         <v>1</v>
       </c>
-      <c r="N64" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O64" s="33" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q64" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R64" s="68">
+      <c r="N64" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O64" s="65" t="s">
+        <v>729</v>
+      </c>
+      <c r="P64" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q64" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R64" s="48">
         <v>1</v>
       </c>
-      <c r="S64" s="58"/>
-      <c r="T64" s="58"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="87"/>
       <c r="V64" s="36">
         <v>20</v>
       </c>
@@ -16358,79 +16841,122 @@
       <c r="C65" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="D65" s="42" t="s">
-        <v>697</v>
+      <c r="D65" s="41" t="s">
+        <v>693</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="F65" s="63" t="s">
-        <v>727</v>
-      </c>
-      <c r="G65" s="64" t="s">
-        <v>746</v>
+      <c r="F65" s="71" t="s">
+        <v>723</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>742</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="J65" s="35" t="s">
-        <v>734</v>
-      </c>
-      <c r="K65" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="M65" s="72">
+        <v>730</v>
+      </c>
+      <c r="J65" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="K65" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="M65" s="51">
         <v>1</v>
       </c>
-      <c r="N65" s="68" t="s">
-        <v>736</v>
-      </c>
-      <c r="O65" s="33" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q65" s="75" t="s">
-        <v>735</v>
-      </c>
-      <c r="R65" s="68">
+      <c r="N65" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="O65" s="65" t="s">
+        <v>729</v>
+      </c>
+      <c r="P65" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q65" s="54" t="s">
+        <v>731</v>
+      </c>
+      <c r="R65" s="48">
         <v>1</v>
       </c>
-      <c r="S65" s="58"/>
-      <c r="T65" s="58"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="87"/>
       <c r="V65" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="B68" s="33" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="C69" s="33" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="C70" s="33" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="D71" s="33" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="D72" s="33" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="C74" s="33" t="s">
-        <v>784</v>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="B77" s="33" t="s">
+        <v>787</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="C80" s="33" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="64" t="s">
+        <v>819</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="70" t="s">
+        <v>819</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" s="66" t="s">
+        <v>820</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -16458,5 +16984,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/Demo/副本设计v0.4.xlsx
+++ b/gd/Demo/副本设计v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="怪物设计" sheetId="1" r:id="rId3"/>
     <sheet name="boss局设计" sheetId="3" r:id="rId4"/>
     <sheet name="通用技能说明" sheetId="6" r:id="rId5"/>
+    <sheet name="Icon需求列表" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1005">
   <si>
     <t>月光森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3194,6 +3195,545 @@
   </si>
   <si>
     <t>attackSmashSlightp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害跟存活爪子相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六个爪子挠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用手拍打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍打攻击</t>
+  </si>
+  <si>
+    <t>眼睛发射线攻击敌方全体，附带眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化攻击</t>
+  </si>
+  <si>
+    <t>智蛇和力蛇释放压制法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>所有蛇头同时攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群蛇乱舞</t>
+  </si>
+  <si>
+    <t>恶魔攻击敌方单体，暗属性法术伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔横扫攻击敌方全体，物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔攻击敌方单体，造成暗属性法术伤害，并使其眩晕1回合。卡戎右爪施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神控制</t>
+  </si>
+  <si>
+    <t>恶魔横扫攻击敌方全体，物理伤害，卡戎左爪施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影强袭</t>
+  </si>
+  <si>
+    <t>小女孩发法术攻击敌方全体，暗属性法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影波</t>
+  </si>
+  <si>
+    <t>小女孩指挥恶魔（看似）攻击敌方单体，3连击，物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影爪</t>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散己方全员debuff</t>
+  </si>
+  <si>
+    <t>哈皮</t>
+  </si>
+  <si>
+    <t>被物理攻击时一定几率产生物理伤害减免护盾</t>
+  </si>
+  <si>
+    <t>法术大招群体加血</t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>物攻一定几率附带暗属性强dot（同buff）</t>
+  </si>
+  <si>
+    <t>物理大招 10秒6次物理攻击（特别弱）附带眩晕1回合，附带暗属性强dot</t>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>络新妇</t>
+  </si>
+  <si>
+    <t>物攻几率附加驱散增益buff</t>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系大招攻击敌方全体，造成伤害并降低智力</t>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+  </si>
+  <si>
+    <t>释放法攻时回复生命</t>
+  </si>
+  <si>
+    <t>法系大招攻击敌方全体，造成伤害并降低力量及防御</t>
+  </si>
+  <si>
+    <t>安普莎</t>
+  </si>
+  <si>
+    <t>25%血以下时，力量提升</t>
+  </si>
+  <si>
+    <t>物攻大招，10秒7次，一定几率附带物理伤害弱dot</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>法攻治疗时附带法伤吸收盾。</t>
+  </si>
+  <si>
+    <t>大招群体加血少，并群体上法伤吸收盾</t>
+  </si>
+  <si>
+    <t>龙宫童子</t>
+  </si>
+  <si>
+    <t>先制攻击-进场全团防御提升</t>
+  </si>
+  <si>
+    <t>群体法术伤害</t>
+  </si>
+  <si>
+    <t>河童</t>
+  </si>
+  <si>
+    <t>粘性皮肤：被攻击时一定几率，降低攻击者速度</t>
+  </si>
+  <si>
+    <t>法术大招单体伤害，附带一定几率击晕</t>
+  </si>
+  <si>
+    <t>蛙鬼</t>
+  </si>
+  <si>
+    <t>坚韧之血：受到致命伤害时，血量置为血量上限的15%-每个对局限一次</t>
+  </si>
+  <si>
+    <t>群体物理和法术吸收护盾</t>
+  </si>
+  <si>
+    <t>阿穆特</t>
+  </si>
+  <si>
+    <t>法术攻击一定几率回血</t>
+  </si>
+  <si>
+    <t>群体大回复（AI设计后有可能改成单体大回复）</t>
+  </si>
+  <si>
+    <t>曼陀罗</t>
+  </si>
+  <si>
+    <t>先制攻击，进场时先进行一次物理攻击</t>
+  </si>
+  <si>
+    <t>物理攻击，10秒内10次攻击</t>
+  </si>
+  <si>
+    <t>潘神</t>
+  </si>
+  <si>
+    <t>使用物攻时一定几率是自身的力量上升</t>
+  </si>
+  <si>
+    <t>花魄</t>
+  </si>
+  <si>
+    <t>受到攻击一定几率防御力提升</t>
+  </si>
+  <si>
+    <t>物理攻击，10秒内攻击5次，伤害效果命中几率附带嘲讽效果，嘲讽效果持续X回合</t>
+  </si>
+  <si>
+    <t>蜥蜴人</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性技能（大招/被动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施毒（强）</t>
+  </si>
+  <si>
+    <t>施毒（中）</t>
+  </si>
+  <si>
+    <t>施毒（弱）</t>
+  </si>
+  <si>
+    <t>火强Dot</t>
+  </si>
+  <si>
+    <t>点燃（强）</t>
+  </si>
+  <si>
+    <t>火中Dot</t>
+  </si>
+  <si>
+    <t>点燃（中）</t>
+  </si>
+  <si>
+    <t>火弱Dot</t>
+  </si>
+  <si>
+    <t>点燃（弱）</t>
+  </si>
+  <si>
+    <t>物理强Dot</t>
+  </si>
+  <si>
+    <t>撕裂（强）</t>
+  </si>
+  <si>
+    <t>物理中Dot</t>
+  </si>
+  <si>
+    <t>撕裂（中）</t>
+  </si>
+  <si>
+    <t>物理弱Dot</t>
+  </si>
+  <si>
+    <t>撕裂（弱）</t>
+  </si>
+  <si>
+    <t>降低速度</t>
+  </si>
+  <si>
+    <t>缓速术</t>
+  </si>
+  <si>
+    <t>降低智力</t>
+  </si>
+  <si>
+    <t>失心术</t>
+  </si>
+  <si>
+    <t>降低防御</t>
+  </si>
+  <si>
+    <t>破甲术</t>
+  </si>
+  <si>
+    <t>虚弱术</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>恢复术</t>
+  </si>
+  <si>
+    <t>提升自身速度</t>
+  </si>
+  <si>
+    <t>速度爆发</t>
+  </si>
+  <si>
+    <t>提升自身智力</t>
+  </si>
+  <si>
+    <t>智力爆发</t>
+  </si>
+  <si>
+    <t>提升自身防御</t>
+  </si>
+  <si>
+    <t>防御姿态</t>
+  </si>
+  <si>
+    <t>提升自身力量</t>
+  </si>
+  <si>
+    <t>力量爆发</t>
+  </si>
+  <si>
+    <t>提升速度</t>
+  </si>
+  <si>
+    <t>加速术</t>
+  </si>
+  <si>
+    <t>提升智力</t>
+  </si>
+  <si>
+    <t>智慧术</t>
+  </si>
+  <si>
+    <t>提升防御</t>
+  </si>
+  <si>
+    <t>加护术</t>
+  </si>
+  <si>
+    <t>提升力量</t>
+  </si>
+  <si>
+    <t>激励术</t>
+  </si>
+  <si>
+    <t>治疗强</t>
+  </si>
+  <si>
+    <t>强效治疗</t>
+  </si>
+  <si>
+    <t>治疗中</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>治疗弱</t>
+  </si>
+  <si>
+    <t>回复术</t>
+  </si>
+  <si>
+    <t>强暗</t>
+  </si>
+  <si>
+    <t>中暗</t>
+  </si>
+  <si>
+    <t>弱暗</t>
+  </si>
+  <si>
+    <t>暗影突袭</t>
+  </si>
+  <si>
+    <t>强火</t>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+  </si>
+  <si>
+    <t>中火</t>
+  </si>
+  <si>
+    <t>炽焰击</t>
+  </si>
+  <si>
+    <t>弱火</t>
+  </si>
+  <si>
+    <t>火苗术</t>
+  </si>
+  <si>
+    <t>强水</t>
+  </si>
+  <si>
+    <t>水龙卷</t>
+  </si>
+  <si>
+    <t>中水</t>
+  </si>
+  <si>
+    <t>瀑布冲击</t>
+  </si>
+  <si>
+    <t>弱水</t>
+  </si>
+  <si>
+    <t>水流术</t>
+  </si>
+  <si>
+    <t>强木</t>
+  </si>
+  <si>
+    <t>疯狂生长</t>
+  </si>
+  <si>
+    <t>中木</t>
+  </si>
+  <si>
+    <t>荆棘穿刺</t>
+  </si>
+  <si>
+    <t>弱木</t>
+  </si>
+  <si>
+    <t>飞叶斩</t>
+  </si>
+  <si>
+    <t>强光</t>
+  </si>
+  <si>
+    <t>圣光重击</t>
+  </si>
+  <si>
+    <t>中光</t>
+  </si>
+  <si>
+    <t>圣光一击</t>
+  </si>
+  <si>
+    <t>弱光</t>
+  </si>
+  <si>
+    <t>圣光弹</t>
+  </si>
+  <si>
+    <t>强砸</t>
+  </si>
+  <si>
+    <t>强力攻击</t>
+  </si>
+  <si>
+    <t>中砸</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>弱砸</t>
+  </si>
+  <si>
+    <t>弱攻击</t>
+  </si>
+  <si>
+    <t>3连强刺</t>
+  </si>
+  <si>
+    <t>三连强击</t>
+  </si>
+  <si>
+    <t>3连中刺</t>
+  </si>
+  <si>
+    <t>三连击</t>
+  </si>
+  <si>
+    <t>3连弱刺</t>
+  </si>
+  <si>
+    <t>三连弱击</t>
+  </si>
+  <si>
+    <t>强刺</t>
+  </si>
+  <si>
+    <t>中刺</t>
+  </si>
+  <si>
+    <t>弱刺</t>
+  </si>
+  <si>
+    <t>3连强斩</t>
+  </si>
+  <si>
+    <t>3连中斩</t>
+  </si>
+  <si>
+    <t>3连弱斩</t>
+  </si>
+  <si>
+    <t>强斩</t>
+  </si>
+  <si>
+    <t>中斩</t>
+  </si>
+  <si>
+    <t>弱斩</t>
+  </si>
+  <si>
+    <t>设计代号</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>通用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4127,7 +4667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8818,8 +9358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I285" sqref="I285:K285"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -12275,8 +12815,8 @@
       <c r="C316" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>57</v>
+      <c r="D316" s="33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="317" spans="2:17">
@@ -13177,7 +13717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -16961,16 +17501,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="T44:T65"/>
-    <mergeCell ref="T2:T7"/>
-    <mergeCell ref="T8:T13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T21:T22"/>
     <mergeCell ref="S44:S65"/>
     <mergeCell ref="S8:S13"/>
     <mergeCell ref="S14:S16"/>
@@ -16981,9 +17511,1079 @@
     <mergeCell ref="S30:S31"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="S35:S43"/>
+    <mergeCell ref="T2:T7"/>
+    <mergeCell ref="T8:T13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="T44:T65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="33"/>
+    <col min="2" max="2" width="13.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="33" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="34" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="33" t="s">
+        <v>991</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="33" t="s">
+        <v>989</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="33" t="s">
+        <v>991</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="33" t="s">
+        <v>989</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="33" t="s">
+        <v>979</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="33" t="s">
+        <v>977</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="33" t="s">
+        <v>973</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="33" t="s">
+        <v>969</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="33" t="s">
+        <v>963</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="33" t="s">
+        <v>961</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="33" t="s">
+        <v>939</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="33" t="s">
+        <v>935</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="33" t="s">
+        <v>926</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="33" t="s">
+        <v>924</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="33" t="s">
+        <v>920</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="33" t="s">
+        <v>916</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="33" t="s">
+        <v>912</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="33" t="s">
+        <v>552</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="33" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>902</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" s="35"/>
+      <c r="C71" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" s="35"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="35" t="s">
+        <v>897</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" s="35"/>
+      <c r="C74" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" s="35"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="35" t="s">
+        <v>895</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F76" s="35" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" s="35"/>
+      <c r="C77" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" s="35"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" s="35" t="s">
+        <v>892</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="35"/>
+      <c r="C80" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="35"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="35" t="s">
+        <v>889</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="C83" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="35"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="35" t="s">
+        <v>886</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="35"/>
+      <c r="C86" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F86" s="35" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="35"/>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F88" s="35" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="35"/>
+      <c r="C89" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F89" s="35" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="35"/>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="35"/>
+      <c r="C92" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F92" s="35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="35"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="C95" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="35"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="B97" s="35" t="s">
+        <v>874</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F97" s="35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="B98" s="35"/>
+      <c r="C98" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F98" s="35" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="B99" s="35"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="B100" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F100" s="35" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="B101" s="35"/>
+      <c r="C101" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="B102" s="35"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F103" s="35" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" s="35"/>
+      <c r="C104" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="F104" s="35" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" s="35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" s="35"/>
+      <c r="C107" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" s="35"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="B110" s="35"/>
+      <c r="C110" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="F110" s="35" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="B111" s="35"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="B112" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="E113" s="33" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="C114" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="C115" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="C116" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="17.25">
+      <c r="C117" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="17.25">
+      <c r="C118" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="35"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>843</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="C122" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="E122" s="33" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="35"/>
+      <c r="C123" s="33" t="s">
+        <v>839</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="35"/>
+      <c r="C124" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="35"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="35"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>835</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="35"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="35"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="35"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="35"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="35"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="35"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="35"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="35"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="35"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="35"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="35"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="35"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="35"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="35"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="35"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/gd/Demo/副本设计v0.4.xlsx
+++ b/gd/Demo/副本设计v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="怪物设计" sheetId="1" r:id="rId3"/>
     <sheet name="boss局设计" sheetId="3" r:id="rId4"/>
     <sheet name="通用技能说明" sheetId="6" r:id="rId5"/>
-    <sheet name="Icon需求列表" sheetId="7" r:id="rId6"/>
+    <sheet name="Icon需求列表" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1190">
   <si>
     <t>月光森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3198,542 +3198,1283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>拍打攻击</t>
+  </si>
+  <si>
+    <t>石化攻击</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>群蛇乱舞</t>
+  </si>
+  <si>
+    <t>精神控制</t>
+  </si>
+  <si>
+    <t>暗影强袭</t>
+  </si>
+  <si>
+    <t>暗影波</t>
+  </si>
+  <si>
+    <t>暗影爪</t>
+  </si>
+  <si>
+    <t>驱散己方全员debuff</t>
+  </si>
+  <si>
+    <t>哈皮</t>
+  </si>
+  <si>
+    <t>被物理攻击时一定几率产生物理伤害减免护盾</t>
+  </si>
+  <si>
+    <t>法术大招群体加血</t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>物攻一定几率附带暗属性强dot（同buff）</t>
+  </si>
+  <si>
+    <t>物理大招 10秒6次物理攻击（特别弱）附带眩晕1回合，附带暗属性强dot</t>
+  </si>
+  <si>
+    <t>络新妇</t>
+  </si>
+  <si>
+    <t>物攻几率附加驱散增益buff</t>
+  </si>
+  <si>
+    <t>法系大招攻击敌方全体，造成伤害并降低智力</t>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+  </si>
+  <si>
+    <t>释放法攻时回复生命</t>
+  </si>
+  <si>
+    <t>法系大招攻击敌方全体，造成伤害并降低力量及防御</t>
+  </si>
+  <si>
+    <t>安普莎</t>
+  </si>
+  <si>
+    <t>25%血以下时，力量提升</t>
+  </si>
+  <si>
+    <t>物攻大招，10秒7次，一定几率附带物理伤害弱dot</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>法攻治疗时附带法伤吸收盾。</t>
+  </si>
+  <si>
+    <t>大招群体加血少，并群体上法伤吸收盾</t>
+  </si>
+  <si>
+    <t>龙宫童子</t>
+  </si>
+  <si>
+    <t>先制攻击-进场全团防御提升</t>
+  </si>
+  <si>
+    <t>群体法术伤害</t>
+  </si>
+  <si>
+    <t>河童</t>
+  </si>
+  <si>
+    <t>粘性皮肤：被攻击时一定几率，降低攻击者速度</t>
+  </si>
+  <si>
+    <t>法术大招单体伤害，附带一定几率击晕</t>
+  </si>
+  <si>
+    <t>蛙鬼</t>
+  </si>
+  <si>
+    <t>群体物理和法术吸收护盾</t>
+  </si>
+  <si>
+    <t>阿穆特</t>
+  </si>
+  <si>
+    <t>法术攻击一定几率回血</t>
+  </si>
+  <si>
+    <t>曼陀罗</t>
+  </si>
+  <si>
+    <t>先制攻击，进场时先进行一次物理攻击</t>
+  </si>
+  <si>
+    <t>物理攻击，10秒内10次攻击</t>
+  </si>
+  <si>
+    <t>潘神</t>
+  </si>
+  <si>
+    <t>使用物攻时一定几率是自身的力量上升</t>
+  </si>
+  <si>
+    <t>花魄</t>
+  </si>
+  <si>
+    <t>受到攻击一定几率防御力提升</t>
+  </si>
+  <si>
+    <t>物理攻击，10秒内攻击5次，伤害效果命中几率附带嘲讽效果，嘲讽效果持续X回合</t>
+  </si>
+  <si>
+    <t>蜥蜴人</t>
+  </si>
+  <si>
+    <t>施毒（强）</t>
+  </si>
+  <si>
+    <t>施毒（中）</t>
+  </si>
+  <si>
+    <t>施毒（弱）</t>
+  </si>
+  <si>
+    <t>火强Dot</t>
+  </si>
+  <si>
+    <t>点燃（强）</t>
+  </si>
+  <si>
+    <t>火中Dot</t>
+  </si>
+  <si>
+    <t>点燃（中）</t>
+  </si>
+  <si>
+    <t>火弱Dot</t>
+  </si>
+  <si>
+    <t>点燃（弱）</t>
+  </si>
+  <si>
+    <t>物理强Dot</t>
+  </si>
+  <si>
+    <t>撕裂（强）</t>
+  </si>
+  <si>
+    <t>物理中Dot</t>
+  </si>
+  <si>
+    <t>撕裂（中）</t>
+  </si>
+  <si>
+    <t>物理弱Dot</t>
+  </si>
+  <si>
+    <t>撕裂（弱）</t>
+  </si>
+  <si>
+    <t>降低速度</t>
+  </si>
+  <si>
+    <t>缓速术</t>
+  </si>
+  <si>
+    <t>降低智力</t>
+  </si>
+  <si>
+    <t>失心术</t>
+  </si>
+  <si>
+    <t>降低防御</t>
+  </si>
+  <si>
+    <t>破甲术</t>
+  </si>
+  <si>
+    <t>虚弱术</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>恢复术</t>
+  </si>
+  <si>
+    <t>提升自身速度</t>
+  </si>
+  <si>
+    <t>速度爆发</t>
+  </si>
+  <si>
+    <t>提升自身智力</t>
+  </si>
+  <si>
+    <t>智力爆发</t>
+  </si>
+  <si>
+    <t>提升自身防御</t>
+  </si>
+  <si>
+    <t>防御姿态</t>
+  </si>
+  <si>
+    <t>提升自身力量</t>
+  </si>
+  <si>
+    <t>力量爆发</t>
+  </si>
+  <si>
+    <t>提升速度</t>
+  </si>
+  <si>
+    <t>加速术</t>
+  </si>
+  <si>
+    <t>提升智力</t>
+  </si>
+  <si>
+    <t>智慧术</t>
+  </si>
+  <si>
+    <t>提升防御</t>
+  </si>
+  <si>
+    <t>加护术</t>
+  </si>
+  <si>
+    <t>提升力量</t>
+  </si>
+  <si>
+    <t>激励术</t>
+  </si>
+  <si>
+    <t>治疗强</t>
+  </si>
+  <si>
+    <t>强效治疗</t>
+  </si>
+  <si>
+    <t>治疗中</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>治疗弱</t>
+  </si>
+  <si>
+    <t>回复术</t>
+  </si>
+  <si>
+    <t>强暗</t>
+  </si>
+  <si>
+    <t>中暗</t>
+  </si>
+  <si>
+    <t>弱暗</t>
+  </si>
+  <si>
+    <t>暗影突袭</t>
+  </si>
+  <si>
+    <t>强火</t>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+  </si>
+  <si>
+    <t>中火</t>
+  </si>
+  <si>
+    <t>炽焰击</t>
+  </si>
+  <si>
+    <t>弱火</t>
+  </si>
+  <si>
+    <t>火苗术</t>
+  </si>
+  <si>
+    <t>强水</t>
+  </si>
+  <si>
+    <t>水龙卷</t>
+  </si>
+  <si>
+    <t>中水</t>
+  </si>
+  <si>
+    <t>瀑布冲击</t>
+  </si>
+  <si>
+    <t>弱水</t>
+  </si>
+  <si>
+    <t>水流术</t>
+  </si>
+  <si>
+    <t>强木</t>
+  </si>
+  <si>
+    <t>疯狂生长</t>
+  </si>
+  <si>
+    <t>中木</t>
+  </si>
+  <si>
+    <t>荆棘穿刺</t>
+  </si>
+  <si>
+    <t>弱木</t>
+  </si>
+  <si>
+    <t>飞叶斩</t>
+  </si>
+  <si>
+    <t>强光</t>
+  </si>
+  <si>
+    <t>圣光重击</t>
+  </si>
+  <si>
+    <t>中光</t>
+  </si>
+  <si>
+    <t>圣光一击</t>
+  </si>
+  <si>
+    <t>弱光</t>
+  </si>
+  <si>
+    <t>圣光弹</t>
+  </si>
+  <si>
+    <t>强砸</t>
+  </si>
+  <si>
+    <t>强力攻击</t>
+  </si>
+  <si>
+    <t>中砸</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>弱砸</t>
+  </si>
+  <si>
+    <t>弱攻击</t>
+  </si>
+  <si>
+    <t>3连强刺</t>
+  </si>
+  <si>
+    <t>三连强击</t>
+  </si>
+  <si>
+    <t>3连中刺</t>
+  </si>
+  <si>
+    <t>三连击</t>
+  </si>
+  <si>
+    <t>3连弱刺</t>
+  </si>
+  <si>
+    <t>三连弱击</t>
+  </si>
+  <si>
+    <t>强刺</t>
+  </si>
+  <si>
+    <t>中刺</t>
+  </si>
+  <si>
+    <t>弱刺</t>
+  </si>
+  <si>
+    <t>3连强斩</t>
+  </si>
+  <si>
+    <t>3连中斩</t>
+  </si>
+  <si>
+    <t>3连弱斩</t>
+  </si>
+  <si>
+    <t>强斩</t>
+  </si>
+  <si>
+    <t>中斩</t>
+  </si>
+  <si>
+    <t>弱斩</t>
+  </si>
+  <si>
+    <t>设计代号</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>通用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackCutSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackCutTriSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strong Triple Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackStabMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Bolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicMetalMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divine Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaf Darts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piercing Spikes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild Growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Splash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterfall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waterspout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame Blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hell Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Swipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Claw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicEarthMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesser Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicCureMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potent Healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicCureStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overwhelming Strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensive Stance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Intellect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffHot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stupefy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inhibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tear (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignite (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffWaterDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gush (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffMetalDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Weak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Normal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anguish (Strong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性技能（大招/被动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花刺扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂冲乱刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体大回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧之血</t>
+  </si>
+  <si>
+    <t>坚韧之血：受到致命伤害时，血量置为血量上限的15%-每个对局限一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘性喷吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘性皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强固阵型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂撕裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吮命咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺魂斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经毒刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛楚之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜷缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡戎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩指挥恶魔（看似）攻击敌方单体，3连击，物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩发法术攻击敌方全体，暗属性法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔横扫攻击敌方全体，物理伤害，卡戎左爪施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔攻击敌方单体，造成暗属性法术伤害，并使其眩晕1回合。卡戎右爪施法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔横扫攻击敌方全体，物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔攻击敌方单体，暗属性法术伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有蛇头同时攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智蛇和力蛇释放压制法术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛发射线攻击敌方全体，附带眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用手拍打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>络新妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>伤害跟存活爪子相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六个爪子挠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用手拍打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍打攻击</t>
-  </si>
-  <si>
-    <t>眼睛发射线攻击敌方全体，附带眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石化攻击</t>
-  </si>
-  <si>
-    <t>智蛇和力蛇释放压制法术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压制</t>
-  </si>
-  <si>
-    <t>所有蛇头同时攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群蛇乱舞</t>
-  </si>
-  <si>
-    <t>恶魔攻击敌方单体，暗属性法术伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔横扫攻击敌方全体，物理伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔攻击敌方单体，造成暗属性法术伤害，并使其眩晕1回合。卡戎右爪施法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神控制</t>
-  </si>
-  <si>
-    <t>恶魔横扫攻击敌方全体，物理伤害，卡戎左爪施法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影强袭</t>
-  </si>
-  <si>
-    <t>小女孩发法术攻击敌方全体，暗属性法术伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影波</t>
-  </si>
-  <si>
-    <t>小女孩指挥恶魔（看似）攻击敌方单体，3连击，物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影爪</t>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散己方全员debuff</t>
-  </si>
-  <si>
-    <t>哈皮</t>
-  </si>
-  <si>
-    <t>被物理攻击时一定几率产生物理伤害减免护盾</t>
-  </si>
-  <si>
-    <t>法术大招群体加血</t>
-  </si>
-  <si>
-    <t>Momo</t>
-  </si>
-  <si>
-    <t>物攻一定几率附带暗属性强dot（同buff）</t>
-  </si>
-  <si>
-    <t>物理大招 10秒6次物理攻击（特别弱）附带眩晕1回合，附带暗属性强dot</t>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>络新妇</t>
-  </si>
-  <si>
-    <t>物攻几率附加驱散增益buff</t>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法系大招攻击敌方全体，造成伤害并降低智力</t>
-  </si>
-  <si>
-    <t>凯瑞斯</t>
-  </si>
-  <si>
-    <t>释放法攻时回复生命</t>
-  </si>
-  <si>
-    <t>法系大招攻击敌方全体，造成伤害并降低力量及防御</t>
-  </si>
-  <si>
-    <t>安普莎</t>
-  </si>
-  <si>
-    <t>25%血以下时，力量提升</t>
-  </si>
-  <si>
-    <t>物攻大招，10秒7次，一定几率附带物理伤害弱dot</t>
-  </si>
-  <si>
-    <t>狼人</t>
-  </si>
-  <si>
-    <t>法攻治疗时附带法伤吸收盾。</t>
-  </si>
-  <si>
-    <t>大招群体加血少，并群体上法伤吸收盾</t>
-  </si>
-  <si>
-    <t>龙宫童子</t>
-  </si>
-  <si>
-    <t>先制攻击-进场全团防御提升</t>
-  </si>
-  <si>
-    <t>群体法术伤害</t>
-  </si>
-  <si>
-    <t>河童</t>
-  </si>
-  <si>
-    <t>粘性皮肤：被攻击时一定几率，降低攻击者速度</t>
-  </si>
-  <si>
-    <t>法术大招单体伤害，附带一定几率击晕</t>
-  </si>
-  <si>
-    <t>蛙鬼</t>
-  </si>
-  <si>
-    <t>坚韧之血：受到致命伤害时，血量置为血量上限的15%-每个对局限一次</t>
-  </si>
-  <si>
-    <t>群体物理和法术吸收护盾</t>
-  </si>
-  <si>
-    <t>阿穆特</t>
-  </si>
-  <si>
-    <t>法术攻击一定几率回血</t>
-  </si>
-  <si>
-    <t>群体大回复（AI设计后有可能改成单体大回复）</t>
-  </si>
-  <si>
-    <t>曼陀罗</t>
-  </si>
-  <si>
-    <t>先制攻击，进场时先进行一次物理攻击</t>
-  </si>
-  <si>
-    <t>物理攻击，10秒内10次攻击</t>
-  </si>
-  <si>
-    <t>潘神</t>
-  </si>
-  <si>
-    <t>使用物攻时一定几率是自身的力量上升</t>
-  </si>
-  <si>
-    <t>花魄</t>
-  </si>
-  <si>
-    <t>受到攻击一定几率防御力提升</t>
-  </si>
-  <si>
-    <t>物理攻击，10秒内攻击5次，伤害效果命中几率附带嘲讽效果，嘲讽效果持续X回合</t>
-  </si>
-  <si>
-    <t>蜥蜴人</t>
-  </si>
-  <si>
-    <t>逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性技能（大招/被动）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施毒（强）</t>
-  </si>
-  <si>
-    <t>施毒（中）</t>
-  </si>
-  <si>
-    <t>施毒（弱）</t>
-  </si>
-  <si>
-    <t>火强Dot</t>
-  </si>
-  <si>
-    <t>点燃（强）</t>
-  </si>
-  <si>
-    <t>火中Dot</t>
-  </si>
-  <si>
-    <t>点燃（中）</t>
-  </si>
-  <si>
-    <t>火弱Dot</t>
-  </si>
-  <si>
-    <t>点燃（弱）</t>
-  </si>
-  <si>
-    <t>物理强Dot</t>
-  </si>
-  <si>
-    <t>撕裂（强）</t>
-  </si>
-  <si>
-    <t>物理中Dot</t>
-  </si>
-  <si>
-    <t>撕裂（中）</t>
-  </si>
-  <si>
-    <t>物理弱Dot</t>
-  </si>
-  <si>
-    <t>撕裂（弱）</t>
-  </si>
-  <si>
-    <t>降低速度</t>
-  </si>
-  <si>
-    <t>缓速术</t>
-  </si>
-  <si>
-    <t>降低智力</t>
-  </si>
-  <si>
-    <t>失心术</t>
-  </si>
-  <si>
-    <t>降低防御</t>
-  </si>
-  <si>
-    <t>破甲术</t>
-  </si>
-  <si>
-    <t>虚弱术</t>
-  </si>
-  <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>恢复术</t>
-  </si>
-  <si>
-    <t>提升自身速度</t>
-  </si>
-  <si>
-    <t>速度爆发</t>
-  </si>
-  <si>
-    <t>提升自身智力</t>
-  </si>
-  <si>
-    <t>智力爆发</t>
-  </si>
-  <si>
-    <t>提升自身防御</t>
-  </si>
-  <si>
-    <t>防御姿态</t>
-  </si>
-  <si>
-    <t>提升自身力量</t>
-  </si>
-  <si>
-    <t>力量爆发</t>
-  </si>
-  <si>
-    <t>提升速度</t>
-  </si>
-  <si>
-    <t>加速术</t>
-  </si>
-  <si>
-    <t>提升智力</t>
-  </si>
-  <si>
-    <t>智慧术</t>
-  </si>
-  <si>
-    <t>提升防御</t>
-  </si>
-  <si>
-    <t>加护术</t>
-  </si>
-  <si>
-    <t>提升力量</t>
-  </si>
-  <si>
-    <t>激励术</t>
-  </si>
-  <si>
-    <t>治疗强</t>
-  </si>
-  <si>
-    <t>强效治疗</t>
-  </si>
-  <si>
-    <t>治疗中</t>
-  </si>
-  <si>
-    <t>治疗术</t>
-  </si>
-  <si>
-    <t>治疗弱</t>
-  </si>
-  <si>
-    <t>回复术</t>
-  </si>
-  <si>
-    <t>强暗</t>
-  </si>
-  <si>
-    <t>中暗</t>
-  </si>
-  <si>
-    <t>弱暗</t>
-  </si>
-  <si>
-    <t>暗影突袭</t>
-  </si>
-  <si>
-    <t>强火</t>
-  </si>
-  <si>
-    <t>地狱烈焰</t>
-  </si>
-  <si>
-    <t>中火</t>
-  </si>
-  <si>
-    <t>炽焰击</t>
-  </si>
-  <si>
-    <t>弱火</t>
-  </si>
-  <si>
-    <t>火苗术</t>
-  </si>
-  <si>
-    <t>强水</t>
-  </si>
-  <si>
-    <t>水龙卷</t>
-  </si>
-  <si>
-    <t>中水</t>
-  </si>
-  <si>
-    <t>瀑布冲击</t>
-  </si>
-  <si>
-    <t>弱水</t>
-  </si>
-  <si>
-    <t>水流术</t>
-  </si>
-  <si>
-    <t>强木</t>
-  </si>
-  <si>
-    <t>疯狂生长</t>
-  </si>
-  <si>
-    <t>中木</t>
-  </si>
-  <si>
-    <t>荆棘穿刺</t>
-  </si>
-  <si>
-    <t>弱木</t>
-  </si>
-  <si>
-    <t>飞叶斩</t>
-  </si>
-  <si>
-    <t>强光</t>
-  </si>
-  <si>
-    <t>圣光重击</t>
-  </si>
-  <si>
-    <t>中光</t>
-  </si>
-  <si>
-    <t>圣光一击</t>
-  </si>
-  <si>
-    <t>弱光</t>
-  </si>
-  <si>
-    <t>圣光弹</t>
-  </si>
-  <si>
-    <t>强砸</t>
-  </si>
-  <si>
-    <t>强力攻击</t>
-  </si>
-  <si>
-    <t>中砸</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>弱砸</t>
-  </si>
-  <si>
-    <t>弱攻击</t>
-  </si>
-  <si>
-    <t>3连强刺</t>
-  </si>
-  <si>
-    <t>三连强击</t>
-  </si>
-  <si>
-    <t>3连中刺</t>
-  </si>
-  <si>
-    <t>三连击</t>
-  </si>
-  <si>
-    <t>3连弱刺</t>
-  </si>
-  <si>
-    <t>三连弱击</t>
-  </si>
-  <si>
-    <t>强刺</t>
-  </si>
-  <si>
-    <t>中刺</t>
-  </si>
-  <si>
-    <t>弱刺</t>
-  </si>
-  <si>
-    <t>3连强斩</t>
-  </si>
-  <si>
-    <t>3连中斩</t>
-  </si>
-  <si>
-    <t>3连弱斩</t>
-  </si>
-  <si>
-    <t>强斩</t>
-  </si>
-  <si>
-    <t>中斩</t>
-  </si>
-  <si>
-    <t>弱斩</t>
-  </si>
-  <si>
-    <t>设计代号</t>
-  </si>
-  <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>通用技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
+    <t>毒蛛刺击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackCutMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackCutStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackCutTriMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackCutTriStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackStabSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackStabStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackStabTriSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackStabTriMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackStabTriStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackSmashSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackSmashMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_attackSmashStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicMetalSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicMetalStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicPlantSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicPlantMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicPlantStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicWaterSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicWaterMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicWaterStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicFireSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicFireMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicFireStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicEarthSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicEarthStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_magicCureSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffMagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffAttackSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffDefenseSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffMagicSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_buffSpeedSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffMagic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffFireDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffFireDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffFireDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffWateDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffWateDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffPlantDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffPlantDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffPlantDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffMetalDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffMetalDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffEarthDotSlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffEarthDotMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_debuffEarthDotStrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossMinghe18Karong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossMinghe18Karong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossMinghe18Karong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossMinghe18Karong4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossMinghe18Karong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossMinghe18Karong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossYueguangsenlin18Meidusha1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossYueguangsenlin18Meidusha5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossYueguangsenlin18Meidusha8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossYueguangsenlin18Meidusha9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_bossYueguangsenlin14Luoxinfu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultXiyiren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvXiyiren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultHuapo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvHuapo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultPanshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvPanshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultMantuoluo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvMantuoluo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultAmute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvAmute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultWagui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvWagui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultHetong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvHetong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultLonggongtongzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvLonggongtongzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultLangren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvLangren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultAnpusha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvAnpusha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultKairuisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvKairuisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultLuoxinfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvLuoxinfu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultMomo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvMomo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ultHapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_psvHapi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4139,7 +4880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4394,6 +5135,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="差 2" xfId="2"/>
@@ -4410,6 +5154,2921 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181476" y="2371724"/>
+          <a:ext cx="609600" cy="588135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615452</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181476" y="2979009"/>
+          <a:ext cx="596401" cy="583341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="5581650"/>
+          <a:ext cx="642937" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238626" y="1038226"/>
+          <a:ext cx="647699" cy="638174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>55159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>199868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="17495434"/>
+          <a:ext cx="581025" cy="563809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248151" y="386184"/>
+          <a:ext cx="628649" cy="642516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>295109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181476" y="4876296"/>
+          <a:ext cx="647700" cy="638513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="4219575"/>
+          <a:ext cx="638175" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>187297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191001" y="7486015"/>
+          <a:ext cx="609600" cy="587982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>637540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1704975"/>
+          <a:ext cx="608965" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>58185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="3620535"/>
+          <a:ext cx="561975" cy="570301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627444</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191001" y="6267450"/>
+          <a:ext cx="598868" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685907</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>704686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="8134350"/>
+          <a:ext cx="685907" cy="666586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>643144</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="9572625"/>
+          <a:ext cx="624094" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752313</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="10248899"/>
+          <a:ext cx="714213" cy="714213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229101" y="13782675"/>
+          <a:ext cx="723900" cy="734546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>18881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>18881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162426" y="21535856"/>
+          <a:ext cx="628650" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729077</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>714376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="14544675"/>
+          <a:ext cx="690977" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733970</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="20212050"/>
+          <a:ext cx="705395" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>712996</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>56982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="18669000"/>
+          <a:ext cx="693946" cy="714207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666891</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="20888325"/>
+          <a:ext cx="666891" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729669</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="8820151"/>
+          <a:ext cx="729669" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>827476</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24" descr="C:\Users\snmad\AppData\Roaming\Tencent\Users\646973923\QQ\WinTemp\RichOle\8IIOWIK~`SO{J5X49ZA_V]Q.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4191000" y="19392900"/>
+          <a:ext cx="798901" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558139</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>581026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029201" y="22802851"/>
+          <a:ext cx="548613" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>710480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191001" y="15992476"/>
+          <a:ext cx="681904" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>100519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029951" y="27308175"/>
+          <a:ext cx="857250" cy="881569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690696</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200526" y="16754476"/>
+          <a:ext cx="652595" cy="657224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590814</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>13560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="27003374"/>
+          <a:ext cx="543189" cy="546961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618131</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057776" y="26212800"/>
+          <a:ext cx="580030" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>552451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038726" y="24241126"/>
+          <a:ext cx="552450" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>659975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="23412450"/>
+          <a:ext cx="640925" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>3220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="24822150"/>
+          <a:ext cx="561975" cy="546145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>634749</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="25574625"/>
+          <a:ext cx="587124" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640866</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="27565350"/>
+          <a:ext cx="574191" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624094</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="28298775"/>
+          <a:ext cx="624094" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666891</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>657226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="28975050"/>
+          <a:ext cx="666891" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8146</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>714207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="31499175"/>
+          <a:ext cx="693946" cy="714207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640925</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="32242125"/>
+          <a:ext cx="640925" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19595</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="30575250"/>
+          <a:ext cx="705395" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4200525" y="18040350"/>
+          <a:ext cx="581025" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4181475" y="15306675"/>
+          <a:ext cx="676276" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8146</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>714207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="29860875"/>
+          <a:ext cx="693946" cy="714207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624094</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="33194625"/>
+          <a:ext cx="624094" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>567525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>590383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="33928050"/>
+          <a:ext cx="529425" cy="533233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704957</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>638011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="10925175"/>
+          <a:ext cx="685907" cy="666586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>662194</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="12363450"/>
+          <a:ext cx="624094" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>676274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771363</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>685637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="13039724"/>
+          <a:ext cx="714213" cy="714213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>657226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>748719</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>657226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="11610976"/>
+          <a:ext cx="729669" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589208</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>581024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="34756725"/>
+          <a:ext cx="589208" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>666586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="35442525"/>
+          <a:ext cx="685907" cy="666586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>77321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="37071300"/>
+          <a:ext cx="723900" cy="734546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24227</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="37052250"/>
+          <a:ext cx="690977" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="36395025"/>
+          <a:ext cx="628650" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624094</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="38661975"/>
+          <a:ext cx="624094" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="图片 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="40262175"/>
+          <a:ext cx="628650" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>656165</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="39595426"/>
+          <a:ext cx="656165" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666891</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>657226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="41138475"/>
+          <a:ext cx="666891" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43869</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="图片 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="41833800"/>
+          <a:ext cx="729669" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624094</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="图片 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="43405425"/>
+          <a:ext cx="624094" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>657296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="图片 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="42738675"/>
+          <a:ext cx="647700" cy="657296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4248150" y="45205650"/>
+          <a:ext cx="552450" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>652595</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>657224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="45805725"/>
+          <a:ext cx="652595" cy="657224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633720</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>647699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="47120175"/>
+          <a:ext cx="633720" cy="647699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100218</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11963400" y="27441525"/>
+          <a:ext cx="633618" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683926</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="37938075"/>
+          <a:ext cx="683926" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>638513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="图片 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="48644175"/>
+          <a:ext cx="647700" cy="638513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681904</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="46462950"/>
+          <a:ext cx="681904" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="图片 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="44510325"/>
+          <a:ext cx="628650" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729751</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>602391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="图片 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="50720625"/>
+          <a:ext cx="596401" cy="583341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4295775" y="49396650"/>
+          <a:ext cx="561975" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819291</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>657226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="图片 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="50015775"/>
+          <a:ext cx="666891" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4229100" y="47786925"/>
+          <a:ext cx="657225" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4314825" y="51882675"/>
+          <a:ext cx="581025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4219575" y="6896100"/>
+          <a:ext cx="581025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4667,7 +8326,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9358,8 +13017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="G315" sqref="G315"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -13721,7 +17380,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14:H16"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17501,6 +21160,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="T44:T65"/>
+    <mergeCell ref="T2:T7"/>
+    <mergeCell ref="T8:T13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T21:T22"/>
     <mergeCell ref="S44:S65"/>
     <mergeCell ref="S8:S13"/>
     <mergeCell ref="S14:S16"/>
@@ -17511,16 +21180,6 @@
     <mergeCell ref="S30:S31"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="S35:S43"/>
-    <mergeCell ref="T2:T7"/>
-    <mergeCell ref="T8:T13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="T44:T65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17530,10 +21189,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17541,1013 +21200,1654 @@
     <col min="1" max="1" width="9" style="33"/>
     <col min="2" max="2" width="13.25" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="33"/>
+    <col min="4" max="4" width="21.125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="33" customWidth="1"/>
+    <col min="6" max="6" width="9" style="33"/>
+    <col min="7" max="7" width="30.5" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="33" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="34" t="s">
+        <v>976</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>975</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>978</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>979</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>980</v>
+      </c>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>974</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>981</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>973</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>972</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>984</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>971</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>985</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="33" t="s">
+        <v>963</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>970</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>987</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="33" t="s">
+        <v>961</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>969</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>988</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>968</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>981</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>966</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>984</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>964</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>985</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="33" t="s">
+        <v>963</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>962</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>987</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="33" t="s">
+        <v>961</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>960</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>988</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>958</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>981</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>954</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>984</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="33" t="s">
+        <v>953</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>952</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>990</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>991</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>992</v>
+      </c>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="2:12" ht="52.5" customHeight="1">
+      <c r="B21" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>994</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="2:12" ht="28.5" customHeight="1">
+      <c r="B22" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="2:12" ht="28.5" customHeight="1">
+      <c r="B23" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>940</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>997</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="33" t="s">
+        <v>939</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>936</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>999</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="33" t="s">
+        <v>935</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>934</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>932</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>930</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="34" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="33" t="s">
-        <v>983</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="33" t="s">
-        <v>981</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="33" t="s">
-        <v>991</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="33" t="s">
-        <v>989</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="33" t="s">
-        <v>987</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="33" t="s">
-        <v>983</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="33" t="s">
-        <v>981</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="33" t="s">
-        <v>991</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="33" t="s">
-        <v>989</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="33" t="s">
-        <v>987</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="33" t="s">
-        <v>983</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="33" t="s">
-        <v>981</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="33" t="s">
-        <v>979</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="33" t="s">
-        <v>977</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="33" t="s">
-        <v>973</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="33" t="s">
-        <v>971</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="33" t="s">
-        <v>969</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="33" t="s">
-        <v>967</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="33" t="s">
-        <v>965</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="33" t="s">
-        <v>963</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="33" t="s">
-        <v>961</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="33" t="s">
-        <v>959</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="33" t="s">
-        <v>957</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="33" t="s">
-        <v>955</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="F30" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" s="33" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+        <v>927</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="33" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+        <v>926</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="33" t="s">
-        <v>951</v>
+        <v>925</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+        <v>924</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="33" t="s">
-        <v>949</v>
+        <v>923</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
+        <v>922</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="33" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
+        <v>920</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="2:7" ht="56.25" customHeight="1">
       <c r="B36" s="33" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
+        <v>918</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="2:7" ht="56.25" customHeight="1">
       <c r="B37" s="33" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
+        <v>916</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="2:7" ht="56.25" customHeight="1">
       <c r="B38" s="33" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
+        <v>914</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="2:7" ht="56.25" customHeight="1">
       <c r="B39" s="33" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
+        <v>912</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="2:7" ht="55.5" customHeight="1">
       <c r="B40" s="33" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
+        <v>910</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="2:7" ht="55.5" customHeight="1">
       <c r="B41" s="33" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
+        <v>908</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="2:7" ht="55.5" customHeight="1">
       <c r="B42" s="33" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
+        <v>906</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="2:7" ht="55.5" customHeight="1">
       <c r="B43" s="33" t="s">
-        <v>931</v>
+        <v>905</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
+        <v>904</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="2:7" ht="57.75" customHeight="1">
       <c r="B44" s="33" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
+        <v>902</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="2:7" ht="57.75" customHeight="1">
       <c r="B45" s="33" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="46" spans="2:3">
+      <c r="D45" s="41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="2:7" ht="57.75" customHeight="1">
       <c r="B46" s="33" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
+        <v>899</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="2:7" ht="57.75" customHeight="1">
       <c r="B47" s="33" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
+        <v>897</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="2:7" ht="57.75" customHeight="1">
       <c r="B48" s="33" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
+        <v>895</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="33" t="s">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
+        <v>893</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="33" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
+        <v>891</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="33" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
+        <v>889</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="33" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
+        <v>887</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" s="33" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
+        <v>885</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" spans="2:10">
       <c r="B54" s="33" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
+        <v>883</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" spans="2:10">
       <c r="B55" s="33" t="s">
         <v>544</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
+      <c r="D55" s="41" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="2:10">
       <c r="B56" s="33" t="s">
         <v>545</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="57" spans="2:3">
+      <c r="D56" s="41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="2:10">
       <c r="B57" s="33" t="s">
         <v>546</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
+      <c r="D57" s="41" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="2:10" ht="33" customHeight="1">
       <c r="B58" s="33" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
+      <c r="D58" s="41" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="2:10" ht="33" customHeight="1">
       <c r="B59" s="33" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="D59" s="41" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="2:10" ht="57" customHeight="1">
       <c r="B60" s="33" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="61" spans="2:3">
+      <c r="D60" s="41" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="33" t="s">
         <v>550</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
+      <c r="D61" s="41" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62" s="33" t="s">
         <v>551</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="63" spans="2:3">
+      <c r="D62" s="41" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" s="33" t="s">
         <v>552</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
+      <c r="D63" s="41" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
       <c r="B64" s="33" t="s">
         <v>547</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="D64" s="41" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="B65" s="33" t="s">
         <v>548</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="D65" s="41" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="B66" s="33" t="s">
         <v>549</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="D66" s="41" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="33" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="B69" s="34" t="s">
-        <v>904</v>
+        <v>1048</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>903</v>
+        <v>1049</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>902</v>
+        <v>1050</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>1004</v>
+        <v>1051</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1052</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="49.5" customHeight="1">
       <c r="B70" s="35" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="G70" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="49.5" customHeight="1">
       <c r="B71" s="35"/>
       <c r="C71" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1056</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="G71" s="33" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="B72" s="35"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:8" ht="44.25" customHeight="1">
       <c r="B73" s="35" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="44.25" customHeight="1">
       <c r="B74" s="35"/>
       <c r="C74" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>1056</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="B75" s="35"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:8" ht="47.25" customHeight="1">
       <c r="B76" s="35" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F76" s="35" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="47.25" customHeight="1">
       <c r="B77" s="35"/>
       <c r="C77" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>1056</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="B78" s="35"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:8" ht="43.5" customHeight="1">
       <c r="B79" s="35" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="43.5" customHeight="1">
       <c r="B80" s="35"/>
       <c r="C80" s="33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="35"/>
+    </row>
+    <row r="82" spans="2:8" ht="53.25" customHeight="1">
+      <c r="B82" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="F80" s="35" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="35"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="35" t="s">
-        <v>889</v>
-      </c>
       <c r="C82" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="53.25" customHeight="1">
+      <c r="C83" s="33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="35"/>
+    </row>
+    <row r="85" spans="2:8" ht="56.25" customHeight="1">
+      <c r="B85" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H85" s="35" t="s">
         <v>866</v>
       </c>
-      <c r="F82" s="35" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="C83" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="35"/>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="35" t="s">
-        <v>886</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
+    </row>
+    <row r="86" spans="2:8" ht="56.25" customHeight="1">
       <c r="B86" s="35"/>
       <c r="C86" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
+        <v>1056</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H86" s="35" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="35"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:8" ht="58.5" customHeight="1">
       <c r="B88" s="35" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F88" s="35" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
+        <v>1055</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H88" s="35" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="58.5" customHeight="1">
       <c r="B89" s="35"/>
       <c r="C89" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F89" s="35" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6">
+        <v>1056</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H89" s="35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90" s="35"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:8" ht="53.25" customHeight="1">
       <c r="B91" s="35" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F91" s="35" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
+        <v>1055</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H91" s="35" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="53.25" customHeight="1">
       <c r="B92" s="35"/>
       <c r="C92" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F92" s="35" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
+        <v>1056</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H92" s="35" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93" s="35"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:8" ht="54" customHeight="1">
       <c r="B94" s="35" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F94" s="35" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
+        <v>1055</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H94" s="35" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="54" customHeight="1">
       <c r="C95" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F95" s="35" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
+        <v>1056</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H95" s="35" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
       <c r="B96" s="35"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:8" ht="54.75" customHeight="1">
       <c r="B97" s="35" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F97" s="35" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H97" s="35" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="54.75" customHeight="1">
       <c r="B98" s="35"/>
       <c r="C98" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F98" s="35" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>1056</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H98" s="35" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="B99" s="35"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:8" ht="57" customHeight="1">
       <c r="B100" s="35" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="57" customHeight="1">
       <c r="B101" s="35"/>
       <c r="C101" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="F101" s="35" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>1056</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H101" s="35" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="B102" s="35"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:8" ht="52.5" customHeight="1">
       <c r="B103" s="35" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H103" s="35" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="52.5" customHeight="1">
       <c r="B104" s="35"/>
       <c r="C104" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>1056</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H104" s="35" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="54.75" customHeight="1">
       <c r="B106" s="35" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="54.75" customHeight="1">
       <c r="B107" s="35"/>
       <c r="C107" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>1056</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G107" s="33" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H107" s="35" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="B108" s="35"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:8" ht="52.5" customHeight="1">
       <c r="B109" s="35" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>1055</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="52.5" customHeight="1">
       <c r="B110" s="35"/>
       <c r="C110" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="F110" s="35" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H110" s="35" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:8">
       <c r="A111" s="33" t="s">
-        <v>857</v>
+        <v>1079</v>
       </c>
       <c r="B111" s="35"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:8">
       <c r="B112" s="34" t="s">
-        <v>856</v>
+        <v>1080</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>855</v>
+        <v>1081</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>1004</v>
+        <v>1082</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
+        <v>1052</v>
+      </c>
+      <c r="F112" s="88" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G112" s="88"/>
+      <c r="H112" s="34" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="51.75" customHeight="1">
       <c r="B113" s="35" t="s">
-        <v>29</v>
+        <v>1084</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
+        <v>841</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H113" s="33" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="51.75" customHeight="1">
       <c r="C114" s="33" t="s">
-        <v>851</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
+        <v>840</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H114" s="35" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="51.75" customHeight="1">
       <c r="C115" s="33" t="s">
-        <v>849</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
+        <v>839</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H115" s="33" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="51.75" customHeight="1">
       <c r="C116" s="33" t="s">
-        <v>847</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" ht="17.25">
+        <v>838</v>
+      </c>
+      <c r="F116" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H116" s="33" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="51.75" customHeight="1">
       <c r="C117" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E117" s="33" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="17.25">
+      <c r="D117" s="14"/>
+      <c r="F117" s="33" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H117" s="33" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="51.75" customHeight="1">
       <c r="C118" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E118" s="33" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="35"/>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="35" t="s">
-        <v>23</v>
-      </c>
+      <c r="D118" s="14"/>
+      <c r="F118" s="33" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H118" s="33" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="35"/>
+    </row>
+    <row r="120" spans="2:8" ht="54" customHeight="1">
+      <c r="B120" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H120" s="33" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="54" customHeight="1">
       <c r="C121" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
+        <v>836</v>
+      </c>
+      <c r="F121" s="33" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H121" s="33" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="54" customHeight="1">
+      <c r="B122" s="35"/>
       <c r="C122" s="33" t="s">
-        <v>841</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
+        <v>835</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H122" s="33" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="54" customHeight="1">
       <c r="B123" s="35"/>
       <c r="C123" s="33" t="s">
-        <v>839</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="35"/>
+        <v>834</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H123" s="33" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="58.5" customHeight="1">
+      <c r="B124" s="35" t="s">
+        <v>1096</v>
+      </c>
       <c r="C124" s="33" t="s">
-        <v>837</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
+        <v>1098</v>
+      </c>
+      <c r="F124" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H124" s="33" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
       <c r="B125" s="35"/>
     </row>
-    <row r="126" spans="2:5">
+    <row r="126" spans="2:8">
       <c r="B126" s="35"/>
     </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="33" t="s">
-        <v>835</v>
-      </c>
-      <c r="E127" s="33" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
+    <row r="127" spans="2:8">
+      <c r="B127" s="35"/>
+    </row>
+    <row r="128" spans="2:8">
       <c r="B128" s="35"/>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="35"/>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="35"/>
-    </row>
     <row r="131" spans="2:2">
       <c r="B131" s="35"/>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="35"/>
     </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="35"/>
+    </row>
     <row r="134" spans="2:2">
       <c r="B134" s="35"/>
     </row>
@@ -18572,18 +22872,13 @@
     <row r="141" spans="2:2">
       <c r="B141" s="35"/>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="35"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="35"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="35"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F112:G112"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gd/Demo/副本设计v0.4.xlsx
+++ b/gd/Demo/副本设计v0.4.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\Demo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8535" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="通用技能说明" sheetId="6" r:id="rId5"/>
     <sheet name="Icon需求列表" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1184">
   <si>
     <t>月光森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4456,12 +4451,16 @@
     <t>驱散己方全员妨害buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>metalp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6002,7 +6001,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6022,7 +6021,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8310,26 +8309,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="16" t="s">
         <v>300</v>
       </c>
@@ -8344,7 +8343,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -8355,7 +8354,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="17.25">
       <c r="A3" s="16" t="s">
         <v>301</v>
       </c>
@@ -8370,7 +8369,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
@@ -8381,7 +8380,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="16" t="s">
         <v>302</v>
       </c>
@@ -8396,7 +8395,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -8407,7 +8406,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="16" t="s">
         <v>304</v>
       </c>
@@ -8422,7 +8421,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
@@ -8433,7 +8432,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -8444,7 +8443,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1">
       <c r="A10" s="16" t="s">
         <v>305</v>
       </c>
@@ -8457,7 +8456,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="17.25" thickTop="1">
       <c r="A11" s="16"/>
       <c r="B11" s="76" t="s">
         <v>305</v>
@@ -8472,7 +8471,7 @@
       <c r="H11" s="79"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="16"/>
       <c r="B12" s="22" t="s">
         <v>307</v>
@@ -8485,7 +8484,7 @@
       <c r="H12" s="73"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="16"/>
       <c r="B13" s="22" t="s">
         <v>308</v>
@@ -8498,7 +8497,7 @@
       <c r="H13" s="82"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="16"/>
       <c r="B14" s="22" t="s">
         <v>309</v>
@@ -8511,7 +8510,7 @@
       <c r="H14" s="85"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="16"/>
       <c r="B15" s="22" t="s">
         <v>310</v>
@@ -8524,7 +8523,7 @@
       <c r="H15" s="73"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="16"/>
       <c r="B16" s="22" t="s">
         <v>311</v>
@@ -8539,7 +8538,7 @@
       <c r="H16" s="73"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="16"/>
       <c r="B17" s="22" t="s">
         <v>312</v>
@@ -8552,7 +8551,7 @@
       <c r="H17" s="73"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="17.25" thickBot="1">
       <c r="A18" s="16"/>
       <c r="B18" s="25" t="s">
         <v>313</v>
@@ -8565,7 +8564,7 @@
       <c r="H18" s="75"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="17.25" thickTop="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -8576,7 +8575,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="16" t="s">
         <v>314</v>
       </c>
@@ -8601,7 +8600,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="B21" s="27" t="s">
         <v>326</v>
       </c>
@@ -8634,14 +8633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="12.375" style="2" bestFit="1" customWidth="1"/>
@@ -8649,27 +8648,27 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="B3" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="D6" s="3" t="s">
         <v>168</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="D8" s="3" t="s">
         <v>169</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="D10" s="3"/>
       <c r="E10" s="34" t="s">
         <v>559</v>
@@ -8736,7 +8735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="D11" s="5" t="s">
         <v>558</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="D15" s="5" t="s">
         <v>4</v>
       </c>
@@ -8886,25 +8885,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12">
       <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12">
       <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12">
       <c r="D19" s="5"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12">
       <c r="C20" s="2" t="s">
         <v>176</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12">
       <c r="D21" s="3" t="s">
         <v>168</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12">
       <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12">
       <c r="D23" s="3" t="s">
         <v>169</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12">
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12">
       <c r="D25" s="6"/>
       <c r="E25" s="34" t="s">
         <v>559</v>
@@ -8971,7 +8970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12">
       <c r="D26" s="5" t="s">
         <v>177</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12">
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12">
       <c r="D28" s="5" t="s">
         <v>6</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12">
       <c r="D29" s="5" t="s">
         <v>7</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12">
       <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
@@ -9121,20 +9120,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12">
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12">
       <c r="D32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="D33" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6">
       <c r="B36" s="34" t="s">
         <v>479</v>
       </c>
@@ -9143,12 +9142,12 @@
       </c>
       <c r="F36" s="33"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6">
       <c r="C38" s="33" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6">
       <c r="C39" s="33" t="s">
         <v>462</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6">
       <c r="C40" s="33" t="s">
         <v>463</v>
       </c>
@@ -9164,32 +9163,32 @@
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6">
       <c r="C41" s="33" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:6">
       <c r="C43" s="33" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:6">
       <c r="C44" s="33" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6">
       <c r="C45" s="33" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:6">
       <c r="C46" s="33" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:6">
       <c r="C47" s="33" t="s">
         <v>476</v>
       </c>
@@ -9202,19 +9201,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" s="15" customFormat="1">
       <c r="B1" s="13" t="s">
         <v>291</v>
       </c>
@@ -9231,7 +9230,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" s="15" customFormat="1">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
         <v>292</v>
@@ -9248,7 +9247,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" s="15" customFormat="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
@@ -9265,7 +9264,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" s="15" customFormat="1">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
@@ -9282,7 +9281,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" s="15" customFormat="1">
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
         <v>293</v>
@@ -9299,7 +9298,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" s="15" customFormat="1">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
@@ -9316,7 +9315,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" s="15" customFormat="1">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
@@ -9333,7 +9332,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" s="15" customFormat="1">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
@@ -9350,7 +9349,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" s="15" customFormat="1">
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
         <v>294</v>
@@ -9367,7 +9366,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" s="15" customFormat="1">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
@@ -9384,7 +9383,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" s="15" customFormat="1">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
@@ -9401,7 +9400,7 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" s="15" customFormat="1">
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
         <v>297</v>
@@ -9418,7 +9417,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" s="15" customFormat="1">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
@@ -9435,7 +9434,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" s="15" customFormat="1">
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
         <v>328</v>
@@ -9452,7 +9451,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" s="15" customFormat="1">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
@@ -9471,7 +9470,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" s="15" customFormat="1">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
@@ -9490,7 +9489,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
         <v>289</v>
@@ -9507,7 +9506,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="2:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" s="15" customFormat="1">
       <c r="B18" s="35"/>
       <c r="C18" s="35" t="s">
         <v>356</v>
@@ -9526,7 +9525,7 @@
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="2:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" s="15" customFormat="1">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -9543,7 +9542,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="B20" s="35" t="s">
         <v>15</v>
       </c>
@@ -9566,7 +9565,7 @@
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="35"/>
       <c r="C21" s="30" t="s">
         <v>35</v>
@@ -9587,7 +9586,7 @@
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="B22" s="35"/>
       <c r="C22" s="30" t="s">
         <v>37</v>
@@ -9608,7 +9607,7 @@
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" s="35"/>
       <c r="C23" s="30" t="s">
         <v>60</v>
@@ -9629,7 +9628,7 @@
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="B24" s="35"/>
       <c r="C24" s="30" t="s">
         <v>48</v>
@@ -9650,7 +9649,7 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="B25" s="35"/>
       <c r="C25" s="30"/>
       <c r="D25" s="35"/>
@@ -9667,7 +9666,7 @@
       <c r="O25" s="35"/>
       <c r="P25" s="35"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="B26" s="35"/>
       <c r="C26" s="30" t="s">
         <v>39</v>
@@ -9688,7 +9687,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="35"/>
       <c r="C27" s="30" t="s">
         <v>40</v>
@@ -9709,7 +9708,7 @@
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:16">
       <c r="B28" s="35"/>
       <c r="C28" s="30" t="s">
         <v>43</v>
@@ -9730,7 +9729,7 @@
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="35"/>
       <c r="C29" s="30" t="s">
         <v>45</v>
@@ -9751,7 +9750,7 @@
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="35"/>
       <c r="C30" s="30" t="s">
         <v>46</v>
@@ -9772,7 +9771,7 @@
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -9789,7 +9788,7 @@
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -9806,7 +9805,7 @@
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33" s="35" t="s">
         <v>50</v>
       </c>
@@ -9829,7 +9828,7 @@
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="B34" s="35"/>
       <c r="C34" s="30" t="s">
         <v>35</v>
@@ -9850,7 +9849,7 @@
       <c r="O34" s="35"/>
       <c r="P34" s="35"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16">
       <c r="B35" s="35"/>
       <c r="C35" s="30" t="s">
         <v>37</v>
@@ -9871,7 +9870,7 @@
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="B36" s="35"/>
       <c r="C36" s="30" t="s">
         <v>60</v>
@@ -9892,7 +9891,7 @@
       <c r="O36" s="35"/>
       <c r="P36" s="35"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16">
       <c r="B37" s="35"/>
       <c r="C37" s="30" t="s">
         <v>48</v>
@@ -9913,7 +9912,7 @@
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16">
       <c r="B38" s="35"/>
       <c r="C38" s="30"/>
       <c r="D38" s="35"/>
@@ -9930,7 +9929,7 @@
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16">
       <c r="B39" s="35"/>
       <c r="C39" s="30" t="s">
         <v>39</v>
@@ -9951,7 +9950,7 @@
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16">
       <c r="B40" s="35"/>
       <c r="C40" s="30" t="s">
         <v>40</v>
@@ -9972,7 +9971,7 @@
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:16">
       <c r="B41" s="35"/>
       <c r="C41" s="30" t="s">
         <v>43</v>
@@ -9993,7 +9992,7 @@
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16">
       <c r="B42" s="35"/>
       <c r="C42" s="30" t="s">
         <v>45</v>
@@ -10014,7 +10013,7 @@
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:16">
       <c r="B43" s="35"/>
       <c r="C43" s="30" t="s">
         <v>46</v>
@@ -10035,7 +10034,7 @@
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:16">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -10052,7 +10051,7 @@
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
     </row>
-    <row r="45" spans="2:16" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:16" s="15" customFormat="1">
       <c r="B45" s="35" t="s">
         <v>27</v>
       </c>
@@ -10075,7 +10074,7 @@
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:16">
       <c r="B46" s="35"/>
       <c r="C46" s="30" t="s">
         <v>35</v>
@@ -10096,7 +10095,7 @@
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:16">
       <c r="B47" s="35"/>
       <c r="C47" s="30" t="s">
         <v>37</v>
@@ -10117,7 +10116,7 @@
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16">
       <c r="B48" s="35"/>
       <c r="C48" s="30" t="s">
         <v>60</v>
@@ -10138,7 +10137,7 @@
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:16">
       <c r="B49" s="35"/>
       <c r="C49" s="30" t="s">
         <v>48</v>
@@ -10159,7 +10158,7 @@
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:16">
       <c r="B50" s="35"/>
       <c r="C50" s="30"/>
       <c r="D50" s="35"/>
@@ -10176,7 +10175,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:16">
       <c r="B51" s="35"/>
       <c r="C51" s="30" t="s">
         <v>39</v>
@@ -10197,7 +10196,7 @@
       <c r="O51" s="35"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:16">
       <c r="B52" s="35"/>
       <c r="C52" s="30" t="s">
         <v>40</v>
@@ -10218,7 +10217,7 @@
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:16">
       <c r="B53" s="35"/>
       <c r="C53" s="30" t="s">
         <v>43</v>
@@ -10239,7 +10238,7 @@
       <c r="O53" s="35"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:16">
       <c r="B54" s="35"/>
       <c r="C54" s="30" t="s">
         <v>45</v>
@@ -10260,7 +10259,7 @@
       <c r="O54" s="35"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:16">
       <c r="B55" s="35"/>
       <c r="C55" s="30" t="s">
         <v>46</v>
@@ -10281,7 +10280,7 @@
       <c r="O55" s="35"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:16">
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
@@ -10298,7 +10297,7 @@
       <c r="O56" s="35"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:16">
       <c r="B57" s="35" t="s">
         <v>21</v>
       </c>
@@ -10321,7 +10320,7 @@
       <c r="O57" s="35"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:16">
       <c r="B58" s="35"/>
       <c r="C58" s="30" t="s">
         <v>35</v>
@@ -10342,7 +10341,7 @@
       <c r="O58" s="35"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:16">
       <c r="B59" s="35"/>
       <c r="C59" s="30" t="s">
         <v>37</v>
@@ -10363,7 +10362,7 @@
       <c r="O59" s="35"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:16">
       <c r="B60" s="35"/>
       <c r="C60" s="30" t="s">
         <v>63</v>
@@ -10384,7 +10383,7 @@
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:16">
       <c r="B61" s="35"/>
       <c r="C61" s="30" t="s">
         <v>48</v>
@@ -10405,7 +10404,7 @@
       <c r="O61" s="35"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:16">
       <c r="B62" s="35"/>
       <c r="C62" s="30"/>
       <c r="D62" s="35"/>
@@ -10422,7 +10421,7 @@
       <c r="O62" s="35"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:16">
       <c r="B63" s="35"/>
       <c r="C63" s="30" t="s">
         <v>39</v>
@@ -10443,7 +10442,7 @@
       <c r="O63" s="35"/>
       <c r="P63" s="35"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:16">
       <c r="B64" s="35"/>
       <c r="C64" s="30" t="s">
         <v>40</v>
@@ -10464,7 +10463,7 @@
       <c r="O64" s="35"/>
       <c r="P64" s="35"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:16">
       <c r="B65" s="35"/>
       <c r="C65" s="30" t="s">
         <v>43</v>
@@ -10485,7 +10484,7 @@
       <c r="O65" s="35"/>
       <c r="P65" s="35"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:16">
       <c r="B66" s="35"/>
       <c r="C66" s="30" t="s">
         <v>45</v>
@@ -10506,7 +10505,7 @@
       <c r="O66" s="35"/>
       <c r="P66" s="35"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:16">
       <c r="B67" s="35"/>
       <c r="C67" s="30" t="s">
         <v>46</v>
@@ -10527,7 +10526,7 @@
       <c r="O67" s="35"/>
       <c r="P67" s="35"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:16">
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
@@ -10544,7 +10543,7 @@
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:16">
       <c r="B69" s="35" t="s">
         <v>13</v>
       </c>
@@ -10567,7 +10566,7 @@
       <c r="O69" s="35"/>
       <c r="P69" s="35"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:16">
       <c r="B70" s="35"/>
       <c r="C70" s="30" t="s">
         <v>35</v>
@@ -10588,7 +10587,7 @@
       <c r="O70" s="35"/>
       <c r="P70" s="35"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:16">
       <c r="B71" s="35"/>
       <c r="C71" s="30" t="s">
         <v>37</v>
@@ -10609,7 +10608,7 @@
       <c r="O71" s="35"/>
       <c r="P71" s="35"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:16">
       <c r="B72" s="35"/>
       <c r="C72" s="30" t="s">
         <v>63</v>
@@ -10630,7 +10629,7 @@
       <c r="O72" s="35"/>
       <c r="P72" s="35"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:16">
       <c r="B73" s="35"/>
       <c r="C73" s="30" t="s">
         <v>48</v>
@@ -10651,7 +10650,7 @@
       <c r="O73" s="35"/>
       <c r="P73" s="35"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:16">
       <c r="B74" s="35"/>
       <c r="C74" s="30"/>
       <c r="D74" s="35"/>
@@ -10668,7 +10667,7 @@
       <c r="O74" s="35"/>
       <c r="P74" s="35"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:16">
       <c r="B75" s="35"/>
       <c r="C75" s="30" t="s">
         <v>39</v>
@@ -10689,7 +10688,7 @@
       <c r="O75" s="35"/>
       <c r="P75" s="35"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:16">
       <c r="B76" s="35"/>
       <c r="C76" s="30" t="s">
         <v>40</v>
@@ -10710,7 +10709,7 @@
       <c r="O76" s="35"/>
       <c r="P76" s="35"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:16">
       <c r="B77" s="35"/>
       <c r="C77" s="30" t="s">
         <v>43</v>
@@ -10731,7 +10730,7 @@
       <c r="O77" s="35"/>
       <c r="P77" s="35"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:16">
       <c r="B78" s="35"/>
       <c r="C78" s="30" t="s">
         <v>45</v>
@@ -10752,7 +10751,7 @@
       <c r="O78" s="35"/>
       <c r="P78" s="35"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:16">
       <c r="B79" s="35"/>
       <c r="C79" s="30" t="s">
         <v>46</v>
@@ -10773,7 +10772,7 @@
       <c r="O79" s="35"/>
       <c r="P79" s="35"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:16">
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
@@ -10790,7 +10789,7 @@
       <c r="O80" s="35"/>
       <c r="P80" s="35"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:16">
       <c r="B81" s="35" t="s">
         <v>25</v>
       </c>
@@ -10813,7 +10812,7 @@
       <c r="O81" s="35"/>
       <c r="P81" s="35"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:16">
       <c r="B82" s="35"/>
       <c r="C82" s="30" t="s">
         <v>35</v>
@@ -10834,7 +10833,7 @@
       <c r="O82" s="35"/>
       <c r="P82" s="35"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:16">
       <c r="B83" s="35"/>
       <c r="C83" s="30" t="s">
         <v>37</v>
@@ -10855,7 +10854,7 @@
       <c r="O83" s="35"/>
       <c r="P83" s="35"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:16">
       <c r="B84" s="35"/>
       <c r="C84" s="30" t="s">
         <v>63</v>
@@ -10876,7 +10875,7 @@
       <c r="O84" s="35"/>
       <c r="P84" s="35"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:16">
       <c r="B85" s="35"/>
       <c r="C85" s="30" t="s">
         <v>48</v>
@@ -10897,7 +10896,7 @@
       <c r="O85" s="35"/>
       <c r="P85" s="35"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:16">
       <c r="B86" s="35"/>
       <c r="C86" s="30"/>
       <c r="D86" s="35"/>
@@ -10914,7 +10913,7 @@
       <c r="O86" s="35"/>
       <c r="P86" s="35"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:16">
       <c r="B87" s="35"/>
       <c r="C87" s="30" t="s">
         <v>39</v>
@@ -10935,7 +10934,7 @@
       <c r="O87" s="35"/>
       <c r="P87" s="35"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:16">
       <c r="B88" s="35"/>
       <c r="C88" s="30" t="s">
         <v>40</v>
@@ -10956,7 +10955,7 @@
       <c r="O88" s="35"/>
       <c r="P88" s="35"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:16">
       <c r="B89" s="35"/>
       <c r="C89" s="30" t="s">
         <v>43</v>
@@ -10977,7 +10976,7 @@
       <c r="O89" s="35"/>
       <c r="P89" s="35"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:16">
       <c r="B90" s="35"/>
       <c r="C90" s="30" t="s">
         <v>45</v>
@@ -10998,7 +10997,7 @@
       <c r="O90" s="35"/>
       <c r="P90" s="35"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:16">
       <c r="B91" s="35"/>
       <c r="C91" s="30" t="s">
         <v>46</v>
@@ -11019,7 +11018,7 @@
       <c r="O91" s="35"/>
       <c r="P91" s="35"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:16">
       <c r="B92" s="35"/>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
@@ -11036,7 +11035,7 @@
       <c r="O92" s="35"/>
       <c r="P92" s="35"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:16">
       <c r="B93" s="35" t="s">
         <v>68</v>
       </c>
@@ -11059,7 +11058,7 @@
       <c r="O93" s="35"/>
       <c r="P93" s="35"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:16">
       <c r="B94" s="35"/>
       <c r="C94" s="30" t="s">
         <v>35</v>
@@ -11080,7 +11079,7 @@
       <c r="O94" s="35"/>
       <c r="P94" s="35"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:16">
       <c r="B95" s="35"/>
       <c r="C95" s="30" t="s">
         <v>37</v>
@@ -11101,7 +11100,7 @@
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:16">
       <c r="B96" s="35"/>
       <c r="C96" s="30" t="s">
         <v>63</v>
@@ -11122,7 +11121,7 @@
       <c r="O96" s="35"/>
       <c r="P96" s="35"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:16">
       <c r="B97" s="35"/>
       <c r="C97" s="30" t="s">
         <v>48</v>
@@ -11143,7 +11142,7 @@
       <c r="O97" s="35"/>
       <c r="P97" s="35"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:16">
       <c r="B98" s="35"/>
       <c r="C98" s="30"/>
       <c r="D98" s="35"/>
@@ -11160,7 +11159,7 @@
       <c r="O98" s="35"/>
       <c r="P98" s="35"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:16">
       <c r="B99" s="35"/>
       <c r="C99" s="30" t="s">
         <v>39</v>
@@ -11181,7 +11180,7 @@
       <c r="O99" s="35"/>
       <c r="P99" s="35"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:16">
       <c r="B100" s="35"/>
       <c r="C100" s="30" t="s">
         <v>40</v>
@@ -11202,7 +11201,7 @@
       <c r="O100" s="35"/>
       <c r="P100" s="35"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:16">
       <c r="B101" s="35"/>
       <c r="C101" s="30" t="s">
         <v>43</v>
@@ -11223,7 +11222,7 @@
       <c r="O101" s="35"/>
       <c r="P101" s="35"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:16">
       <c r="B102" s="35"/>
       <c r="C102" s="30" t="s">
         <v>45</v>
@@ -11244,7 +11243,7 @@
       <c r="O102" s="35"/>
       <c r="P102" s="35"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:16">
       <c r="B103" s="35"/>
       <c r="C103" s="30" t="s">
         <v>46</v>
@@ -11265,7 +11264,7 @@
       <c r="O103" s="35"/>
       <c r="P103" s="35"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:16">
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
@@ -11282,7 +11281,7 @@
       <c r="O104" s="35"/>
       <c r="P104" s="35"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:16">
       <c r="B105" s="35" t="s">
         <v>17</v>
       </c>
@@ -11305,7 +11304,7 @@
       <c r="O105" s="35"/>
       <c r="P105" s="35"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:16">
       <c r="B106" s="35"/>
       <c r="C106" s="30" t="s">
         <v>35</v>
@@ -11326,7 +11325,7 @@
       <c r="O106" s="35"/>
       <c r="P106" s="35"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:16">
       <c r="B107" s="35"/>
       <c r="C107" s="30" t="s">
         <v>37</v>
@@ -11347,7 +11346,7 @@
       <c r="O107" s="35"/>
       <c r="P107" s="35"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:16">
       <c r="B108" s="35"/>
       <c r="C108" s="30" t="s">
         <v>63</v>
@@ -11368,7 +11367,7 @@
       <c r="O108" s="35"/>
       <c r="P108" s="35"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:16">
       <c r="B109" s="35"/>
       <c r="C109" s="30" t="s">
         <v>48</v>
@@ -11389,7 +11388,7 @@
       <c r="O109" s="35"/>
       <c r="P109" s="35"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:16">
       <c r="B110" s="35"/>
       <c r="C110" s="30"/>
       <c r="D110" s="35"/>
@@ -11406,7 +11405,7 @@
       <c r="O110" s="35"/>
       <c r="P110" s="35"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:16">
       <c r="B111" s="35"/>
       <c r="C111" s="30" t="s">
         <v>39</v>
@@ -11427,7 +11426,7 @@
       <c r="O111" s="35"/>
       <c r="P111" s="35"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:16">
       <c r="B112" s="35"/>
       <c r="C112" s="30" t="s">
         <v>40</v>
@@ -11448,7 +11447,7 @@
       <c r="O112" s="35"/>
       <c r="P112" s="35"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:16">
       <c r="B113" s="35"/>
       <c r="C113" s="30" t="s">
         <v>43</v>
@@ -11469,7 +11468,7 @@
       <c r="O113" s="35"/>
       <c r="P113" s="35"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:16">
       <c r="B114" s="35"/>
       <c r="C114" s="30" t="s">
         <v>45</v>
@@ -11490,7 +11489,7 @@
       <c r="O114" s="35"/>
       <c r="P114" s="35"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:16">
       <c r="B115" s="35"/>
       <c r="C115" s="30" t="s">
         <v>46</v>
@@ -11511,7 +11510,7 @@
       <c r="O115" s="35"/>
       <c r="P115" s="35"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:16">
       <c r="B116" s="35"/>
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
@@ -11528,7 +11527,7 @@
       <c r="O116" s="35"/>
       <c r="P116" s="35"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:16">
       <c r="B117" s="35" t="s">
         <v>76</v>
       </c>
@@ -11551,7 +11550,7 @@
       <c r="O117" s="35"/>
       <c r="P117" s="35"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:16">
       <c r="B118" s="35"/>
       <c r="C118" s="30" t="s">
         <v>35</v>
@@ -11572,7 +11571,7 @@
       <c r="O118" s="35"/>
       <c r="P118" s="35"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:16">
       <c r="B119" s="35"/>
       <c r="C119" s="30" t="s">
         <v>37</v>
@@ -11593,7 +11592,7 @@
       <c r="O119" s="35"/>
       <c r="P119" s="35"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:16">
       <c r="B120" s="35"/>
       <c r="C120" s="30" t="s">
         <v>63</v>
@@ -11614,7 +11613,7 @@
       <c r="O120" s="35"/>
       <c r="P120" s="35"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:16">
       <c r="B121" s="35"/>
       <c r="C121" s="30" t="s">
         <v>48</v>
@@ -11635,7 +11634,7 @@
       <c r="O121" s="35"/>
       <c r="P121" s="35"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:16">
       <c r="B122" s="35"/>
       <c r="C122" s="30"/>
       <c r="D122" s="35"/>
@@ -11652,7 +11651,7 @@
       <c r="O122" s="35"/>
       <c r="P122" s="35"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:16">
       <c r="B123" s="35"/>
       <c r="C123" s="30" t="s">
         <v>39</v>
@@ -11673,7 +11672,7 @@
       <c r="O123" s="35"/>
       <c r="P123" s="35"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:16">
       <c r="B124" s="35"/>
       <c r="C124" s="30" t="s">
         <v>40</v>
@@ -11694,7 +11693,7 @@
       <c r="O124" s="35"/>
       <c r="P124" s="35"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:16">
       <c r="B125" s="35"/>
       <c r="C125" s="30" t="s">
         <v>43</v>
@@ -11715,7 +11714,7 @@
       <c r="O125" s="35"/>
       <c r="P125" s="35"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:16">
       <c r="B126" s="35"/>
       <c r="C126" s="30" t="s">
         <v>45</v>
@@ -11736,7 +11735,7 @@
       <c r="O126" s="35"/>
       <c r="P126" s="35"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:16">
       <c r="B127" s="35"/>
       <c r="C127" s="30" t="s">
         <v>46</v>
@@ -11757,7 +11756,7 @@
       <c r="O127" s="35"/>
       <c r="P127" s="35"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:16">
       <c r="B128" s="35"/>
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
@@ -11774,7 +11773,7 @@
       <c r="O128" s="35"/>
       <c r="P128" s="35"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:16">
       <c r="B129" s="35" t="s">
         <v>28</v>
       </c>
@@ -11797,7 +11796,7 @@
       <c r="O129" s="35"/>
       <c r="P129" s="35"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:16">
       <c r="B130" s="35"/>
       <c r="C130" s="30" t="s">
         <v>35</v>
@@ -11818,7 +11817,7 @@
       <c r="O130" s="35"/>
       <c r="P130" s="35"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:16">
       <c r="B131" s="35"/>
       <c r="C131" s="30" t="s">
         <v>37</v>
@@ -11839,7 +11838,7 @@
       <c r="O131" s="35"/>
       <c r="P131" s="35"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:16">
       <c r="B132" s="35"/>
       <c r="C132" s="30" t="s">
         <v>63</v>
@@ -11860,7 +11859,7 @@
       <c r="O132" s="35"/>
       <c r="P132" s="35"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:16">
       <c r="B133" s="35"/>
       <c r="C133" s="30" t="s">
         <v>48</v>
@@ -11881,7 +11880,7 @@
       <c r="O133" s="35"/>
       <c r="P133" s="35"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:16">
       <c r="B134" s="35"/>
       <c r="C134" s="30"/>
       <c r="D134" s="35"/>
@@ -11898,7 +11897,7 @@
       <c r="O134" s="35"/>
       <c r="P134" s="35"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:16">
       <c r="B135" s="35"/>
       <c r="C135" s="30" t="s">
         <v>39</v>
@@ -11919,7 +11918,7 @@
       <c r="O135" s="35"/>
       <c r="P135" s="35"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:16">
       <c r="B136" s="35"/>
       <c r="C136" s="30" t="s">
         <v>40</v>
@@ -11940,7 +11939,7 @@
       <c r="O136" s="35"/>
       <c r="P136" s="35"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:16">
       <c r="B137" s="35"/>
       <c r="C137" s="30" t="s">
         <v>43</v>
@@ -11961,7 +11960,7 @@
       <c r="O137" s="35"/>
       <c r="P137" s="35"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:16">
       <c r="B138" s="35"/>
       <c r="C138" s="30" t="s">
         <v>45</v>
@@ -11982,7 +11981,7 @@
       <c r="O138" s="35"/>
       <c r="P138" s="35"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:16">
       <c r="B139" s="35"/>
       <c r="C139" s="30" t="s">
         <v>46</v>
@@ -12003,7 +12002,7 @@
       <c r="O139" s="35"/>
       <c r="P139" s="35"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:16">
       <c r="B140" s="35"/>
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
@@ -12020,7 +12019,7 @@
       <c r="O140" s="35"/>
       <c r="P140" s="35"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:16">
       <c r="B141" s="35" t="s">
         <v>26</v>
       </c>
@@ -12043,7 +12042,7 @@
       <c r="O141" s="35"/>
       <c r="P141" s="35"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:16">
       <c r="B142" s="35"/>
       <c r="C142" s="30" t="s">
         <v>35</v>
@@ -12064,7 +12063,7 @@
       <c r="O142" s="35"/>
       <c r="P142" s="35"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:16">
       <c r="B143" s="35"/>
       <c r="C143" s="30" t="s">
         <v>37</v>
@@ -12085,7 +12084,7 @@
       <c r="O143" s="35"/>
       <c r="P143" s="35"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:16">
       <c r="B144" s="35"/>
       <c r="C144" s="30" t="s">
         <v>63</v>
@@ -12106,7 +12105,7 @@
       <c r="O144" s="35"/>
       <c r="P144" s="35"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:16">
       <c r="B145" s="35"/>
       <c r="C145" s="30" t="s">
         <v>48</v>
@@ -12127,7 +12126,7 @@
       <c r="O145" s="35"/>
       <c r="P145" s="35"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:16">
       <c r="B146" s="35"/>
       <c r="C146" s="30"/>
       <c r="D146" s="35"/>
@@ -12144,7 +12143,7 @@
       <c r="O146" s="35"/>
       <c r="P146" s="35"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:16">
       <c r="B147" s="35"/>
       <c r="C147" s="30" t="s">
         <v>39</v>
@@ -12165,7 +12164,7 @@
       <c r="O147" s="35"/>
       <c r="P147" s="35"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:16">
       <c r="B148" s="35"/>
       <c r="C148" s="30" t="s">
         <v>40</v>
@@ -12186,7 +12185,7 @@
       <c r="O148" s="35"/>
       <c r="P148" s="35"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:16">
       <c r="B149" s="35"/>
       <c r="C149" s="30" t="s">
         <v>43</v>
@@ -12207,7 +12206,7 @@
       <c r="O149" s="35"/>
       <c r="P149" s="35"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:16">
       <c r="B150" s="35"/>
       <c r="C150" s="30" t="s">
         <v>45</v>
@@ -12228,7 +12227,7 @@
       <c r="O150" s="35"/>
       <c r="P150" s="35"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:16">
       <c r="B151" s="35"/>
       <c r="C151" s="30" t="s">
         <v>46</v>
@@ -12249,7 +12248,7 @@
       <c r="O151" s="35"/>
       <c r="P151" s="35"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:16">
       <c r="B152" s="35"/>
       <c r="C152" s="35"/>
       <c r="D152" s="35"/>
@@ -12266,7 +12265,7 @@
       <c r="O152" s="35"/>
       <c r="P152" s="35"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:16">
       <c r="B153" s="35"/>
       <c r="C153" s="35"/>
       <c r="D153" s="35"/>
@@ -12283,7 +12282,7 @@
       <c r="O153" s="35"/>
       <c r="P153" s="35"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:16">
       <c r="B154" s="35" t="s">
         <v>22</v>
       </c>
@@ -12306,7 +12305,7 @@
       <c r="O154" s="35"/>
       <c r="P154" s="35"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:16">
       <c r="B155" s="35"/>
       <c r="C155" s="30" t="s">
         <v>35</v>
@@ -12327,7 +12326,7 @@
       <c r="O155" s="35"/>
       <c r="P155" s="35"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:16">
       <c r="B156" s="35"/>
       <c r="C156" s="30" t="s">
         <v>37</v>
@@ -12348,7 +12347,7 @@
       <c r="O156" s="35"/>
       <c r="P156" s="35"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:16">
       <c r="B157" s="35"/>
       <c r="C157" s="30" t="s">
         <v>63</v>
@@ -12369,7 +12368,7 @@
       <c r="O157" s="35"/>
       <c r="P157" s="35"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:16">
       <c r="B158" s="35"/>
       <c r="C158" s="30" t="s">
         <v>48</v>
@@ -12390,7 +12389,7 @@
       <c r="O158" s="35"/>
       <c r="P158" s="35"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:16">
       <c r="B159" s="35"/>
       <c r="C159" s="30"/>
       <c r="D159" s="35"/>
@@ -12407,7 +12406,7 @@
       <c r="O159" s="35"/>
       <c r="P159" s="35"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:16">
       <c r="B160" s="35"/>
       <c r="C160" s="30" t="s">
         <v>39</v>
@@ -12428,7 +12427,7 @@
       <c r="O160" s="35"/>
       <c r="P160" s="35"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:16">
       <c r="B161" s="35"/>
       <c r="C161" s="30" t="s">
         <v>40</v>
@@ -12449,7 +12448,7 @@
       <c r="O161" s="35"/>
       <c r="P161" s="35"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:16">
       <c r="B162" s="35"/>
       <c r="C162" s="30" t="s">
         <v>43</v>
@@ -12470,7 +12469,7 @@
       <c r="O162" s="35"/>
       <c r="P162" s="35"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:16">
       <c r="B163" s="35"/>
       <c r="C163" s="30" t="s">
         <v>87</v>
@@ -12491,7 +12490,7 @@
       <c r="O163" s="35"/>
       <c r="P163" s="35"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:16">
       <c r="B164" s="35"/>
       <c r="C164" s="30" t="s">
         <v>46</v>
@@ -12512,7 +12511,7 @@
       <c r="O164" s="35"/>
       <c r="P164" s="35"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:16">
       <c r="B165" s="35"/>
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
@@ -12529,7 +12528,7 @@
       <c r="O165" s="35"/>
       <c r="P165" s="35"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:16">
       <c r="B166" s="35" t="s">
         <v>86</v>
       </c>
@@ -12552,7 +12551,7 @@
       <c r="O166" s="35"/>
       <c r="P166" s="35"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:16">
       <c r="B167" s="35"/>
       <c r="C167" s="30" t="s">
         <v>35</v>
@@ -12573,7 +12572,7 @@
       <c r="O167" s="35"/>
       <c r="P167" s="35"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:16">
       <c r="B168" s="35"/>
       <c r="C168" s="30" t="s">
         <v>37</v>
@@ -12594,7 +12593,7 @@
       <c r="O168" s="35"/>
       <c r="P168" s="35"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:16">
       <c r="B169" s="35"/>
       <c r="C169" s="30" t="s">
         <v>63</v>
@@ -12615,7 +12614,7 @@
       <c r="O169" s="35"/>
       <c r="P169" s="35"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:16">
       <c r="B170" s="35"/>
       <c r="C170" s="30" t="s">
         <v>48</v>
@@ -12636,7 +12635,7 @@
       <c r="O170" s="35"/>
       <c r="P170" s="35"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:16">
       <c r="B171" s="35"/>
       <c r="C171" s="30"/>
       <c r="D171" s="35"/>
@@ -12653,7 +12652,7 @@
       <c r="O171" s="35"/>
       <c r="P171" s="35"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:16">
       <c r="B172" s="35"/>
       <c r="C172" s="30" t="s">
         <v>39</v>
@@ -12674,7 +12673,7 @@
       <c r="O172" s="35"/>
       <c r="P172" s="35"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:16">
       <c r="B173" s="35"/>
       <c r="C173" s="30" t="s">
         <v>40</v>
@@ -12695,7 +12694,7 @@
       <c r="O173" s="35"/>
       <c r="P173" s="35"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:16">
       <c r="B174" s="35"/>
       <c r="C174" s="30" t="s">
         <v>43</v>
@@ -12716,7 +12715,7 @@
       <c r="O174" s="35"/>
       <c r="P174" s="35"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:16">
       <c r="B175" s="35"/>
       <c r="C175" s="30" t="s">
         <v>87</v>
@@ -12737,7 +12736,7 @@
       <c r="O175" s="35"/>
       <c r="P175" s="35"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:16">
       <c r="B176" s="35"/>
       <c r="C176" s="30" t="s">
         <v>46</v>
@@ -12758,7 +12757,7 @@
       <c r="O176" s="35"/>
       <c r="P176" s="35"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:16">
       <c r="B177" s="35"/>
       <c r="C177" s="35"/>
       <c r="D177" s="35"/>
@@ -12775,7 +12774,7 @@
       <c r="O177" s="35"/>
       <c r="P177" s="35"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:16">
       <c r="B178" s="35" t="s">
         <v>92</v>
       </c>
@@ -12798,7 +12797,7 @@
       <c r="O178" s="35"/>
       <c r="P178" s="35"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:16">
       <c r="B179" s="35"/>
       <c r="C179" s="30" t="s">
         <v>35</v>
@@ -12819,7 +12818,7 @@
       <c r="O179" s="35"/>
       <c r="P179" s="35"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:16">
       <c r="B180" s="35"/>
       <c r="C180" s="30" t="s">
         <v>37</v>
@@ -12840,7 +12839,7 @@
       <c r="O180" s="35"/>
       <c r="P180" s="35"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:16">
       <c r="B181" s="35"/>
       <c r="C181" s="30" t="s">
         <v>63</v>
@@ -12861,7 +12860,7 @@
       <c r="O181" s="35"/>
       <c r="P181" s="35"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:16">
       <c r="B182" s="35"/>
       <c r="C182" s="30" t="s">
         <v>48</v>
@@ -12882,7 +12881,7 @@
       <c r="O182" s="35"/>
       <c r="P182" s="35"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:16">
       <c r="B183" s="35"/>
       <c r="C183" s="30"/>
       <c r="D183" s="35"/>
@@ -12899,7 +12898,7 @@
       <c r="O183" s="35"/>
       <c r="P183" s="35"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:16">
       <c r="B184" s="35"/>
       <c r="C184" s="30" t="s">
         <v>39</v>
@@ -12920,7 +12919,7 @@
       <c r="O184" s="35"/>
       <c r="P184" s="35"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:16">
       <c r="B185" s="35"/>
       <c r="C185" s="30" t="s">
         <v>40</v>
@@ -12941,7 +12940,7 @@
       <c r="O185" s="35"/>
       <c r="P185" s="35"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:16">
       <c r="B186" s="35"/>
       <c r="C186" s="30" t="s">
         <v>43</v>
@@ -12962,7 +12961,7 @@
       <c r="O186" s="35"/>
       <c r="P186" s="35"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:16">
       <c r="C187" s="3" t="s">
         <v>87</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:16">
       <c r="C188" s="3" t="s">
         <v>46</v>
       </c>
@@ -12978,16 +12977,16 @@
         <v>591</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:16">
       <c r="D191" s="33"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:16">
       <c r="D192" s="33"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="4:4">
       <c r="D193" s="33"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="194" spans="4:4">
       <c r="D194" s="33"/>
     </row>
   </sheetData>
@@ -12998,21 +12997,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q417"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="8.875" style="2"/>
     <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="11" customFormat="1">
       <c r="B1" s="13" t="s">
         <v>283</v>
       </c>
@@ -13031,7 +13030,7 @@
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="11" customFormat="1">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
         <v>284</v>
@@ -13050,7 +13049,7 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="11" customFormat="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
@@ -13069,7 +13068,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="11" customFormat="1">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
@@ -13088,7 +13087,7 @@
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="11" customFormat="1">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
@@ -13107,7 +13106,7 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="33" customFormat="1">
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35" t="s">
@@ -13126,7 +13125,7 @@
       <c r="O6" s="35"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="33" customFormat="1">
       <c r="A7" s="33" t="s">
         <v>467</v>
       </c>
@@ -13146,7 +13145,7 @@
       <c r="O7" s="35"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="33" customFormat="1">
       <c r="B8" s="35"/>
       <c r="C8" s="35" t="s">
         <v>570</v>
@@ -13167,7 +13166,7 @@
       <c r="O8" s="35"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="33" customFormat="1">
       <c r="B9" s="35"/>
       <c r="C9" s="35" t="s">
         <v>101</v>
@@ -13188,7 +13187,7 @@
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="33" customFormat="1">
       <c r="B10" s="35"/>
       <c r="C10" s="35" t="s">
         <v>118</v>
@@ -13209,7 +13208,7 @@
       <c r="O10" s="35"/>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="33" customFormat="1">
       <c r="B11" s="35"/>
       <c r="C11" s="35" t="s">
         <v>102</v>
@@ -13230,7 +13229,7 @@
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="33" customFormat="1">
       <c r="B12" s="35"/>
       <c r="C12" s="33" t="s">
         <v>104</v>
@@ -13251,7 +13250,7 @@
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="33" customFormat="1">
       <c r="C13" s="33" t="s">
         <v>116</v>
       </c>
@@ -13271,7 +13270,7 @@
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="11" customFormat="1">
       <c r="B14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -13286,7 +13285,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>120</v>
       </c>
@@ -13306,17 +13305,17 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="B16" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" s="8" customFormat="1">
       <c r="B18" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="C19" s="30" t="s">
         <v>338</v>
       </c>
@@ -13326,7 +13325,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="C20" s="30" t="s">
         <v>35</v>
       </c>
@@ -13336,7 +13335,7 @@
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="C24" s="30"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -13368,7 +13367,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
@@ -13382,7 +13381,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="C26" s="30" t="s">
         <v>40</v>
       </c>
@@ -13396,7 +13395,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
@@ -13410,7 +13409,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="C28" s="30" t="s">
         <v>87</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8">
       <c r="C29" s="30" t="s">
         <v>46</v>
       </c>
@@ -13438,7 +13437,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8">
       <c r="C30" s="30"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -13446,7 +13445,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8">
       <c r="C31" s="30" t="s">
         <v>97</v>
       </c>
@@ -13456,7 +13455,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8">
       <c r="C32" s="30"/>
       <c r="D32" s="13" t="s">
         <v>114</v>
@@ -13466,7 +13465,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="C33" s="30"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
@@ -13478,7 +13477,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="C34" s="30"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
@@ -13490,7 +13489,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16">
       <c r="C35" s="30"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
@@ -13502,7 +13501,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="C36" s="3"/>
       <c r="E36" s="2" t="s">
         <v>104</v>
@@ -13511,7 +13510,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16">
       <c r="C37" s="3"/>
       <c r="E37" s="2" t="s">
         <v>116</v>
@@ -13520,13 +13519,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16">
       <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16">
       <c r="C39" s="3"/>
       <c r="E39" s="2" t="s">
         <v>101</v>
@@ -13535,7 +13534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16">
       <c r="C40" s="3"/>
       <c r="E40" s="2" t="s">
         <v>118</v>
@@ -13544,7 +13543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:16">
       <c r="C41" s="3"/>
       <c r="E41" s="2" t="s">
         <v>102</v>
@@ -13553,7 +13552,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16">
       <c r="E42" s="2" t="s">
         <v>104</v>
       </c>
@@ -13561,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:16">
       <c r="E43" s="2" t="s">
         <v>116</v>
       </c>
@@ -13569,12 +13568,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="2:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:16" s="8" customFormat="1">
       <c r="B44" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:16" s="33" customFormat="1">
       <c r="C45" s="30" t="s">
         <v>290</v>
       </c>
@@ -13594,7 +13593,7 @@
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
     </row>
-    <row r="46" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:16" s="33" customFormat="1">
       <c r="B46" s="35"/>
       <c r="C46" s="30" t="s">
         <v>35</v>
@@ -13615,7 +13614,7 @@
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
     </row>
-    <row r="47" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:16" s="33" customFormat="1">
       <c r="B47" s="35"/>
       <c r="C47" s="30" t="s">
         <v>37</v>
@@ -13636,7 +13635,7 @@
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
     </row>
-    <row r="48" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16" s="33" customFormat="1">
       <c r="B48" s="35"/>
       <c r="C48" s="30" t="s">
         <v>60</v>
@@ -13657,7 +13656,7 @@
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
     </row>
-    <row r="49" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:16" s="33" customFormat="1">
       <c r="B49" s="35"/>
       <c r="C49" s="30" t="s">
         <v>48</v>
@@ -13678,7 +13677,7 @@
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:16" s="33" customFormat="1">
       <c r="B50" s="35"/>
       <c r="C50" s="30"/>
       <c r="D50" s="35"/>
@@ -13695,7 +13694,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
     </row>
-    <row r="51" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:16" s="33" customFormat="1">
       <c r="B51" s="35"/>
       <c r="C51" s="30" t="s">
         <v>39</v>
@@ -13718,7 +13717,7 @@
       <c r="O51" s="35"/>
       <c r="P51" s="35"/>
     </row>
-    <row r="52" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:16" s="33" customFormat="1">
       <c r="B52" s="35"/>
       <c r="C52" s="30" t="s">
         <v>40</v>
@@ -13741,7 +13740,7 @@
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
     </row>
-    <row r="53" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:16" s="33" customFormat="1">
       <c r="B53" s="35"/>
       <c r="C53" s="30" t="s">
         <v>43</v>
@@ -13764,7 +13763,7 @@
       <c r="O53" s="35"/>
       <c r="P53" s="35"/>
     </row>
-    <row r="54" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:16" s="33" customFormat="1">
       <c r="B54" s="35"/>
       <c r="C54" s="30" t="s">
         <v>45</v>
@@ -13787,7 +13786,7 @@
       <c r="O54" s="35"/>
       <c r="P54" s="35"/>
     </row>
-    <row r="55" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:16" s="33" customFormat="1">
       <c r="B55" s="35"/>
       <c r="C55" s="30" t="s">
         <v>46</v>
@@ -13810,7 +13809,7 @@
       <c r="O55" s="35"/>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:16" s="33" customFormat="1">
       <c r="B56" s="35"/>
       <c r="C56" s="30"/>
       <c r="D56" s="35"/>
@@ -13827,7 +13826,7 @@
       <c r="O56" s="35"/>
       <c r="P56" s="35"/>
     </row>
-    <row r="57" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:16" s="33" customFormat="1">
       <c r="B57" s="35"/>
       <c r="C57" s="30" t="s">
         <v>97</v>
@@ -13846,7 +13845,7 @@
       <c r="O57" s="35"/>
       <c r="P57" s="35"/>
     </row>
-    <row r="58" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:16" s="33" customFormat="1">
       <c r="B58" s="35"/>
       <c r="C58" s="30"/>
       <c r="D58" s="35" t="s">
@@ -13865,7 +13864,7 @@
       <c r="O58" s="35"/>
       <c r="P58" s="35"/>
     </row>
-    <row r="59" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:16" s="33" customFormat="1">
       <c r="B59" s="35"/>
       <c r="C59" s="30"/>
       <c r="D59" s="35"/>
@@ -13886,7 +13885,7 @@
       <c r="O59" s="35"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:16" s="33" customFormat="1">
       <c r="B60" s="35"/>
       <c r="C60" s="30"/>
       <c r="D60" s="35"/>
@@ -13907,7 +13906,7 @@
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:16" s="33" customFormat="1">
       <c r="B61" s="35"/>
       <c r="C61" s="30"/>
       <c r="D61" s="35"/>
@@ -13928,7 +13927,7 @@
       <c r="O61" s="35"/>
       <c r="P61" s="35"/>
     </row>
-    <row r="62" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:16" s="33" customFormat="1">
       <c r="B62" s="35"/>
       <c r="C62" s="34"/>
       <c r="E62" s="33" t="s">
@@ -13948,7 +13947,7 @@
       <c r="O62" s="35"/>
       <c r="P62" s="35"/>
     </row>
-    <row r="63" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:16" s="33" customFormat="1">
       <c r="B63" s="35"/>
       <c r="C63" s="34"/>
       <c r="E63" s="33" t="s">
@@ -13968,7 +13967,7 @@
       <c r="O63" s="35"/>
       <c r="P63" s="35"/>
     </row>
-    <row r="64" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:16" s="33" customFormat="1">
       <c r="B64" s="35"/>
       <c r="C64" s="34"/>
       <c r="D64" s="33" t="s">
@@ -13985,7 +13984,7 @@
       <c r="O64" s="35"/>
       <c r="P64" s="35"/>
     </row>
-    <row r="65" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:16" s="33" customFormat="1">
       <c r="B65" s="35"/>
       <c r="C65" s="34"/>
       <c r="E65" s="33" t="s">
@@ -14005,7 +14004,7 @@
       <c r="O65" s="35"/>
       <c r="P65" s="35"/>
     </row>
-    <row r="66" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:16" s="33" customFormat="1">
       <c r="B66" s="35"/>
       <c r="C66" s="34"/>
       <c r="E66" s="33" t="s">
@@ -14025,7 +14024,7 @@
       <c r="O66" s="35"/>
       <c r="P66" s="35"/>
     </row>
-    <row r="67" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:16" s="33" customFormat="1">
       <c r="B67" s="35"/>
       <c r="C67" s="34"/>
       <c r="E67" s="33" t="s">
@@ -14045,7 +14044,7 @@
       <c r="O67" s="35"/>
       <c r="P67" s="35"/>
     </row>
-    <row r="68" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:16" s="33" customFormat="1">
       <c r="B68" s="35"/>
       <c r="E68" s="33" t="s">
         <v>104</v>
@@ -14064,7 +14063,7 @@
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
     </row>
-    <row r="69" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:16" s="33" customFormat="1">
       <c r="B69" s="35"/>
       <c r="E69" s="33" t="s">
         <v>116</v>
@@ -14083,12 +14082,12 @@
       <c r="O69" s="35"/>
       <c r="P69" s="35"/>
     </row>
-    <row r="70" spans="2:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:16" s="8" customFormat="1">
       <c r="B70" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="2:16" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:16" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="C71" s="30" t="s">
         <v>338</v>
       </c>
@@ -14098,7 +14097,7 @@
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:16">
       <c r="C72" s="30" t="s">
         <v>35</v>
       </c>
@@ -14108,7 +14107,7 @@
       <c r="E72" s="35"/>
       <c r="F72" s="35"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:16">
       <c r="C73" s="3" t="s">
         <v>37</v>
       </c>
@@ -14116,7 +14115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:16">
       <c r="C74" s="3" t="s">
         <v>63</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:16">
       <c r="C75" s="3" t="s">
         <v>48</v>
       </c>
@@ -14132,10 +14131,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:16">
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:16">
       <c r="C77" s="3" t="s">
         <v>39</v>
       </c>
@@ -14146,7 +14145,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:16">
       <c r="C78" s="30" t="s">
         <v>40</v>
       </c>
@@ -14158,7 +14157,7 @@
       </c>
       <c r="F78" s="35"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:16">
       <c r="C79" s="30" t="s">
         <v>43</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:16">
       <c r="C80" s="30" t="s">
         <v>45</v>
       </c>
@@ -14183,7 +14182,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:16">
       <c r="C81" s="3" t="s">
         <v>46</v>
       </c>
@@ -14194,10 +14193,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:16">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:16" s="33" customFormat="1">
       <c r="B83" s="35"/>
       <c r="C83" s="30" t="s">
         <v>97</v>
@@ -14216,7 +14215,7 @@
       <c r="O83" s="35"/>
       <c r="P83" s="35"/>
     </row>
-    <row r="84" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:16" s="33" customFormat="1">
       <c r="B84" s="35"/>
       <c r="C84" s="30"/>
       <c r="D84" s="35" t="s">
@@ -14235,7 +14234,7 @@
       <c r="O84" s="35"/>
       <c r="P84" s="35"/>
     </row>
-    <row r="85" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:16" s="33" customFormat="1">
       <c r="B85" s="35"/>
       <c r="C85" s="30"/>
       <c r="D85" s="35"/>
@@ -14256,7 +14255,7 @@
       <c r="O85" s="35"/>
       <c r="P85" s="35"/>
     </row>
-    <row r="86" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:16" s="33" customFormat="1">
       <c r="B86" s="35"/>
       <c r="C86" s="30"/>
       <c r="D86" s="35"/>
@@ -14277,7 +14276,7 @@
       <c r="O86" s="35"/>
       <c r="P86" s="35"/>
     </row>
-    <row r="87" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:16" s="33" customFormat="1">
       <c r="B87" s="35"/>
       <c r="C87" s="30"/>
       <c r="D87" s="35"/>
@@ -14298,7 +14297,7 @@
       <c r="O87" s="35"/>
       <c r="P87" s="35"/>
     </row>
-    <row r="88" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:16" s="33" customFormat="1">
       <c r="B88" s="35"/>
       <c r="C88" s="34"/>
       <c r="E88" s="33" t="s">
@@ -14318,7 +14317,7 @@
       <c r="O88" s="35"/>
       <c r="P88" s="35"/>
     </row>
-    <row r="89" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:16" s="33" customFormat="1">
       <c r="B89" s="35"/>
       <c r="C89" s="34"/>
       <c r="E89" s="33" t="s">
@@ -14338,7 +14337,7 @@
       <c r="O89" s="35"/>
       <c r="P89" s="35"/>
     </row>
-    <row r="90" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:16" s="33" customFormat="1">
       <c r="B90" s="35"/>
       <c r="C90" s="34"/>
       <c r="D90" s="33" t="s">
@@ -14355,7 +14354,7 @@
       <c r="O90" s="35"/>
       <c r="P90" s="35"/>
     </row>
-    <row r="91" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:16" s="33" customFormat="1">
       <c r="B91" s="35"/>
       <c r="C91" s="34"/>
       <c r="E91" s="33" t="s">
@@ -14375,7 +14374,7 @@
       <c r="O91" s="35"/>
       <c r="P91" s="35"/>
     </row>
-    <row r="92" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:16" s="33" customFormat="1">
       <c r="B92" s="35"/>
       <c r="C92" s="34"/>
       <c r="E92" s="33" t="s">
@@ -14395,7 +14394,7 @@
       <c r="O92" s="35"/>
       <c r="P92" s="35"/>
     </row>
-    <row r="93" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:16" s="33" customFormat="1">
       <c r="B93" s="35"/>
       <c r="C93" s="34"/>
       <c r="E93" s="33" t="s">
@@ -14415,7 +14414,7 @@
       <c r="O93" s="35"/>
       <c r="P93" s="35"/>
     </row>
-    <row r="94" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:16" s="33" customFormat="1">
       <c r="B94" s="35"/>
       <c r="E94" s="33" t="s">
         <v>104</v>
@@ -14434,7 +14433,7 @@
       <c r="O94" s="35"/>
       <c r="P94" s="35"/>
     </row>
-    <row r="95" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:16" s="33" customFormat="1">
       <c r="B95" s="35"/>
       <c r="E95" s="33" t="s">
         <v>116</v>
@@ -14453,12 +14452,12 @@
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
     </row>
-    <row r="97" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:9" s="8" customFormat="1">
       <c r="B97" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:9" s="13" customFormat="1">
       <c r="B98" s="35"/>
       <c r="C98" s="30" t="s">
         <v>338</v>
@@ -14470,7 +14469,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:9">
       <c r="B99" s="35"/>
       <c r="C99" s="30" t="s">
         <v>35</v>
@@ -14482,7 +14481,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:9">
       <c r="B100" s="35"/>
       <c r="C100" s="30" t="s">
         <v>37</v>
@@ -14494,7 +14493,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:9">
       <c r="C101" s="3" t="s">
         <v>63</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9">
       <c r="C102" s="3" t="s">
         <v>48</v>
       </c>
@@ -14510,10 +14509,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:9">
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:9">
       <c r="C104" s="3" t="s">
         <v>39</v>
       </c>
@@ -14524,7 +14523,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:9">
       <c r="C105" s="3" t="s">
         <v>40</v>
       </c>
@@ -14535,7 +14534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:9">
       <c r="C106" s="3" t="s">
         <v>43</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:9">
       <c r="C107" s="3" t="s">
         <v>45</v>
       </c>
@@ -14559,7 +14558,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:9">
       <c r="C108" s="3" t="s">
         <v>46</v>
       </c>
@@ -14570,10 +14569,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:9">
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:9">
       <c r="C110" s="3" t="s">
         <v>97</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:9">
       <c r="E111" s="2" t="s">
         <v>101</v>
       </c>
@@ -14589,7 +14588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:9">
       <c r="E112" s="2" t="s">
         <v>118</v>
       </c>
@@ -14597,7 +14596,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:15">
       <c r="E113" s="2" t="s">
         <v>102</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:15">
       <c r="E114" s="2" t="s">
         <v>104</v>
       </c>
@@ -14619,7 +14618,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:15">
       <c r="E115" s="2" t="s">
         <v>116</v>
       </c>
@@ -14627,11 +14626,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="2:15" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:15" s="33" customFormat="1">
       <c r="E116" s="35"/>
       <c r="F116" s="35"/>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:15">
       <c r="D117" s="2" t="s">
         <v>99</v>
       </c>
@@ -14642,7 +14641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:15">
       <c r="E118" s="2" t="s">
         <v>118</v>
       </c>
@@ -14650,7 +14649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:15">
       <c r="E119" s="2" t="s">
         <v>102</v>
       </c>
@@ -14658,7 +14657,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:15">
       <c r="E120" s="2" t="s">
         <v>104</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:15">
       <c r="E121" s="2" t="s">
         <v>116</v>
       </c>
@@ -14674,12 +14673,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:15" s="8" customFormat="1">
       <c r="B122" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="2:15" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:15" s="13" customFormat="1">
       <c r="B123" s="35"/>
       <c r="C123" s="30" t="s">
         <v>338</v>
@@ -14693,7 +14692,7 @@
       <c r="H123" s="35"/>
       <c r="I123" s="35"/>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:15">
       <c r="B124" s="35"/>
       <c r="C124" s="30" t="s">
         <v>35</v>
@@ -14707,7 +14706,7 @@
       <c r="H124" s="35"/>
       <c r="I124" s="35"/>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:15">
       <c r="C125" s="3" t="s">
         <v>37</v>
       </c>
@@ -14715,7 +14714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:15">
       <c r="C126" s="3" t="s">
         <v>63</v>
       </c>
@@ -14723,7 +14722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:15">
       <c r="C127" s="3" t="s">
         <v>48</v>
       </c>
@@ -14731,11 +14730,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:15">
       <c r="C128" s="3"/>
       <c r="O128" s="7"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:9">
       <c r="C129" s="3" t="s">
         <v>39</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:9">
       <c r="C130" s="30" t="s">
         <v>40</v>
       </c>
@@ -14761,7 +14760,7 @@
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:9">
       <c r="C131" s="30" t="s">
         <v>43</v>
       </c>
@@ -14776,7 +14775,7 @@
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:9">
       <c r="C132" s="30" t="s">
         <v>45</v>
       </c>
@@ -14791,7 +14790,7 @@
       </c>
       <c r="I132" s="13"/>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:9">
       <c r="C133" s="30" t="s">
         <v>46</v>
       </c>
@@ -14806,7 +14805,7 @@
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
     </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:9">
       <c r="C134" s="30"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
@@ -14815,7 +14814,7 @@
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
     </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:9">
       <c r="C135" s="3" t="s">
         <v>97</v>
       </c>
@@ -14823,7 +14822,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:9">
       <c r="E136" s="2" t="s">
         <v>101</v>
       </c>
@@ -14831,7 +14830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:9">
       <c r="E137" s="2" t="s">
         <v>118</v>
       </c>
@@ -14839,7 +14838,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:9">
       <c r="E138" s="2" t="s">
         <v>102</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:9">
       <c r="E139" s="2" t="s">
         <v>104</v>
       </c>
@@ -14855,7 +14854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:9">
       <c r="E140" s="2" t="s">
         <v>116</v>
       </c>
@@ -14863,11 +14862,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="3:9" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:9" s="33" customFormat="1">
       <c r="E141" s="35"/>
       <c r="F141" s="35"/>
     </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:9">
       <c r="D142" s="2" t="s">
         <v>99</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:9">
       <c r="E143" s="2" t="s">
         <v>118</v>
       </c>
@@ -14886,7 +14885,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:9">
       <c r="E144" s="2" t="s">
         <v>102</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:12">
       <c r="E145" s="2" t="s">
         <v>104</v>
       </c>
@@ -14902,7 +14901,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:12">
       <c r="E146" s="2" t="s">
         <v>116</v>
       </c>
@@ -14910,22 +14909,22 @@
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:12">
       <c r="A147" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:12">
       <c r="B148" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:12" s="8" customFormat="1">
       <c r="B149" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:12" s="13" customFormat="1">
       <c r="B150" s="35"/>
       <c r="C150" s="30" t="s">
         <v>338</v>
@@ -14937,7 +14936,7 @@
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:12">
       <c r="B151" s="35"/>
       <c r="C151" s="30" t="s">
         <v>35</v>
@@ -14954,7 +14953,7 @@
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:12">
       <c r="C152" s="3" t="s">
         <v>37</v>
       </c>
@@ -14967,7 +14966,7 @@
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:12">
       <c r="C153" s="3" t="s">
         <v>63</v>
       </c>
@@ -14980,7 +14979,7 @@
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:12">
       <c r="C154" s="3" t="s">
         <v>48</v>
       </c>
@@ -14993,7 +14992,7 @@
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:12">
       <c r="C155" s="3"/>
       <c r="D155" s="2" t="s">
         <v>137</v>
@@ -15004,7 +15003,7 @@
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:12">
       <c r="C156" s="3" t="s">
         <v>39</v>
       </c>
@@ -15020,7 +15019,7 @@
       <c r="K156" s="13"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:12">
       <c r="C157" s="3" t="s">
         <v>40</v>
       </c>
@@ -15031,7 +15030,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:12">
       <c r="C158" s="3" t="s">
         <v>43</v>
       </c>
@@ -15042,7 +15041,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:12">
       <c r="C159" s="3" t="s">
         <v>87</v>
       </c>
@@ -15053,7 +15052,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:12">
       <c r="C160" s="3" t="s">
         <v>46</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="161" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:10">
       <c r="C161" s="3" t="s">
         <v>126</v>
       </c>
@@ -15072,7 +15071,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:10">
       <c r="C162" s="3" t="s">
         <v>106</v>
       </c>
@@ -15080,7 +15079,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="163" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="163" spans="3:10">
       <c r="C163" s="3" t="s">
         <v>111</v>
       </c>
@@ -15088,15 +15087,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="164" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="164" spans="3:10">
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="165" spans="3:10">
       <c r="C165" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="166" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="166" spans="3:10">
       <c r="D166" s="2" t="s">
         <v>122</v>
       </c>
@@ -15107,7 +15106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="167" spans="3:10">
       <c r="E167" s="2" t="s">
         <v>118</v>
       </c>
@@ -15115,7 +15114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="168" spans="3:10">
       <c r="E168" s="2" t="s">
         <v>102</v>
       </c>
@@ -15123,7 +15122,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="169" spans="3:10">
       <c r="E169" s="2" t="s">
         <v>104</v>
       </c>
@@ -15131,7 +15130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="170" spans="3:10">
       <c r="E170" s="2" t="s">
         <v>116</v>
       </c>
@@ -15139,11 +15138,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="171" spans="3:10" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="3:10" s="33" customFormat="1">
       <c r="E171" s="35"/>
       <c r="F171" s="35"/>
     </row>
-    <row r="172" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="172" spans="3:10">
       <c r="D172" s="2" t="s">
         <v>123</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:10">
       <c r="E173" s="2" t="s">
         <v>118</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="174" spans="3:10">
       <c r="D174" s="35"/>
       <c r="E174" s="35" t="s">
         <v>102</v>
@@ -15175,7 +15174,7 @@
       <c r="I174" s="35"/>
       <c r="J174" s="35"/>
     </row>
-    <row r="175" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="175" spans="3:10">
       <c r="D175" s="35"/>
       <c r="E175" s="35" t="s">
         <v>104</v>
@@ -15188,7 +15187,7 @@
       <c r="I175" s="35"/>
       <c r="J175" s="35"/>
     </row>
-    <row r="176" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="176" spans="3:10">
       <c r="D176" s="35"/>
       <c r="E176" s="35" t="s">
         <v>116</v>
@@ -15201,7 +15200,7 @@
       <c r="I176" s="35"/>
       <c r="J176" s="35"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:14">
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
         <v>466</v>
@@ -15219,7 +15218,7 @@
       <c r="L177" s="62"/>
       <c r="M177" s="62"/>
     </row>
-    <row r="178" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:14" s="33" customFormat="1">
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
         <v>572</v>
@@ -15232,7 +15231,7 @@
       <c r="I178" s="35"/>
       <c r="J178" s="35"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:14">
       <c r="D179" s="35"/>
       <c r="E179" s="35"/>
       <c r="F179" s="35"/>
@@ -15241,12 +15240,12 @@
       <c r="I179" s="35"/>
       <c r="J179" s="35"/>
     </row>
-    <row r="180" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:14" s="8" customFormat="1">
       <c r="B180" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="2:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:14" s="13" customFormat="1">
       <c r="C181" s="30" t="s">
         <v>338</v>
       </c>
@@ -15264,7 +15263,7 @@
       <c r="M181" s="35"/>
       <c r="N181" s="35"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:14">
       <c r="C182" s="30" t="s">
         <v>35</v>
       </c>
@@ -15282,7 +15281,7 @@
       <c r="M182" s="35"/>
       <c r="N182" s="35"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:14">
       <c r="C183" s="30" t="s">
         <v>37</v>
       </c>
@@ -15300,7 +15299,7 @@
       <c r="M183" s="35"/>
       <c r="N183" s="35"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:14">
       <c r="C184" s="30" t="s">
         <v>63</v>
       </c>
@@ -15318,7 +15317,7 @@
       <c r="M184" s="35"/>
       <c r="N184" s="35"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:14">
       <c r="C185" s="30" t="s">
         <v>48</v>
       </c>
@@ -15336,7 +15335,7 @@
       <c r="M185" s="35"/>
       <c r="N185" s="35"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:14">
       <c r="C186" s="30"/>
       <c r="D186" s="35"/>
       <c r="E186" s="35"/>
@@ -15350,7 +15349,7 @@
       <c r="M186" s="35"/>
       <c r="N186" s="35"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:14">
       <c r="C187" s="30" t="s">
         <v>39</v>
       </c>
@@ -15370,7 +15369,7 @@
       <c r="M187" s="35"/>
       <c r="N187" s="35"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:14">
       <c r="C188" s="30" t="s">
         <v>40</v>
       </c>
@@ -15390,7 +15389,7 @@
       <c r="M188" s="35"/>
       <c r="N188" s="35"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:14">
       <c r="C189" s="30" t="s">
         <v>43</v>
       </c>
@@ -15410,7 +15409,7 @@
       <c r="M189" s="35"/>
       <c r="N189" s="35"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:14">
       <c r="C190" s="30" t="s">
         <v>45</v>
       </c>
@@ -15430,7 +15429,7 @@
       <c r="M190" s="35"/>
       <c r="N190" s="35"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:14">
       <c r="C191" s="30" t="s">
         <v>46</v>
       </c>
@@ -15450,7 +15449,7 @@
       <c r="M191" s="35"/>
       <c r="N191" s="35"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:14">
       <c r="C192" s="35"/>
       <c r="D192" s="35"/>
       <c r="E192" s="35"/>
@@ -15464,7 +15463,7 @@
       <c r="M192" s="35"/>
       <c r="N192" s="35"/>
     </row>
-    <row r="193" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:14">
       <c r="C193" s="35"/>
       <c r="D193" s="35" t="s">
         <v>98</v>
@@ -15484,7 +15483,7 @@
       <c r="M193" s="35"/>
       <c r="N193" s="35"/>
     </row>
-    <row r="194" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:14">
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
       <c r="E194" s="35" t="s">
@@ -15502,7 +15501,7 @@
       <c r="M194" s="35"/>
       <c r="N194" s="35"/>
     </row>
-    <row r="195" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:14">
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
       <c r="E195" s="35" t="s">
@@ -15520,7 +15519,7 @@
       <c r="M195" s="35"/>
       <c r="N195" s="35"/>
     </row>
-    <row r="196" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:14">
       <c r="E196" s="2" t="s">
         <v>104</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:14">
       <c r="E197" s="2" t="s">
         <v>116</v>
       </c>
@@ -15536,10 +15535,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:14">
       <c r="F198" s="4"/>
     </row>
-    <row r="199" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:14">
       <c r="D199" s="2" t="s">
         <v>99</v>
       </c>
@@ -15550,7 +15549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:14">
       <c r="E200" s="2" t="s">
         <v>118</v>
       </c>
@@ -15561,7 +15560,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="201" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:14">
       <c r="E201" s="2" t="s">
         <v>102</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:14">
       <c r="E202" s="2" t="s">
         <v>104</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="203" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:14">
       <c r="E203" s="2" t="s">
         <v>116</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="205" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:14">
       <c r="D205" s="2" t="s">
         <v>133</v>
       </c>
@@ -15596,7 +15595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:14">
       <c r="E206" s="2" t="s">
         <v>118</v>
       </c>
@@ -15604,7 +15603,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:14">
       <c r="C207" s="3"/>
       <c r="E207" s="2" t="s">
         <v>102</v>
@@ -15613,7 +15612,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="208" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:14">
       <c r="C208" s="3"/>
       <c r="E208" s="2" t="s">
         <v>104</v>
@@ -15622,7 +15621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:13">
       <c r="C209" s="3"/>
       <c r="E209" s="2" t="s">
         <v>116</v>
@@ -15633,7 +15632,7 @@
       <c r="G209" s="35"/>
       <c r="H209" s="35"/>
     </row>
-    <row r="210" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:13" s="33" customFormat="1">
       <c r="C210" s="34"/>
       <c r="E210" s="35" t="s">
         <v>466</v>
@@ -15651,7 +15650,7 @@
       <c r="L210" s="62"/>
       <c r="M210" s="62"/>
     </row>
-    <row r="211" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:13" s="33" customFormat="1">
       <c r="C211" s="34"/>
       <c r="E211" s="35" t="s">
         <v>572</v>
@@ -15662,18 +15661,18 @@
       <c r="G211" s="35"/>
       <c r="H211" s="35"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:13">
       <c r="C212" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:13">
       <c r="C213" s="3"/>
       <c r="D213" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:13">
       <c r="C215" s="3" t="s">
         <v>131</v>
       </c>
@@ -15681,17 +15680,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:13">
       <c r="A217" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:13" s="8" customFormat="1">
       <c r="B218" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:13" s="13" customFormat="1">
       <c r="B219" s="35"/>
       <c r="C219" s="30" t="s">
         <v>338</v>
@@ -15701,50 +15700,50 @@
       </c>
       <c r="E219" s="35"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:13">
       <c r="C220" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:13">
       <c r="D221" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:13" ht="16.5" customHeight="1">
       <c r="D222" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K222" s="9"/>
     </row>
-    <row r="223" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:13" ht="16.5" customHeight="1">
       <c r="D223" s="2" t="s">
         <v>195</v>
       </c>
       <c r="K223" s="9"/>
     </row>
-    <row r="224" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:13" ht="16.5" customHeight="1">
       <c r="D224" s="2" t="s">
         <v>198</v>
       </c>
       <c r="K224" s="9"/>
     </row>
-    <row r="225" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:15" ht="16.5" customHeight="1">
       <c r="D225" s="2" t="s">
         <v>196</v>
       </c>
       <c r="K225" s="9"/>
     </row>
-    <row r="226" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="3:15" ht="16.5" customHeight="1">
       <c r="D226" s="2" t="s">
         <v>200</v>
       </c>
       <c r="K226" s="9"/>
     </row>
-    <row r="227" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="3:15" ht="16.5" customHeight="1">
       <c r="K227" s="9"/>
     </row>
-    <row r="228" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:15" ht="16.5" customHeight="1">
       <c r="C228" s="3" t="s">
         <v>35</v>
       </c>
@@ -15753,7 +15752,7 @@
       </c>
       <c r="K228" s="9"/>
     </row>
-    <row r="229" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="3:15" ht="16.5" customHeight="1">
       <c r="C229" s="3" t="s">
         <v>199</v>
       </c>
@@ -15762,7 +15761,7 @@
       </c>
       <c r="K229" s="9"/>
     </row>
-    <row r="230" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:15" ht="16.5" customHeight="1">
       <c r="C230" s="3" t="s">
         <v>105</v>
       </c>
@@ -15771,7 +15770,7 @@
       </c>
       <c r="K230" s="9"/>
     </row>
-    <row r="231" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:15" ht="16.5" customHeight="1">
       <c r="C231" s="3" t="s">
         <v>109</v>
       </c>
@@ -15780,7 +15779,7 @@
       </c>
       <c r="K231" s="9"/>
     </row>
-    <row r="232" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:15" ht="16.5" customHeight="1">
       <c r="C232" s="3" t="s">
         <v>139</v>
       </c>
@@ -15790,7 +15789,7 @@
       <c r="F232" s="4"/>
       <c r="K232" s="9"/>
     </row>
-    <row r="233" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:15" ht="16.5" customHeight="1">
       <c r="C233" s="3" t="s">
         <v>140</v>
       </c>
@@ -15800,7 +15799,7 @@
       <c r="F233" s="4"/>
       <c r="K233" s="9"/>
     </row>
-    <row r="234" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="3:15" ht="16.5" customHeight="1">
       <c r="C234" s="3" t="s">
         <v>141</v>
       </c>
@@ -15809,7 +15808,7 @@
       </c>
       <c r="K234" s="9"/>
     </row>
-    <row r="235" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="3:15" ht="16.5" customHeight="1">
       <c r="C235" s="3" t="s">
         <v>142</v>
       </c>
@@ -15818,7 +15817,7 @@
       </c>
       <c r="K235" s="9"/>
     </row>
-    <row r="236" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="3:15" ht="16.5" customHeight="1">
       <c r="C236" s="3" t="s">
         <v>143</v>
       </c>
@@ -15827,7 +15826,7 @@
       </c>
       <c r="K236" s="9"/>
     </row>
-    <row r="237" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="237" spans="3:15">
       <c r="C237" s="3" t="s">
         <v>214</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="238" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="3:15" ht="16.5" customHeight="1">
       <c r="C238" s="3" t="s">
         <v>212</v>
       </c>
@@ -15845,7 +15844,7 @@
       <c r="F238" s="4"/>
       <c r="K238" s="9"/>
     </row>
-    <row r="239" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="3:15" ht="16.5" customHeight="1">
       <c r="C239" s="3"/>
       <c r="D239" s="11" t="s">
         <v>265</v>
@@ -15853,7 +15852,7 @@
       <c r="F239" s="4"/>
       <c r="K239" s="9"/>
     </row>
-    <row r="240" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="3:15" ht="16.5" customHeight="1">
       <c r="C240" s="3"/>
       <c r="D240" s="2" t="s">
         <v>210</v>
@@ -15869,7 +15868,7 @@
       <c r="N240" s="13"/>
       <c r="O240" s="13"/>
     </row>
-    <row r="241" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="3:15" ht="16.5" customHeight="1">
       <c r="C241" s="3"/>
       <c r="F241" s="31" t="s">
         <v>266</v>
@@ -15884,7 +15883,7 @@
       <c r="N241" s="13"/>
       <c r="O241" s="13"/>
     </row>
-    <row r="242" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="3:15" ht="16.5" customHeight="1">
       <c r="C242" s="3"/>
       <c r="F242" s="31"/>
       <c r="G242" s="13" t="s">
@@ -15899,7 +15898,7 @@
       <c r="N242" s="13"/>
       <c r="O242" s="13"/>
     </row>
-    <row r="243" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="3:15" ht="16.5" customHeight="1">
       <c r="C243" s="3"/>
       <c r="F243" s="31" t="s">
         <v>268</v>
@@ -15914,7 +15913,7 @@
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
     </row>
-    <row r="244" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="3:15" ht="16.5" customHeight="1">
       <c r="C244" s="3"/>
       <c r="F244" s="31" t="s">
         <v>269</v>
@@ -15929,7 +15928,7 @@
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
     </row>
-    <row r="245" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="3:15" ht="16.5" customHeight="1">
       <c r="C245" s="3"/>
       <c r="D245" s="2" t="s">
         <v>207</v>
@@ -15945,7 +15944,7 @@
       <c r="N245" s="13"/>
       <c r="O245" s="13"/>
     </row>
-    <row r="246" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="3:15" ht="16.5" customHeight="1">
       <c r="C246" s="3"/>
       <c r="F246" s="31" t="s">
         <v>266</v>
@@ -15960,7 +15959,7 @@
       <c r="N246" s="13"/>
       <c r="O246" s="13"/>
     </row>
-    <row r="247" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="3:15" ht="16.5" customHeight="1">
       <c r="C247" s="3"/>
       <c r="F247" s="31"/>
       <c r="G247" s="13" t="s">
@@ -15975,7 +15974,7 @@
       <c r="N247" s="13"/>
       <c r="O247" s="13"/>
     </row>
-    <row r="248" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="3:15" ht="16.5" customHeight="1">
       <c r="C248" s="3"/>
       <c r="F248" s="31"/>
       <c r="G248" s="13" t="s">
@@ -15990,7 +15989,7 @@
       <c r="N248" s="13"/>
       <c r="O248" s="13"/>
     </row>
-    <row r="249" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="3:15" ht="16.5" customHeight="1">
       <c r="C249" s="3"/>
       <c r="F249" s="31"/>
       <c r="G249" s="13" t="s">
@@ -16005,7 +16004,7 @@
       <c r="N249" s="13"/>
       <c r="O249" s="13"/>
     </row>
-    <row r="250" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="3:15" ht="16.5" customHeight="1">
       <c r="C250" s="3"/>
       <c r="F250" s="31" t="s">
         <v>268</v>
@@ -16020,7 +16019,7 @@
       <c r="N250" s="13"/>
       <c r="O250" s="13"/>
     </row>
-    <row r="251" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="3:15" ht="16.5" customHeight="1">
       <c r="C251" s="3"/>
       <c r="F251" s="31" t="s">
         <v>273</v>
@@ -16035,7 +16034,7 @@
       <c r="N251" s="13"/>
       <c r="O251" s="13"/>
     </row>
-    <row r="252" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="3:15" ht="16.5" customHeight="1">
       <c r="C252" s="3"/>
       <c r="D252" s="2" t="s">
         <v>208</v>
@@ -16053,7 +16052,7 @@
       <c r="N252" s="13"/>
       <c r="O252" s="13"/>
     </row>
-    <row r="253" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="3:15" ht="16.5" customHeight="1">
       <c r="C253" s="3"/>
       <c r="F253" s="31"/>
       <c r="G253" s="13" t="s">
@@ -16068,7 +16067,7 @@
       <c r="N253" s="13"/>
       <c r="O253" s="13"/>
     </row>
-    <row r="254" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="3:15" ht="16.5" customHeight="1">
       <c r="C254" s="3"/>
       <c r="F254" s="31"/>
       <c r="G254" s="13" t="s">
@@ -16083,7 +16082,7 @@
       <c r="N254" s="13"/>
       <c r="O254" s="13"/>
     </row>
-    <row r="255" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="3:15" ht="16.5" customHeight="1">
       <c r="C255" s="3"/>
       <c r="F255" s="31"/>
       <c r="G255" s="13" t="s">
@@ -16098,7 +16097,7 @@
       <c r="N255" s="13"/>
       <c r="O255" s="13"/>
     </row>
-    <row r="256" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="3:15" ht="16.5" customHeight="1">
       <c r="C256" s="3"/>
       <c r="F256" s="31" t="s">
         <v>268</v>
@@ -16113,7 +16112,7 @@
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
     </row>
-    <row r="257" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="3:15" ht="16.5" customHeight="1">
       <c r="C257" s="3"/>
       <c r="F257" s="31" t="s">
         <v>275</v>
@@ -16128,7 +16127,7 @@
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
     </row>
-    <row r="258" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="3:15" ht="16.5" customHeight="1">
       <c r="C258" s="3"/>
       <c r="D258" s="2" t="s">
         <v>209</v>
@@ -16144,7 +16143,7 @@
       <c r="N258" s="13"/>
       <c r="O258" s="13"/>
     </row>
-    <row r="259" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="3:15" ht="16.5" customHeight="1">
       <c r="C259" s="3"/>
       <c r="F259" s="31" t="s">
         <v>274</v>
@@ -16159,7 +16158,7 @@
       <c r="N259" s="13"/>
       <c r="O259" s="13"/>
     </row>
-    <row r="260" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="3:15" ht="16.5" customHeight="1">
       <c r="C260" s="3"/>
       <c r="F260" s="31"/>
       <c r="G260" s="13" t="s">
@@ -16174,7 +16173,7 @@
       <c r="N260" s="13"/>
       <c r="O260" s="13"/>
     </row>
-    <row r="261" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="3:15" ht="16.5" customHeight="1">
       <c r="F261" s="31"/>
       <c r="G261" s="13" t="s">
         <v>277</v>
@@ -16188,7 +16187,7 @@
       <c r="N261" s="13"/>
       <c r="O261" s="13"/>
     </row>
-    <row r="262" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="3:15" ht="16.5" customHeight="1">
       <c r="F262" s="31" t="s">
         <v>268</v>
       </c>
@@ -16202,7 +16201,7 @@
       <c r="N262" s="13"/>
       <c r="O262" s="13"/>
     </row>
-    <row r="263" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="263" spans="3:15">
       <c r="C263" s="3"/>
       <c r="F263" s="31" t="s">
         <v>278</v>
@@ -16217,7 +16216,7 @@
       <c r="N263" s="13"/>
       <c r="O263" s="13"/>
     </row>
-    <row r="264" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="264" spans="3:15">
       <c r="C264" s="3"/>
       <c r="D264" s="2" t="s">
         <v>211</v>
@@ -16235,7 +16234,7 @@
       <c r="N264" s="13"/>
       <c r="O264" s="13"/>
     </row>
-    <row r="265" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="265" spans="3:15">
       <c r="C265" s="3"/>
       <c r="F265" s="31" t="s">
         <v>280</v>
@@ -16250,7 +16249,7 @@
       <c r="N265" s="13"/>
       <c r="O265" s="13"/>
     </row>
-    <row r="266" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="3:15" ht="15.75" customHeight="1">
       <c r="C266" s="3" t="s">
         <v>158</v>
       </c>
@@ -16265,7 +16264,7 @@
       <c r="N266" s="13"/>
       <c r="O266" s="13"/>
     </row>
-    <row r="267" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="267" spans="3:15">
       <c r="D267" s="2" t="s">
         <v>148</v>
       </c>
@@ -16280,7 +16279,7 @@
       <c r="N267" s="13"/>
       <c r="O267" s="13"/>
     </row>
-    <row r="268" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="268" spans="3:15">
       <c r="E268" s="2" t="s">
         <v>154</v>
       </c>
@@ -16295,7 +16294,7 @@
       <c r="N268" s="13"/>
       <c r="O268" s="13"/>
     </row>
-    <row r="269" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="269" spans="3:15">
       <c r="F269" s="13" t="s">
         <v>101</v>
       </c>
@@ -16311,7 +16310,7 @@
       <c r="N269" s="13"/>
       <c r="O269" s="13"/>
     </row>
-    <row r="270" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="270" spans="3:15">
       <c r="F270" s="13" t="s">
         <v>118</v>
       </c>
@@ -16327,7 +16326,7 @@
       <c r="N270" s="13"/>
       <c r="O270" s="13"/>
     </row>
-    <row r="271" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="271" spans="3:15">
       <c r="F271" s="2" t="s">
         <v>102</v>
       </c>
@@ -16335,7 +16334,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="272" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="272" spans="3:15">
       <c r="F272" s="2" t="s">
         <v>104</v>
       </c>
@@ -16343,7 +16342,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="273" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="273" spans="4:16">
       <c r="F273" s="2" t="s">
         <v>116</v>
       </c>
@@ -16351,12 +16350,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="274" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="274" spans="4:16">
       <c r="E274" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="275" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="275" spans="4:16">
       <c r="F275" s="2" t="s">
         <v>101</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="276" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="276" spans="4:16">
       <c r="F276" s="2" t="s">
         <v>118</v>
       </c>
@@ -16372,7 +16371,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="277" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="277" spans="4:16">
       <c r="F277" s="2" t="s">
         <v>102</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="278" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="278" spans="4:16">
       <c r="F278" s="2" t="s">
         <v>104</v>
       </c>
@@ -16388,7 +16387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="279" spans="4:16">
       <c r="D279" s="35"/>
       <c r="E279" s="35"/>
       <c r="F279" s="35" t="s">
@@ -16399,7 +16398,7 @@
       </c>
       <c r="H279" s="35"/>
     </row>
-    <row r="280" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="280" spans="4:16">
       <c r="D280" s="35"/>
       <c r="E280" s="35" t="s">
         <v>699</v>
@@ -16418,7 +16417,7 @@
       <c r="O280" s="62"/>
       <c r="P280" s="62"/>
     </row>
-    <row r="281" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="281" spans="4:16">
       <c r="D281" s="35"/>
       <c r="E281" s="35" t="s">
         <v>572</v>
@@ -16429,14 +16428,14 @@
       <c r="G281" s="35"/>
       <c r="H281" s="35"/>
     </row>
-    <row r="282" spans="4:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="4:16" s="33" customFormat="1">
       <c r="D282" s="35"/>
       <c r="E282" s="35"/>
       <c r="F282" s="35"/>
       <c r="G282" s="35"/>
       <c r="H282" s="35"/>
     </row>
-    <row r="283" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="283" spans="4:16">
       <c r="D283" s="35" t="s">
         <v>144</v>
       </c>
@@ -16449,7 +16448,7 @@
       <c r="G283" s="35"/>
       <c r="H283" s="35"/>
     </row>
-    <row r="284" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="284" spans="4:16">
       <c r="D284" s="35"/>
       <c r="E284" s="35" t="s">
         <v>118</v>
@@ -16460,7 +16459,7 @@
       <c r="G284" s="35"/>
       <c r="H284" s="35"/>
     </row>
-    <row r="285" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="285" spans="4:16">
       <c r="D285" s="35"/>
       <c r="E285" s="35" t="s">
         <v>102</v>
@@ -16471,7 +16470,7 @@
       <c r="G285" s="35"/>
       <c r="H285" s="35"/>
     </row>
-    <row r="286" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="286" spans="4:16">
       <c r="D286" s="35"/>
       <c r="E286" s="35" t="s">
         <v>104</v>
@@ -16482,7 +16481,7 @@
       <c r="G286" s="35"/>
       <c r="H286" s="35"/>
     </row>
-    <row r="287" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="287" spans="4:16">
       <c r="D287" s="35"/>
       <c r="E287" s="35" t="s">
         <v>116</v>
@@ -16493,7 +16492,7 @@
       <c r="G287" s="35"/>
       <c r="H287" s="35"/>
     </row>
-    <row r="288" spans="4:16" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="4:16" s="33" customFormat="1">
       <c r="D288" s="35"/>
       <c r="E288" s="35" t="s">
         <v>466</v>
@@ -16509,7 +16508,7 @@
       <c r="J288" s="62"/>
       <c r="K288" s="62"/>
     </row>
-    <row r="289" spans="4:11" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="4:11" s="33" customFormat="1">
       <c r="D289" s="35"/>
       <c r="E289" s="35" t="s">
         <v>572</v>
@@ -16520,14 +16519,14 @@
       <c r="G289" s="35"/>
       <c r="H289" s="35"/>
     </row>
-    <row r="290" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="290" spans="4:11">
       <c r="D290" s="35"/>
       <c r="E290" s="35"/>
       <c r="F290" s="35"/>
       <c r="G290" s="35"/>
       <c r="H290" s="35"/>
     </row>
-    <row r="291" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="291" spans="4:11">
       <c r="D291" s="35" t="s">
         <v>145</v>
       </c>
@@ -16540,7 +16539,7 @@
       <c r="G291" s="35"/>
       <c r="H291" s="35"/>
     </row>
-    <row r="292" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="292" spans="4:11">
       <c r="D292" s="35"/>
       <c r="E292" s="35" t="s">
         <v>118</v>
@@ -16551,7 +16550,7 @@
       <c r="G292" s="35"/>
       <c r="H292" s="35"/>
     </row>
-    <row r="293" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="293" spans="4:11">
       <c r="D293" s="35"/>
       <c r="E293" s="35" t="s">
         <v>102</v>
@@ -16562,7 +16561,7 @@
       <c r="G293" s="35"/>
       <c r="H293" s="35"/>
     </row>
-    <row r="294" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="294" spans="4:11">
       <c r="D294" s="35"/>
       <c r="E294" s="35" t="s">
         <v>104</v>
@@ -16573,7 +16572,7 @@
       <c r="G294" s="35"/>
       <c r="H294" s="35"/>
     </row>
-    <row r="295" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="295" spans="4:11">
       <c r="D295" s="35"/>
       <c r="E295" s="35" t="s">
         <v>116</v>
@@ -16584,7 +16583,7 @@
       <c r="G295" s="35"/>
       <c r="H295" s="35"/>
     </row>
-    <row r="296" spans="4:11" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="4:11" s="33" customFormat="1">
       <c r="D296" s="35"/>
       <c r="E296" s="35" t="s">
         <v>466</v>
@@ -16600,7 +16599,7 @@
       <c r="J296" s="62"/>
       <c r="K296" s="62"/>
     </row>
-    <row r="297" spans="4:11" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="4:11" s="33" customFormat="1">
       <c r="D297" s="35"/>
       <c r="E297" s="35" t="s">
         <v>572</v>
@@ -16611,14 +16610,14 @@
       <c r="G297" s="35"/>
       <c r="H297" s="35"/>
     </row>
-    <row r="298" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="298" spans="4:11">
       <c r="D298" s="35"/>
       <c r="E298" s="35"/>
       <c r="F298" s="35"/>
       <c r="G298" s="35"/>
       <c r="H298" s="35"/>
     </row>
-    <row r="299" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="299" spans="4:11">
       <c r="D299" s="2" t="s">
         <v>146</v>
       </c>
@@ -16629,7 +16628,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="300" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="300" spans="4:11">
       <c r="E300" s="2" t="s">
         <v>118</v>
       </c>
@@ -16637,7 +16636,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="301" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="301" spans="4:11">
       <c r="E301" s="2" t="s">
         <v>102</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="302" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="302" spans="4:11">
       <c r="E302" s="2" t="s">
         <v>104</v>
       </c>
@@ -16653,7 +16652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="303" spans="4:11">
       <c r="E303" s="2" t="s">
         <v>116</v>
       </c>
@@ -16661,7 +16660,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:6">
       <c r="D305" s="2" t="s">
         <v>147</v>
       </c>
@@ -16672,7 +16671,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:6">
       <c r="E306" s="2" t="s">
         <v>118</v>
       </c>
@@ -16680,7 +16679,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:6">
       <c r="E307" s="2" t="s">
         <v>102</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:6">
       <c r="E308" s="2" t="s">
         <v>104</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:6">
       <c r="E309" s="2" t="s">
         <v>116</v>
       </c>
@@ -16704,9 +16703,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="310" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="311" spans="2:6" s="33" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:6" s="33" customFormat="1"/>
+    <row r="311" spans="2:6" s="33" customFormat="1"/>
+    <row r="313" spans="2:6">
       <c r="C313" s="3" t="s">
         <v>182</v>
       </c>
@@ -16714,7 +16713,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:6">
       <c r="C314" s="3" t="s">
         <v>180</v>
       </c>
@@ -16722,17 +16721,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:6">
       <c r="D315" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="316" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:6" s="8" customFormat="1">
       <c r="B316" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="2:6" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:6" s="35" customFormat="1">
       <c r="C317" s="30" t="s">
         <v>338</v>
       </c>
@@ -16740,7 +16739,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:6">
       <c r="C318" s="30" t="s">
         <v>184</v>
       </c>
@@ -16748,42 +16747,42 @@
       <c r="E318" s="35"/>
       <c r="F318" s="35"/>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:6">
       <c r="D319" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:6">
       <c r="D320" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="321" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="321" spans="3:17">
       <c r="E321" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="322" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="322" spans="3:17">
       <c r="E322" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="323" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="323" spans="3:17">
       <c r="E323" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="324" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="324" spans="3:17">
       <c r="D324" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="325" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="325" spans="3:17">
       <c r="C325" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="327" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="327" spans="3:17">
       <c r="C327" s="3" t="s">
         <v>35</v>
       </c>
@@ -16791,7 +16790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="328" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="328" spans="3:17">
       <c r="C328" s="3" t="s">
         <v>110</v>
       </c>
@@ -16806,7 +16805,7 @@
       <c r="P328" s="35"/>
       <c r="Q328" s="35"/>
     </row>
-    <row r="329" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="329" spans="3:17">
       <c r="C329" s="3" t="s">
         <v>105</v>
       </c>
@@ -16824,7 +16823,7 @@
       <c r="P329" s="35"/>
       <c r="Q329" s="35"/>
     </row>
-    <row r="330" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="330" spans="3:17">
       <c r="C330" s="12" t="s">
         <v>251</v>
       </c>
@@ -16839,7 +16838,7 @@
       <c r="P330" s="35"/>
       <c r="Q330" s="35"/>
     </row>
-    <row r="331" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="331" spans="3:17">
       <c r="C331" s="12" t="s">
         <v>252</v>
       </c>
@@ -16854,7 +16853,7 @@
       <c r="P331" s="35"/>
       <c r="Q331" s="35"/>
     </row>
-    <row r="332" spans="3:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="332" spans="3:17" ht="17.25">
       <c r="C332" s="12" t="s">
         <v>253</v>
       </c>
@@ -16865,7 +16864,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="3:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="333" spans="3:17" ht="17.25">
       <c r="C333" s="12" t="s">
         <v>254</v>
       </c>
@@ -16876,7 +16875,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="334" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="334" spans="3:17">
       <c r="C334" s="3" t="s">
         <v>48</v>
       </c>
@@ -16884,96 +16883,96 @@
         <v>352</v>
       </c>
     </row>
-    <row r="335" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="335" spans="3:17">
       <c r="C335" s="3"/>
       <c r="D335" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="336" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="336" spans="3:17">
       <c r="C336" s="3"/>
       <c r="D336" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="3:6">
       <c r="C337" s="3"/>
       <c r="E337" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="3:6">
       <c r="C338" s="3"/>
       <c r="F338" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="339" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="3:6">
       <c r="C339" s="3"/>
       <c r="F339" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="3:6">
       <c r="C340" s="3"/>
       <c r="E340" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="341" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="3:6">
       <c r="C341" s="3"/>
       <c r="F341" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="342" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="3:6">
       <c r="C342" s="3"/>
       <c r="F342" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="343" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="3:6">
       <c r="E343" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="3:6">
       <c r="F344" s="15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="3:6">
       <c r="F345" s="15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="3:6">
       <c r="E346" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="347" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="3:6">
       <c r="F347" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="3:6">
       <c r="C348" s="3"/>
       <c r="F348" s="15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="3:6">
       <c r="C349" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="3:6">
       <c r="D350" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="351" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="3:6">
       <c r="E351" s="2" t="s">
         <v>101</v>
       </c>
@@ -16981,7 +16980,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="3:6">
       <c r="E352" s="2" t="s">
         <v>118</v>
       </c>
@@ -16989,7 +16988,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="353" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="353" spans="4:14">
       <c r="E353" s="2" t="s">
         <v>102</v>
       </c>
@@ -16997,7 +16996,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="354" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="354" spans="4:14">
       <c r="E354" s="2" t="s">
         <v>104</v>
       </c>
@@ -17005,7 +17004,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="355" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="355" spans="4:14">
       <c r="E355" s="2" t="s">
         <v>116</v>
       </c>
@@ -17013,7 +17012,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="356" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="356" spans="4:14">
       <c r="E356" s="35" t="s">
         <v>224</v>
       </c>
@@ -17023,7 +17022,7 @@
       <c r="I356" s="35"/>
       <c r="J356" s="35"/>
     </row>
-    <row r="357" spans="4:14" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="4:14" s="33" customFormat="1">
       <c r="E357" s="35" t="s">
         <v>466</v>
       </c>
@@ -17041,7 +17040,7 @@
       <c r="M357" s="62"/>
       <c r="N357" s="62"/>
     </row>
-    <row r="358" spans="4:14" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="4:14" s="33" customFormat="1">
       <c r="E358" s="35" t="s">
         <v>572</v>
       </c>
@@ -17053,7 +17052,7 @@
       <c r="I358" s="35"/>
       <c r="J358" s="35"/>
     </row>
-    <row r="359" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="359" spans="4:14">
       <c r="E359" s="35"/>
       <c r="F359" s="35"/>
       <c r="G359" s="35"/>
@@ -17061,7 +17060,7 @@
       <c r="I359" s="35"/>
       <c r="J359" s="35"/>
     </row>
-    <row r="360" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="360" spans="4:14">
       <c r="D360" s="2" t="s">
         <v>189</v>
       </c>
@@ -17072,7 +17071,7 @@
       <c r="I360" s="35"/>
       <c r="J360" s="35"/>
     </row>
-    <row r="361" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="361" spans="4:14">
       <c r="E361" s="35" t="s">
         <v>164</v>
       </c>
@@ -17082,7 +17081,7 @@
       <c r="I361" s="35"/>
       <c r="J361" s="35"/>
     </row>
-    <row r="362" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="362" spans="4:14">
       <c r="E362" s="35" t="s">
         <v>154</v>
       </c>
@@ -17092,7 +17091,7 @@
       <c r="I362" s="35"/>
       <c r="J362" s="35"/>
     </row>
-    <row r="363" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="363" spans="4:14">
       <c r="E363" s="35"/>
       <c r="F363" s="35" t="s">
         <v>101</v>
@@ -17104,7 +17103,7 @@
       <c r="I363" s="35"/>
       <c r="J363" s="35"/>
     </row>
-    <row r="364" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="364" spans="4:14">
       <c r="E364" s="35"/>
       <c r="F364" s="35" t="s">
         <v>118</v>
@@ -17116,7 +17115,7 @@
       <c r="I364" s="35"/>
       <c r="J364" s="35"/>
     </row>
-    <row r="365" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="365" spans="4:14">
       <c r="E365" s="35"/>
       <c r="F365" s="35" t="s">
         <v>102</v>
@@ -17128,7 +17127,7 @@
       <c r="I365" s="35"/>
       <c r="J365" s="35"/>
     </row>
-    <row r="366" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="366" spans="4:14">
       <c r="E366" s="35"/>
       <c r="F366" s="35" t="s">
         <v>104</v>
@@ -17140,7 +17139,7 @@
       <c r="I366" s="35"/>
       <c r="J366" s="35"/>
     </row>
-    <row r="367" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="367" spans="4:14">
       <c r="E367" s="35"/>
       <c r="F367" s="35" t="s">
         <v>116</v>
@@ -17152,7 +17151,7 @@
       <c r="I367" s="35"/>
       <c r="J367" s="35"/>
     </row>
-    <row r="368" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="368" spans="4:14">
       <c r="E368" s="35" t="s">
         <v>224</v>
       </c>
@@ -17162,7 +17161,7 @@
       <c r="I368" s="35"/>
       <c r="J368" s="35"/>
     </row>
-    <row r="369" spans="4:14" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="4:14" s="33" customFormat="1">
       <c r="E369" s="35" t="s">
         <v>466</v>
       </c>
@@ -17180,7 +17179,7 @@
       <c r="M369" s="62"/>
       <c r="N369" s="62"/>
     </row>
-    <row r="370" spans="4:14" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="4:14" s="33" customFormat="1">
       <c r="E370" s="35" t="s">
         <v>572</v>
       </c>
@@ -17192,7 +17191,7 @@
       <c r="I370" s="35"/>
       <c r="J370" s="35"/>
     </row>
-    <row r="371" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="371" spans="4:14">
       <c r="E371" s="35"/>
       <c r="F371" s="35"/>
       <c r="G371" s="35"/>
@@ -17200,22 +17199,22 @@
       <c r="I371" s="35"/>
       <c r="J371" s="35"/>
     </row>
-    <row r="372" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="372" spans="4:14">
       <c r="D372" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="373" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="373" spans="4:14">
       <c r="E373" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="374" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="374" spans="4:14">
       <c r="E374" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="375" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="375" spans="4:14">
       <c r="F375" s="2" t="s">
         <v>101</v>
       </c>
@@ -17223,7 +17222,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="376" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="376" spans="4:14">
       <c r="F376" s="2" t="s">
         <v>118</v>
       </c>
@@ -17231,7 +17230,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="377" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="377" spans="4:14">
       <c r="F377" s="2" t="s">
         <v>102</v>
       </c>
@@ -17239,7 +17238,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="378" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="378" spans="4:14">
       <c r="F378" s="2" t="s">
         <v>104</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="379" spans="4:14">
       <c r="F379" s="2" t="s">
         <v>116</v>
       </c>
@@ -17255,22 +17254,22 @@
         <v>156</v>
       </c>
     </row>
-    <row r="381" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="381" spans="4:14">
       <c r="D381" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="382" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="382" spans="4:14">
       <c r="E382" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="383" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="383" spans="4:14">
       <c r="E383" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="384" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="384" spans="4:14">
       <c r="F384" s="2" t="s">
         <v>101</v>
       </c>
@@ -17278,7 +17277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="385" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="385" spans="4:13">
       <c r="F385" s="2" t="s">
         <v>118</v>
       </c>
@@ -17286,7 +17285,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="386" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="386" spans="4:13">
       <c r="F386" s="2" t="s">
         <v>102</v>
       </c>
@@ -17294,7 +17293,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="387" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="387" spans="4:13">
       <c r="D387" s="35"/>
       <c r="E387" s="35"/>
       <c r="F387" s="35" t="s">
@@ -17306,7 +17305,7 @@
       <c r="H387" s="35"/>
       <c r="I387" s="35"/>
     </row>
-    <row r="388" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="388" spans="4:13">
       <c r="D388" s="35"/>
       <c r="E388" s="35"/>
       <c r="F388" s="35" t="s">
@@ -17318,7 +17317,7 @@
       <c r="H388" s="35"/>
       <c r="I388" s="35"/>
     </row>
-    <row r="389" spans="4:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="4:13" s="33" customFormat="1">
       <c r="D389" s="35"/>
       <c r="E389" s="35" t="s">
         <v>466</v>
@@ -17336,7 +17335,7 @@
       <c r="L389" s="62"/>
       <c r="M389" s="62"/>
     </row>
-    <row r="390" spans="4:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="4:13" s="33" customFormat="1">
       <c r="D390" s="35"/>
       <c r="E390" s="35" t="s">
         <v>572</v>
@@ -17348,7 +17347,7 @@
       <c r="H390" s="35"/>
       <c r="I390" s="35"/>
     </row>
-    <row r="391" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="391" spans="4:13">
       <c r="D391" s="35"/>
       <c r="E391" s="35"/>
       <c r="F391" s="35"/>
@@ -17356,7 +17355,7 @@
       <c r="H391" s="35"/>
       <c r="I391" s="35"/>
     </row>
-    <row r="392" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="392" spans="4:13">
       <c r="D392" s="35" t="s">
         <v>162</v>
       </c>
@@ -17366,7 +17365,7 @@
       <c r="H392" s="35"/>
       <c r="I392" s="35"/>
     </row>
-    <row r="393" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="393" spans="4:13">
       <c r="D393" s="35"/>
       <c r="E393" s="35" t="s">
         <v>226</v>
@@ -17376,7 +17375,7 @@
       <c r="H393" s="35"/>
       <c r="I393" s="35"/>
     </row>
-    <row r="394" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="394" spans="4:13">
       <c r="D394" s="35"/>
       <c r="E394" s="35" t="s">
         <v>154</v>
@@ -17386,7 +17385,7 @@
       <c r="H394" s="35"/>
       <c r="I394" s="35"/>
     </row>
-    <row r="395" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="395" spans="4:13">
       <c r="D395" s="35"/>
       <c r="E395" s="35"/>
       <c r="F395" s="35" t="s">
@@ -17398,7 +17397,7 @@
       <c r="H395" s="35"/>
       <c r="I395" s="35"/>
     </row>
-    <row r="396" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="396" spans="4:13">
       <c r="D396" s="35"/>
       <c r="E396" s="35"/>
       <c r="F396" s="35" t="s">
@@ -17410,7 +17409,7 @@
       <c r="H396" s="35"/>
       <c r="I396" s="35"/>
     </row>
-    <row r="397" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="397" spans="4:13">
       <c r="D397" s="35"/>
       <c r="E397" s="35"/>
       <c r="F397" s="35" t="s">
@@ -17422,7 +17421,7 @@
       <c r="H397" s="35"/>
       <c r="I397" s="35"/>
     </row>
-    <row r="398" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="398" spans="4:13">
       <c r="D398" s="35"/>
       <c r="E398" s="35"/>
       <c r="F398" s="35" t="s">
@@ -17434,7 +17433,7 @@
       <c r="H398" s="35"/>
       <c r="I398" s="35"/>
     </row>
-    <row r="399" spans="4:13" x14ac:dyDescent="0.15">
+    <row r="399" spans="4:13">
       <c r="D399" s="35"/>
       <c r="E399" s="35"/>
       <c r="F399" s="35" t="s">
@@ -17446,7 +17445,7 @@
       <c r="H399" s="35"/>
       <c r="I399" s="35"/>
     </row>
-    <row r="400" spans="4:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="4:13" s="33" customFormat="1">
       <c r="D400" s="35"/>
       <c r="E400" s="35" t="s">
         <v>466</v>
@@ -17464,7 +17463,7 @@
       <c r="L400" s="62"/>
       <c r="M400" s="62"/>
     </row>
-    <row r="401" spans="3:14" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="3:14" s="33" customFormat="1">
       <c r="D401" s="35"/>
       <c r="E401" s="35" t="s">
         <v>572</v>
@@ -17476,7 +17475,7 @@
       <c r="H401" s="35"/>
       <c r="I401" s="35"/>
     </row>
-    <row r="402" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="402" spans="3:14">
       <c r="C402" s="2" t="s">
         <v>227</v>
       </c>
@@ -17487,7 +17486,7 @@
       <c r="H402" s="35"/>
       <c r="I402" s="35"/>
     </row>
-    <row r="403" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="403" spans="3:14">
       <c r="D403" s="35" t="s">
         <v>154</v>
       </c>
@@ -17497,22 +17496,22 @@
       <c r="H403" s="35"/>
       <c r="I403" s="35"/>
     </row>
-    <row r="404" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="404" spans="3:14">
       <c r="E404" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="405" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="405" spans="3:14">
       <c r="E405" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="406" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="406" spans="3:14">
       <c r="D406" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="407" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="407" spans="3:14">
       <c r="C407" s="13"/>
       <c r="D407" s="13"/>
       <c r="E407" s="13" t="s">
@@ -17528,7 +17527,7 @@
       <c r="M407" s="13"/>
       <c r="N407" s="13"/>
     </row>
-    <row r="408" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="408" spans="3:14">
       <c r="C408" s="13"/>
       <c r="D408" s="13"/>
       <c r="E408" s="13" t="s">
@@ -17544,7 +17543,7 @@
       <c r="M408" s="13"/>
       <c r="N408" s="13"/>
     </row>
-    <row r="409" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="409" spans="3:14">
       <c r="C409" s="13"/>
       <c r="D409" s="13"/>
       <c r="E409" s="13"/>
@@ -17558,7 +17557,7 @@
       <c r="M409" s="13"/>
       <c r="N409" s="13"/>
     </row>
-    <row r="410" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="410" spans="3:14">
       <c r="C410" s="13" t="s">
         <v>157</v>
       </c>
@@ -17576,7 +17575,7 @@
       <c r="M410" s="13"/>
       <c r="N410" s="13"/>
     </row>
-    <row r="411" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="411" spans="3:14">
       <c r="C411" s="13"/>
       <c r="D411" s="13" t="s">
         <v>225</v>
@@ -17592,7 +17591,7 @@
       <c r="M411" s="13"/>
       <c r="N411" s="13"/>
     </row>
-    <row r="412" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="412" spans="3:14">
       <c r="C412" s="30"/>
       <c r="D412" s="13" t="s">
         <v>288</v>
@@ -17608,7 +17607,7 @@
       <c r="M412" s="13"/>
       <c r="N412" s="13"/>
     </row>
-    <row r="413" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="413" spans="3:14">
       <c r="C413" s="13"/>
       <c r="D413" s="13"/>
       <c r="E413" s="13"/>
@@ -17622,7 +17621,7 @@
       <c r="M413" s="13"/>
       <c r="N413" s="13"/>
     </row>
-    <row r="414" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="414" spans="3:14">
       <c r="C414" s="13"/>
       <c r="D414" s="13"/>
       <c r="E414" s="13"/>
@@ -17636,7 +17635,7 @@
       <c r="M414" s="13"/>
       <c r="N414" s="13"/>
     </row>
-    <row r="415" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="415" spans="3:14">
       <c r="C415" s="13"/>
       <c r="D415" s="13"/>
       <c r="E415" s="13"/>
@@ -17650,7 +17649,7 @@
       <c r="M415" s="13"/>
       <c r="N415" s="13"/>
     </row>
-    <row r="416" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="416" spans="3:14">
       <c r="C416" s="13"/>
       <c r="D416" s="13"/>
       <c r="E416" s="13"/>
@@ -17664,7 +17663,7 @@
       <c r="M416" s="13"/>
       <c r="N416" s="13"/>
     </row>
-    <row r="417" spans="3:14" x14ac:dyDescent="0.15">
+    <row r="417" spans="3:14">
       <c r="C417" s="13"/>
       <c r="D417" s="13"/>
       <c r="E417" s="13"/>
@@ -17686,17 +17685,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28:I32"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.625" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="33" bestFit="1" customWidth="1"/>
@@ -17722,7 +17721,7 @@
     <col min="22" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="34" customFormat="1" ht="15">
       <c r="A1" s="34" t="s">
         <v>361</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32">
       <c r="A2" s="33" t="s">
         <v>366</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32">
       <c r="A3" s="33" t="s">
         <v>369</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32">
       <c r="A4" s="33" t="s">
         <v>373</v>
       </c>
@@ -17956,7 +17955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32">
       <c r="A5" s="33" t="s">
         <v>377</v>
       </c>
@@ -18009,7 +18008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32">
       <c r="A6" s="33" t="s">
         <v>381</v>
       </c>
@@ -18062,7 +18061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32">
       <c r="A7" s="33" t="s">
         <v>385</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>389</v>
       </c>
@@ -18172,7 +18171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32">
       <c r="A9" s="33" t="s">
         <v>391</v>
       </c>
@@ -18225,7 +18224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32">
       <c r="A10" s="33" t="s">
         <v>392</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32">
       <c r="A11" s="33" t="s">
         <v>394</v>
       </c>
@@ -18332,7 +18331,7 @@
       </c>
       <c r="AF11" s="37"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32">
       <c r="A12" s="33" t="s">
         <v>396</v>
       </c>
@@ -18386,7 +18385,7 @@
       </c>
       <c r="AF12" s="37"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32">
       <c r="A13" s="35" t="s">
         <v>398</v>
       </c>
@@ -18439,7 +18438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" ht="16.5" customHeight="1">
       <c r="A14" s="35" t="s">
         <v>400</v>
       </c>
@@ -18496,7 +18495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32">
       <c r="A15" s="35" t="s">
         <v>401</v>
       </c>
@@ -18549,7 +18548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32">
       <c r="A16" s="35" t="s">
         <v>403</v>
       </c>
@@ -18602,7 +18601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="33">
       <c r="A17" s="35" t="s">
         <v>405</v>
       </c>
@@ -18628,7 +18627,7 @@
         <v>741</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>728</v>
+        <v>1183</v>
       </c>
       <c r="J17" s="69">
         <v>1</v>
@@ -18636,8 +18635,8 @@
       <c r="K17" s="59" t="s">
         <v>777</v>
       </c>
-      <c r="L17" s="36" t="s">
-        <v>775</v>
+      <c r="L17" s="59" t="s">
+        <v>728</v>
       </c>
       <c r="M17" s="48" t="s">
         <v>724</v>
@@ -18659,7 +18658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22">
       <c r="A18" s="35" t="s">
         <v>408</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>742</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>728</v>
+        <v>1183</v>
       </c>
       <c r="J18" s="69">
         <v>1</v>
@@ -18693,8 +18692,8 @@
       <c r="K18" s="59" t="s">
         <v>778</v>
       </c>
-      <c r="L18" s="36" t="s">
-        <v>775</v>
+      <c r="L18" s="59" t="s">
+        <v>728</v>
       </c>
       <c r="M18" s="48" t="s">
         <v>724</v>
@@ -18712,7 +18711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="33">
       <c r="A19" s="35" t="s">
         <v>412</v>
       </c>
@@ -18738,7 +18737,7 @@
         <v>1163</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>729</v>
+        <v>1183</v>
       </c>
       <c r="J19" s="69">
         <v>1</v>
@@ -18746,8 +18745,8 @@
       <c r="K19" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="L19" s="36" t="s">
-        <v>775</v>
+      <c r="L19" s="59" t="s">
+        <v>729</v>
       </c>
       <c r="M19" s="48" t="s">
         <v>724</v>
@@ -18769,7 +18768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22">
       <c r="A20" s="35" t="s">
         <v>415</v>
       </c>
@@ -18823,7 +18822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22">
       <c r="A21" s="35" t="s">
         <v>418</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22">
       <c r="A22" s="35" t="s">
         <v>421</v>
       </c>
@@ -18933,7 +18932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="33">
       <c r="A23" s="35" t="s">
         <v>424</v>
       </c>
@@ -18990,7 +18989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="33">
       <c r="A24" s="35" t="s">
         <v>427</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="33">
       <c r="A25" s="35" t="s">
         <v>430</v>
       </c>
@@ -19104,7 +19103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="33" customHeight="1">
       <c r="A26" s="35" t="s">
         <v>433</v>
       </c>
@@ -19139,7 +19138,7 @@
         <v>433</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="M26" s="48" t="s">
         <v>724</v>
@@ -19161,7 +19160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22">
       <c r="A27" s="35" t="s">
         <v>437</v>
       </c>
@@ -19214,7 +19213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22">
       <c r="A28" s="35" t="s">
         <v>440</v>
       </c>
@@ -19271,7 +19270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="33">
       <c r="A29" s="35" t="s">
         <v>443</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="33" customHeight="1">
       <c r="A30" s="35" t="s">
         <v>446</v>
       </c>
@@ -19385,7 +19384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22">
       <c r="A31" s="35" t="s">
         <v>449</v>
       </c>
@@ -19438,7 +19437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22">
       <c r="A32" s="35" t="s">
         <v>452</v>
       </c>
@@ -19495,7 +19494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22">
       <c r="A33" s="35" t="s">
         <v>455</v>
       </c>
@@ -19548,7 +19547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22">
       <c r="A34" s="35" t="s">
         <v>458</v>
       </c>
@@ -19601,7 +19600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22">
       <c r="A35" s="33" t="s">
         <v>480</v>
       </c>
@@ -19658,7 +19657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22">
       <c r="A36" s="33" t="s">
         <v>481</v>
       </c>
@@ -19711,7 +19710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22">
       <c r="A37" s="33" t="s">
         <v>482</v>
       </c>
@@ -19764,7 +19763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22">
       <c r="A38" s="33" t="s">
         <v>483</v>
       </c>
@@ -19817,7 +19816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22">
       <c r="A39" s="33" t="s">
         <v>490</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22">
       <c r="A40" s="33" t="s">
         <v>491</v>
       </c>
@@ -19923,7 +19922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22">
       <c r="A41" s="33" t="s">
         <v>492</v>
       </c>
@@ -19976,7 +19975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22">
       <c r="A42" s="33" t="s">
         <v>493</v>
       </c>
@@ -20029,7 +20028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22">
       <c r="A43" s="33" t="s">
         <v>484</v>
       </c>
@@ -20090,7 +20089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16.5" customHeight="1">
       <c r="A44" s="33" t="s">
         <v>485</v>
       </c>
@@ -20147,7 +20146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22">
       <c r="A45" s="33" t="s">
         <v>486</v>
       </c>
@@ -20200,7 +20199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22">
       <c r="A46" s="33" t="s">
         <v>487</v>
       </c>
@@ -20253,7 +20252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22">
       <c r="A47" s="33" t="s">
         <v>488</v>
       </c>
@@ -20306,7 +20305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22">
       <c r="A48" s="33" t="s">
         <v>499</v>
       </c>
@@ -20367,7 +20366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22">
       <c r="A49" s="33" t="s">
         <v>503</v>
       </c>
@@ -20428,7 +20427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22">
       <c r="A50" s="33" t="s">
         <v>500</v>
       </c>
@@ -20489,7 +20488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22">
       <c r="A51" s="33" t="s">
         <v>502</v>
       </c>
@@ -20550,7 +20549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22">
       <c r="A52" s="33" t="s">
         <v>504</v>
       </c>
@@ -20611,7 +20610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22">
       <c r="A53" s="33" t="s">
         <v>505</v>
       </c>
@@ -20672,7 +20671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22">
       <c r="A54" s="33" t="s">
         <v>506</v>
       </c>
@@ -20733,7 +20732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22">
       <c r="A55" s="33" t="s">
         <v>507</v>
       </c>
@@ -20794,7 +20793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22">
       <c r="A56" s="33" t="s">
         <v>508</v>
       </c>
@@ -20855,7 +20854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22">
       <c r="A57" s="33" t="s">
         <v>509</v>
       </c>
@@ -20916,7 +20915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22">
       <c r="A58" s="33" t="s">
         <v>510</v>
       </c>
@@ -20977,7 +20976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22">
       <c r="A59" s="33" t="s">
         <v>511</v>
       </c>
@@ -21038,7 +21037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22">
       <c r="A60" s="33" t="s">
         <v>512</v>
       </c>
@@ -21099,7 +21098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22">
       <c r="A61" s="33" t="s">
         <v>513</v>
       </c>
@@ -21160,7 +21159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22">
       <c r="A62" s="33" t="s">
         <v>514</v>
       </c>
@@ -21221,7 +21220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22">
       <c r="A63" s="33" t="s">
         <v>515</v>
       </c>
@@ -21282,7 +21281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22">
       <c r="A64" s="33" t="s">
         <v>516</v>
       </c>
@@ -21343,7 +21342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22">
       <c r="A65" s="33" t="s">
         <v>517</v>
       </c>
@@ -21404,43 +21403,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22">
       <c r="O66" s="36"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22">
       <c r="O67" s="36"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22">
       <c r="B68" s="33" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22">
       <c r="C69" s="33" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22">
       <c r="C70" s="33" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22">
       <c r="D71" s="33" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22">
       <c r="D72" s="33" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22">
       <c r="C74" s="33" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22">
       <c r="B77" s="33" t="s">
         <v>773</v>
       </c>
@@ -21448,12 +21447,12 @@
         <v>774</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22">
       <c r="C80" s="33" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:5">
       <c r="D81" s="60" t="s">
         <v>791</v>
       </c>
@@ -21461,7 +21460,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:5">
       <c r="D82" s="64" t="s">
         <v>791</v>
       </c>
@@ -21469,7 +21468,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:5">
       <c r="D83" s="61" t="s">
         <v>792</v>
       </c>
@@ -21507,14 +21506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="33"/>
     <col min="2" max="2" width="13.25" style="33" bestFit="1" customWidth="1"/>
@@ -21526,12 +21525,12 @@
     <col min="8" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="33" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="B2" s="34" t="s">
         <v>946</v>
       </c>
@@ -21549,7 +21548,7 @@
       </c>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="B3" s="33" t="s">
         <v>929</v>
       </c>
@@ -21563,7 +21562,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="B4" s="33" t="s">
         <v>927</v>
       </c>
@@ -21577,7 +21576,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="B5" s="33" t="s">
         <v>925</v>
       </c>
@@ -21591,7 +21590,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="33" t="s">
         <v>935</v>
       </c>
@@ -21605,7 +21604,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="B7" s="33" t="s">
         <v>933</v>
       </c>
@@ -21619,7 +21618,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="B8" s="33" t="s">
         <v>931</v>
       </c>
@@ -21633,7 +21632,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="33" t="s">
         <v>929</v>
       </c>
@@ -21647,7 +21646,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="B10" s="33" t="s">
         <v>927</v>
       </c>
@@ -21661,7 +21660,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="B11" s="33" t="s">
         <v>925</v>
       </c>
@@ -21675,7 +21674,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="33" t="s">
         <v>935</v>
       </c>
@@ -21689,7 +21688,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="B13" s="33" t="s">
         <v>933</v>
       </c>
@@ -21703,7 +21702,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="33" t="s">
         <v>931</v>
       </c>
@@ -21717,7 +21716,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="B15" s="33" t="s">
         <v>929</v>
       </c>
@@ -21731,7 +21730,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="B16" s="33" t="s">
         <v>927</v>
       </c>
@@ -21745,7 +21744,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="33" t="s">
         <v>925</v>
       </c>
@@ -21760,7 +21759,7 @@
       </c>
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="33" t="s">
         <v>923</v>
       </c>
@@ -21775,7 +21774,7 @@
       </c>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12">
       <c r="B19" s="33" t="s">
         <v>921</v>
       </c>
@@ -21790,7 +21789,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12">
       <c r="B20" s="33" t="s">
         <v>919</v>
       </c>
@@ -21805,7 +21804,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" ht="52.5" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>917</v>
       </c>
@@ -21820,7 +21819,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" ht="28.5" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>915</v>
       </c>
@@ -21836,7 +21835,7 @@
       <c r="G22" s="35"/>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" ht="28.5" customHeight="1">
       <c r="B23" s="33" t="s">
         <v>913</v>
       </c>
@@ -21851,7 +21850,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12">
       <c r="B24" s="33" t="s">
         <v>911</v>
       </c>
@@ -21866,7 +21865,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12">
       <c r="B25" s="33" t="s">
         <v>909</v>
       </c>
@@ -21881,7 +21880,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12">
       <c r="B26" s="33" t="s">
         <v>907</v>
       </c>
@@ -21896,7 +21895,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12">
       <c r="B27" s="33" t="s">
         <v>905</v>
       </c>
@@ -21911,7 +21910,7 @@
       </c>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12">
       <c r="B28" s="33" t="s">
         <v>903</v>
       </c>
@@ -21926,7 +21925,7 @@
       </c>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12">
       <c r="B29" s="33" t="s">
         <v>901</v>
       </c>
@@ -21941,7 +21940,7 @@
       </c>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12">
       <c r="B30" s="33" t="s">
         <v>899</v>
       </c>
@@ -21956,7 +21955,7 @@
       </c>
       <c r="G30" s="35"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12">
       <c r="B31" s="33" t="s">
         <v>811</v>
       </c>
@@ -21971,7 +21970,7 @@
       </c>
       <c r="G31" s="35"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12">
       <c r="B32" s="33" t="s">
         <v>809</v>
       </c>
@@ -21986,7 +21985,7 @@
       </c>
       <c r="G32" s="35"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="33" t="s">
         <v>895</v>
       </c>
@@ -22001,7 +22000,7 @@
       </c>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="33" t="s">
         <v>893</v>
       </c>
@@ -22016,7 +22015,7 @@
       </c>
       <c r="G34" s="35"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="33" t="s">
         <v>891</v>
       </c>
@@ -22031,7 +22030,7 @@
       </c>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" ht="56.25" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>889</v>
       </c>
@@ -22046,7 +22045,7 @@
       </c>
       <c r="G36" s="35"/>
     </row>
-    <row r="37" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7" ht="56.25" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>887</v>
       </c>
@@ -22061,7 +22060,7 @@
       </c>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7" ht="56.25" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>885</v>
       </c>
@@ -22076,7 +22075,7 @@
       </c>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7" ht="56.25" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>883</v>
       </c>
@@ -22091,7 +22090,7 @@
       </c>
       <c r="G39" s="35"/>
     </row>
-    <row r="40" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7" ht="55.5" customHeight="1">
       <c r="B40" s="33" t="s">
         <v>881</v>
       </c>
@@ -22106,7 +22105,7 @@
       </c>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7" ht="55.5" customHeight="1">
       <c r="B41" s="33" t="s">
         <v>879</v>
       </c>
@@ -22121,7 +22120,7 @@
       </c>
       <c r="G41" s="35"/>
     </row>
-    <row r="42" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7" ht="55.5" customHeight="1">
       <c r="B42" s="33" t="s">
         <v>877</v>
       </c>
@@ -22136,7 +22135,7 @@
       </c>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7" ht="55.5" customHeight="1">
       <c r="B43" s="33" t="s">
         <v>875</v>
       </c>
@@ -22151,7 +22150,7 @@
       </c>
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7" ht="57.75" customHeight="1">
       <c r="B44" s="33" t="s">
         <v>873</v>
       </c>
@@ -22166,7 +22165,7 @@
       </c>
       <c r="G44" s="35"/>
     </row>
-    <row r="45" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" ht="57.75" customHeight="1">
       <c r="B45" s="33" t="s">
         <v>871</v>
       </c>
@@ -22181,7 +22180,7 @@
       </c>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7" ht="57.75" customHeight="1">
       <c r="B46" s="33" t="s">
         <v>870</v>
       </c>
@@ -22196,7 +22195,7 @@
       </c>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7" ht="57.75" customHeight="1">
       <c r="B47" s="33" t="s">
         <v>868</v>
       </c>
@@ -22211,7 +22210,7 @@
       </c>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7" ht="57.75" customHeight="1">
       <c r="B48" s="33" t="s">
         <v>866</v>
       </c>
@@ -22226,7 +22225,7 @@
       </c>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10">
       <c r="B49" s="33" t="s">
         <v>864</v>
       </c>
@@ -22241,7 +22240,7 @@
       </c>
       <c r="G49" s="35"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10">
       <c r="B50" s="33" t="s">
         <v>862</v>
       </c>
@@ -22256,7 +22255,7 @@
       </c>
       <c r="G50" s="35"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10">
       <c r="B51" s="33" t="s">
         <v>860</v>
       </c>
@@ -22271,7 +22270,7 @@
       </c>
       <c r="G51" s="35"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10">
       <c r="B52" s="33" t="s">
         <v>858</v>
       </c>
@@ -22286,7 +22285,7 @@
       </c>
       <c r="G52" s="35"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10">
       <c r="B53" s="33" t="s">
         <v>856</v>
       </c>
@@ -22301,7 +22300,7 @@
       </c>
       <c r="G53" s="35"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10">
       <c r="B54" s="33" t="s">
         <v>854</v>
       </c>
@@ -22316,7 +22315,7 @@
       </c>
       <c r="G54" s="35"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10">
       <c r="B55" s="33" t="s">
         <v>539</v>
       </c>
@@ -22331,7 +22330,7 @@
       </c>
       <c r="G55" s="35"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10">
       <c r="B56" s="33" t="s">
         <v>540</v>
       </c>
@@ -22347,7 +22346,7 @@
       <c r="G56" s="35"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10">
       <c r="B57" s="33" t="s">
         <v>541</v>
       </c>
@@ -22362,7 +22361,7 @@
       </c>
       <c r="G57" s="35"/>
     </row>
-    <row r="58" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="33" customHeight="1">
       <c r="B58" s="33" t="s">
         <v>852</v>
       </c>
@@ -22377,7 +22376,7 @@
       </c>
       <c r="G58" s="35"/>
     </row>
-    <row r="59" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="33" customHeight="1">
       <c r="B59" s="33" t="s">
         <v>851</v>
       </c>
@@ -22392,7 +22391,7 @@
       </c>
       <c r="G59" s="35"/>
     </row>
-    <row r="60" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="57" customHeight="1">
       <c r="B60" s="33" t="s">
         <v>850</v>
       </c>
@@ -22407,7 +22406,7 @@
       </c>
       <c r="G60" s="35"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10">
       <c r="B61" s="33" t="s">
         <v>545</v>
       </c>
@@ -22421,7 +22420,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10">
       <c r="B62" s="33" t="s">
         <v>546</v>
       </c>
@@ -22435,7 +22434,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10">
       <c r="B63" s="33" t="s">
         <v>547</v>
       </c>
@@ -22449,7 +22448,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:10">
       <c r="B64" s="33" t="s">
         <v>542</v>
       </c>
@@ -22463,7 +22462,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="B65" s="33" t="s">
         <v>543</v>
       </c>
@@ -22477,7 +22476,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8">
       <c r="B66" s="33" t="s">
         <v>544</v>
       </c>
@@ -22491,12 +22490,12 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8">
       <c r="A68" s="33" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8">
       <c r="B69" s="34" t="s">
         <v>1018</v>
       </c>
@@ -22519,7 +22518,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="49.5" customHeight="1">
       <c r="B70" s="35" t="s">
         <v>849</v>
       </c>
@@ -22534,7 +22533,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="49.5" customHeight="1">
       <c r="B71" s="35"/>
       <c r="C71" s="33" t="s">
         <v>1026</v>
@@ -22547,10 +22546,10 @@
         <v>847</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="B72" s="35"/>
     </row>
-    <row r="73" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="44.25" customHeight="1">
       <c r="B73" s="35" t="s">
         <v>846</v>
       </c>
@@ -22567,7 +22566,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="44.25" customHeight="1">
       <c r="B74" s="35"/>
       <c r="C74" s="33" t="s">
         <v>1026</v>
@@ -22582,10 +22581,10 @@
         <v>845</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8">
       <c r="B75" s="35"/>
     </row>
-    <row r="76" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="47.25" customHeight="1">
       <c r="B76" s="35" t="s">
         <v>844</v>
       </c>
@@ -22602,7 +22601,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="47.25" customHeight="1">
       <c r="B77" s="35"/>
       <c r="C77" s="33" t="s">
         <v>1026</v>
@@ -22614,10 +22613,10 @@
         <v>842</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8">
       <c r="B78" s="35"/>
     </row>
-    <row r="79" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="43.5" customHeight="1">
       <c r="B79" s="35" t="s">
         <v>841</v>
       </c>
@@ -22631,7 +22630,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="43.5" customHeight="1">
       <c r="B80" s="35"/>
       <c r="C80" s="33" t="s">
         <v>1026</v>
@@ -22643,10 +22642,10 @@
         <v>840</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8">
       <c r="B81" s="35"/>
     </row>
-    <row r="82" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:8" ht="53.25" customHeight="1">
       <c r="B82" s="35" t="s">
         <v>839</v>
       </c>
@@ -22660,7 +22659,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="53.25" customHeight="1">
       <c r="C83" s="33" t="s">
         <v>1026</v>
       </c>
@@ -22674,10 +22673,10 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8">
       <c r="B84" s="35"/>
     </row>
-    <row r="85" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="56.25" customHeight="1">
       <c r="B85" s="35" t="s">
         <v>837</v>
       </c>
@@ -22694,7 +22693,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="56.25" customHeight="1">
       <c r="B86" s="35"/>
       <c r="C86" s="33" t="s">
         <v>1026</v>
@@ -22709,10 +22708,10 @@
         <v>835</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8">
       <c r="B87" s="35"/>
     </row>
-    <row r="88" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:8" ht="58.5" customHeight="1">
       <c r="B88" s="35" t="s">
         <v>834</v>
       </c>
@@ -22729,7 +22728,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:8" ht="58.5" customHeight="1">
       <c r="B89" s="35"/>
       <c r="C89" s="33" t="s">
         <v>1026</v>
@@ -22744,10 +22743,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8">
       <c r="B90" s="35"/>
     </row>
-    <row r="91" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" ht="53.25" customHeight="1">
       <c r="B91" s="35" t="s">
         <v>831</v>
       </c>
@@ -22761,7 +22760,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="53.25" customHeight="1">
       <c r="B92" s="35"/>
       <c r="C92" s="33" t="s">
         <v>1026</v>
@@ -22776,10 +22775,10 @@
         <v>829</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8">
       <c r="B93" s="35"/>
     </row>
-    <row r="94" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="54" customHeight="1">
       <c r="B94" s="35" t="s">
         <v>828</v>
       </c>
@@ -22796,7 +22795,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="54" customHeight="1">
       <c r="C95" s="33" t="s">
         <v>1026</v>
       </c>
@@ -22810,10 +22809,10 @@
         <v>826</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8">
       <c r="B96" s="35"/>
     </row>
-    <row r="97" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="54.75" customHeight="1">
       <c r="B97" s="35" t="s">
         <v>825</v>
       </c>
@@ -22827,7 +22826,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" ht="54.75" customHeight="1">
       <c r="B98" s="35"/>
       <c r="C98" s="33" t="s">
         <v>1026</v>
@@ -22842,10 +22841,10 @@
         <v>823</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8">
       <c r="B99" s="35"/>
     </row>
-    <row r="100" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" ht="57" customHeight="1">
       <c r="B100" s="35" t="s">
         <v>822</v>
       </c>
@@ -22862,7 +22861,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" ht="57" customHeight="1">
       <c r="B101" s="35"/>
       <c r="C101" s="33" t="s">
         <v>1026</v>
@@ -22877,10 +22876,10 @@
         <v>820</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8">
       <c r="B102" s="35"/>
     </row>
-    <row r="103" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="52.5" customHeight="1">
       <c r="B103" s="35" t="s">
         <v>819</v>
       </c>
@@ -22897,7 +22896,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" ht="52.5" customHeight="1">
       <c r="B104" s="35"/>
       <c r="C104" s="33" t="s">
         <v>1026</v>
@@ -22912,7 +22911,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" ht="54.75" customHeight="1">
       <c r="B106" s="35" t="s">
         <v>816</v>
       </c>
@@ -22929,7 +22928,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" ht="54.75" customHeight="1">
       <c r="B107" s="35"/>
       <c r="C107" s="33" t="s">
         <v>1026</v>
@@ -22944,10 +22943,10 @@
         <v>814</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8">
       <c r="B108" s="35"/>
     </row>
-    <row r="109" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" ht="52.5" customHeight="1">
       <c r="B109" s="35" t="s">
         <v>813</v>
       </c>
@@ -22964,7 +22963,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" ht="52.5" customHeight="1">
       <c r="B110" s="35"/>
       <c r="C110" s="33" t="s">
         <v>1026</v>
@@ -22979,13 +22978,13 @@
         <v>591</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8">
       <c r="A111" s="33" t="s">
         <v>1049</v>
       </c>
       <c r="B111" s="35"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8">
       <c r="B112" s="34" t="s">
         <v>1050</v>
       </c>
@@ -23006,7 +23005,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:8" ht="51.75" customHeight="1">
       <c r="B113" s="35" t="s">
         <v>1054</v>
       </c>
@@ -23020,7 +23019,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:8" ht="51.75" customHeight="1">
       <c r="C114" s="33" t="s">
         <v>810</v>
       </c>
@@ -23031,7 +23030,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:8" ht="51.75" customHeight="1">
       <c r="C115" s="33" t="s">
         <v>809</v>
       </c>
@@ -23042,7 +23041,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:8" ht="51.75" customHeight="1">
       <c r="C116" s="33" t="s">
         <v>808</v>
       </c>
@@ -23053,7 +23052,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:8" ht="51.75" customHeight="1">
       <c r="C117" s="14" t="s">
         <v>258</v>
       </c>
@@ -23065,7 +23064,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:8" ht="51.75" customHeight="1">
       <c r="C118" s="14" t="s">
         <v>259</v>
       </c>
@@ -23077,10 +23076,10 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:8">
       <c r="B119" s="35"/>
     </row>
-    <row r="120" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:8" ht="54" customHeight="1">
       <c r="B120" s="35" t="s">
         <v>1061</v>
       </c>
@@ -23094,7 +23093,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:8" ht="54" customHeight="1">
       <c r="C121" s="33" t="s">
         <v>806</v>
       </c>
@@ -23105,7 +23104,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:8" ht="54" customHeight="1">
       <c r="B122" s="35"/>
       <c r="C122" s="33" t="s">
         <v>805</v>
@@ -23117,7 +23116,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:8" ht="54" customHeight="1">
       <c r="B123" s="35"/>
       <c r="C123" s="33" t="s">
         <v>804</v>
@@ -23129,7 +23128,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:8" ht="58.5" customHeight="1">
       <c r="B124" s="35" t="s">
         <v>1066</v>
       </c>
@@ -23143,52 +23142,52 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:8">
       <c r="B125" s="35"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:8">
       <c r="B126" s="35"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:8">
       <c r="B127" s="35"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:8">
       <c r="B128" s="35"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:2">
       <c r="B129" s="35"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:2">
       <c r="B131" s="35"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:2">
       <c r="B132" s="35"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:2">
       <c r="B133" s="35"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:2">
       <c r="B134" s="35"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:2">
       <c r="B135" s="35"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:2">
       <c r="B136" s="35"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:2">
       <c r="B137" s="35"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:2">
       <c r="B138" s="35"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:2">
       <c r="B139" s="35"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:2">
       <c r="B140" s="35"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:2">
       <c r="B141" s="35"/>
     </row>
   </sheetData>

--- a/gd/Demo/副本设计v0.4.xlsx
+++ b/gd/Demo/副本设计v0.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="2220" windowWidth="27400" windowHeight="16140" activeTab="3"/>
+    <workbookView xWindow="6440" yWindow="2280" windowWidth="27400" windowHeight="16140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -5003,6 +5003,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5053,9 +5056,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -8478,17 +8478,17 @@
     </row>
     <row r="11" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.25">
@@ -8497,11 +8497,11 @@
         <v>266</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.25">
@@ -8510,11 +8510,11 @@
         <v>267</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="97"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.25">
@@ -8523,11 +8523,11 @@
         <v>268</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.25">
@@ -8536,11 +8536,11 @@
         <v>269</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.25">
@@ -8551,11 +8551,11 @@
       <c r="C16" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.25">
@@ -8564,11 +8564,11 @@
         <v>271</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.3">
@@ -8577,11 +8577,11 @@
         <v>272</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.25">
@@ -9224,7 +9224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P194"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -13076,7 +13076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+    <sheetView topLeftCell="A405" workbookViewId="0">
       <selection activeCell="R297" sqref="R297"/>
     </sheetView>
   </sheetViews>
@@ -15293,7 +15293,7 @@
       <c r="K177" s="61"/>
       <c r="L177" s="61"/>
       <c r="M177" s="61"/>
-      <c r="R177" s="103" t="s">
+      <c r="R177" s="86" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -15728,7 +15728,7 @@
       <c r="K210" s="61"/>
       <c r="L210" s="61"/>
       <c r="M210" s="61"/>
-      <c r="R210" s="103" t="s">
+      <c r="R210" s="86" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -16498,7 +16498,7 @@
       <c r="N280" s="61"/>
       <c r="O280" s="61"/>
       <c r="P280" s="61"/>
-      <c r="R280" s="103" t="s">
+      <c r="R280" s="86" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -16592,7 +16592,7 @@
       </c>
       <c r="J288" s="61"/>
       <c r="K288" s="61"/>
-      <c r="R288" s="103" t="s">
+      <c r="R288" s="86" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -16686,7 +16686,7 @@
       </c>
       <c r="J296" s="61"/>
       <c r="K296" s="61"/>
-      <c r="R296" s="103" t="s">
+      <c r="R296" s="86" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -17130,7 +17130,7 @@
       <c r="L357" s="61"/>
       <c r="M357" s="61"/>
       <c r="N357" s="61"/>
-      <c r="R357" s="103" t="s">
+      <c r="R357" s="86" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -17272,7 +17272,7 @@
       <c r="L369" s="61"/>
       <c r="M369" s="61"/>
       <c r="N369" s="61"/>
-      <c r="R369" s="103" t="s">
+      <c r="R369" s="86" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -17431,7 +17431,7 @@
       <c r="K389" s="61"/>
       <c r="L389" s="61"/>
       <c r="M389" s="61"/>
-      <c r="R389" s="103" t="s">
+      <c r="R389" s="86" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -17562,7 +17562,7 @@
       <c r="K400" s="61"/>
       <c r="L400" s="61"/>
       <c r="M400" s="61"/>
-      <c r="R400" s="103" t="s">
+      <c r="R400" s="86" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -17792,7 +17792,7 @@
   <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
@@ -17939,10 +17939,10 @@
       <c r="P2" s="44"/>
       <c r="Q2" s="50"/>
       <c r="R2" s="53"/>
-      <c r="S2" s="100" t="s">
+      <c r="S2" s="101" t="s">
         <v>642</v>
       </c>
-      <c r="T2" s="100" t="s">
+      <c r="T2" s="101" t="s">
         <v>558</v>
       </c>
       <c r="U2" s="33" t="s">
@@ -17999,8 +17999,8 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="50"/>
       <c r="R3" s="53"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
       <c r="V3" s="36">
         <v>20</v>
       </c>
@@ -18052,8 +18052,8 @@
       <c r="P4" s="44"/>
       <c r="Q4" s="50"/>
       <c r="R4" s="53"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
       <c r="V4" s="36">
         <v>20</v>
       </c>
@@ -18105,8 +18105,8 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="53"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
       <c r="V5" s="36">
         <v>20</v>
       </c>
@@ -18158,8 +18158,8 @@
       <c r="P6" s="44"/>
       <c r="Q6" s="50"/>
       <c r="R6" s="53"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
       <c r="V6" s="36">
         <v>20</v>
       </c>
@@ -18211,8 +18211,8 @@
       <c r="P7" s="44"/>
       <c r="Q7" s="50"/>
       <c r="R7" s="53"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
       <c r="V7" s="36">
         <v>20</v>
       </c>
@@ -18264,10 +18264,10 @@
       <c r="P8" s="44"/>
       <c r="Q8" s="50"/>
       <c r="R8" s="53"/>
-      <c r="S8" s="100" t="s">
+      <c r="S8" s="101" t="s">
         <v>542</v>
       </c>
-      <c r="T8" s="100" t="s">
+      <c r="T8" s="101" t="s">
         <v>557</v>
       </c>
       <c r="V8" s="36">
@@ -18321,8 +18321,8 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="50"/>
       <c r="R9" s="53"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
       <c r="V9" s="36">
         <v>20</v>
       </c>
@@ -18374,8 +18374,8 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="50"/>
       <c r="R10" s="53"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
       <c r="V10" s="36">
         <v>20</v>
       </c>
@@ -18427,8 +18427,8 @@
       <c r="P11" s="44"/>
       <c r="Q11" s="50"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
       <c r="V11" s="36">
         <v>20</v>
       </c>
@@ -18481,8 +18481,8 @@
       <c r="P12" s="44"/>
       <c r="Q12" s="50"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
       <c r="V12" s="36">
         <v>20</v>
       </c>
@@ -18535,8 +18535,8 @@
       <c r="P13" s="44"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="53"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
       <c r="V13" s="36">
         <v>20</v>
       </c>
@@ -18588,10 +18588,10 @@
       <c r="P14" s="44"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="53"/>
-      <c r="S14" s="100" t="s">
+      <c r="S14" s="101" t="s">
         <v>555</v>
       </c>
-      <c r="T14" s="100" t="s">
+      <c r="T14" s="101" t="s">
         <v>556</v>
       </c>
       <c r="V14" s="36">
@@ -18645,8 +18645,8 @@
       <c r="P15" s="44"/>
       <c r="Q15" s="50"/>
       <c r="R15" s="53"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
       <c r="V15" s="36">
         <v>20</v>
       </c>
@@ -18698,8 +18698,8 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="53"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
       <c r="V16" s="36">
         <v>20</v>
       </c>
@@ -18751,10 +18751,10 @@
       <c r="P17" s="44"/>
       <c r="Q17" s="50"/>
       <c r="R17" s="53"/>
-      <c r="S17" s="100" t="s">
+      <c r="S17" s="101" t="s">
         <v>533</v>
       </c>
-      <c r="T17" s="100" t="s">
+      <c r="T17" s="101" t="s">
         <v>661</v>
       </c>
       <c r="V17" s="36">
@@ -18808,8 +18808,8 @@
       <c r="P18" s="44"/>
       <c r="Q18" s="50"/>
       <c r="R18" s="53"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
       <c r="V18" s="36">
         <v>20</v>
       </c>
@@ -18972,10 +18972,10 @@
       <c r="P21" s="44"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="53"/>
-      <c r="S21" s="100" t="s">
+      <c r="S21" s="101" t="s">
         <v>560</v>
       </c>
-      <c r="T21" s="100" t="s">
+      <c r="T21" s="101" t="s">
         <v>561</v>
       </c>
       <c r="V21" s="36">
@@ -19029,8 +19029,8 @@
       <c r="P22" s="44"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="53"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
       <c r="V22" s="36">
         <v>20</v>
       </c>
@@ -19253,10 +19253,10 @@
       <c r="P26" s="44"/>
       <c r="Q26" s="50"/>
       <c r="R26" s="53"/>
-      <c r="S26" s="100" t="s">
+      <c r="S26" s="101" t="s">
         <v>538</v>
       </c>
-      <c r="T26" s="100" t="s">
+      <c r="T26" s="101" t="s">
         <v>700</v>
       </c>
       <c r="V26" s="36">
@@ -19310,8 +19310,8 @@
       <c r="P27" s="44"/>
       <c r="Q27" s="50"/>
       <c r="R27" s="53"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
       <c r="V27" s="36">
         <v>20</v>
       </c>
@@ -19420,10 +19420,10 @@
       <c r="P29" s="44"/>
       <c r="Q29" s="50"/>
       <c r="R29" s="53"/>
-      <c r="S29" s="101" t="s">
+      <c r="S29" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="T29" s="100" t="s">
+      <c r="T29" s="101" t="s">
         <v>698</v>
       </c>
       <c r="V29" s="36">
@@ -19477,8 +19477,8 @@
       <c r="P30" s="44"/>
       <c r="Q30" s="50"/>
       <c r="R30" s="53"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="100"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="101"/>
       <c r="V30" s="36">
         <v>20</v>
       </c>
@@ -19587,10 +19587,10 @@
       <c r="P32" s="44"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="53"/>
-      <c r="S32" s="100" t="s">
+      <c r="S32" s="101" t="s">
         <v>541</v>
       </c>
-      <c r="T32" s="100" t="s">
+      <c r="T32" s="101" t="s">
         <v>696</v>
       </c>
       <c r="V32" s="36">
@@ -19644,8 +19644,8 @@
       <c r="P33" s="44"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="53"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
       <c r="V33" s="36">
         <v>20</v>
       </c>
@@ -19697,8 +19697,8 @@
       <c r="P34" s="44"/>
       <c r="Q34" s="50"/>
       <c r="R34" s="53"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
       <c r="V34" s="36">
         <v>20</v>
       </c>
@@ -19750,10 +19750,10 @@
       <c r="P35" s="44"/>
       <c r="Q35" s="50"/>
       <c r="R35" s="53"/>
-      <c r="S35" s="100" t="s">
+      <c r="S35" s="101" t="s">
         <v>544</v>
       </c>
-      <c r="T35" s="100" t="s">
+      <c r="T35" s="101" t="s">
         <v>564</v>
       </c>
       <c r="V35" s="36">
@@ -19807,8 +19807,8 @@
       <c r="P36" s="44"/>
       <c r="Q36" s="50"/>
       <c r="R36" s="53"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
       <c r="V36" s="36">
         <v>20</v>
       </c>
@@ -19860,8 +19860,8 @@
       <c r="P37" s="44"/>
       <c r="Q37" s="50"/>
       <c r="R37" s="53"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
       <c r="V37" s="36">
         <v>20</v>
       </c>
@@ -19913,8 +19913,8 @@
       <c r="P38" s="44"/>
       <c r="Q38" s="50"/>
       <c r="R38" s="53"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
       <c r="V38" s="36">
         <v>20</v>
       </c>
@@ -19966,8 +19966,8 @@
       <c r="P39" s="44"/>
       <c r="Q39" s="50"/>
       <c r="R39" s="53"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="100"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
       <c r="V39" s="36">
         <v>20</v>
       </c>
@@ -20019,8 +20019,8 @@
       <c r="P40" s="44"/>
       <c r="Q40" s="50"/>
       <c r="R40" s="53"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
       <c r="V40" s="36">
         <v>20</v>
       </c>
@@ -20072,8 +20072,8 @@
       <c r="P41" s="44"/>
       <c r="Q41" s="50"/>
       <c r="R41" s="53"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="100"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
       <c r="V41" s="36">
         <v>20</v>
       </c>
@@ -20125,8 +20125,8 @@
       <c r="P42" s="44"/>
       <c r="Q42" s="50"/>
       <c r="R42" s="53"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="100"/>
+      <c r="S42" s="101"/>
+      <c r="T42" s="101"/>
       <c r="V42" s="36">
         <v>20</v>
       </c>
@@ -20186,8 +20186,8 @@
       <c r="R43" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="S43" s="100"/>
-      <c r="T43" s="100"/>
+      <c r="S43" s="101"/>
+      <c r="T43" s="101"/>
       <c r="V43" s="36">
         <v>20</v>
       </c>
@@ -20239,10 +20239,10 @@
       <c r="P44" s="44"/>
       <c r="Q44" s="50"/>
       <c r="R44" s="53"/>
-      <c r="S44" s="100" t="s">
+      <c r="S44" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="T44" s="100" t="s">
+      <c r="T44" s="101" t="s">
         <v>565</v>
       </c>
       <c r="V44" s="36">
@@ -20296,8 +20296,8 @@
       <c r="P45" s="44"/>
       <c r="Q45" s="50"/>
       <c r="R45" s="53"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="100"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
       <c r="V45" s="36">
         <v>20</v>
       </c>
@@ -20349,8 +20349,8 @@
       <c r="P46" s="44"/>
       <c r="Q46" s="50"/>
       <c r="R46" s="53"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
+      <c r="S46" s="101"/>
+      <c r="T46" s="101"/>
       <c r="V46" s="36">
         <v>20</v>
       </c>
@@ -20402,8 +20402,8 @@
       <c r="P47" s="44"/>
       <c r="Q47" s="50"/>
       <c r="R47" s="53"/>
-      <c r="S47" s="100"/>
-      <c r="T47" s="100"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
       <c r="V47" s="36">
         <v>20</v>
       </c>
@@ -20463,8 +20463,8 @@
       <c r="R48" s="45">
         <v>1</v>
       </c>
-      <c r="S48" s="100"/>
-      <c r="T48" s="100"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
       <c r="V48" s="36">
         <v>20</v>
       </c>
@@ -20524,8 +20524,8 @@
       <c r="R49" s="45">
         <v>1</v>
       </c>
-      <c r="S49" s="100"/>
-      <c r="T49" s="100"/>
+      <c r="S49" s="101"/>
+      <c r="T49" s="101"/>
       <c r="V49" s="36">
         <v>20</v>
       </c>
@@ -20585,8 +20585,8 @@
       <c r="R50" s="45">
         <v>1</v>
       </c>
-      <c r="S50" s="100"/>
-      <c r="T50" s="100"/>
+      <c r="S50" s="101"/>
+      <c r="T50" s="101"/>
       <c r="V50" s="36">
         <v>20</v>
       </c>
@@ -20646,8 +20646,8 @@
       <c r="R51" s="45">
         <v>1</v>
       </c>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
+      <c r="S51" s="101"/>
+      <c r="T51" s="101"/>
       <c r="V51" s="36">
         <v>20</v>
       </c>
@@ -20707,8 +20707,8 @@
       <c r="R52" s="45">
         <v>1</v>
       </c>
-      <c r="S52" s="100"/>
-      <c r="T52" s="100"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
       <c r="V52" s="36">
         <v>20</v>
       </c>
@@ -20768,8 +20768,8 @@
       <c r="R53" s="45">
         <v>1</v>
       </c>
-      <c r="S53" s="100"/>
-      <c r="T53" s="100"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="101"/>
       <c r="V53" s="36">
         <v>20</v>
       </c>
@@ -20829,8 +20829,8 @@
       <c r="R54" s="45">
         <v>1</v>
       </c>
-      <c r="S54" s="100"/>
-      <c r="T54" s="100"/>
+      <c r="S54" s="101"/>
+      <c r="T54" s="101"/>
       <c r="V54" s="36">
         <v>20</v>
       </c>
@@ -20890,8 +20890,8 @@
       <c r="R55" s="45">
         <v>1</v>
       </c>
-      <c r="S55" s="100"/>
-      <c r="T55" s="100"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="101"/>
       <c r="V55" s="36">
         <v>20</v>
       </c>
@@ -20951,8 +20951,8 @@
       <c r="R56" s="45">
         <v>1</v>
       </c>
-      <c r="S56" s="100"/>
-      <c r="T56" s="100"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
       <c r="V56" s="36">
         <v>20</v>
       </c>
@@ -21012,8 +21012,8 @@
       <c r="R57" s="45">
         <v>1</v>
       </c>
-      <c r="S57" s="100"/>
-      <c r="T57" s="100"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
       <c r="V57" s="36">
         <v>20</v>
       </c>
@@ -21073,8 +21073,8 @@
       <c r="R58" s="45">
         <v>1</v>
       </c>
-      <c r="S58" s="100"/>
-      <c r="T58" s="100"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101"/>
       <c r="V58" s="36">
         <v>20</v>
       </c>
@@ -21134,8 +21134,8 @@
       <c r="R59" s="45">
         <v>1</v>
       </c>
-      <c r="S59" s="100"/>
-      <c r="T59" s="100"/>
+      <c r="S59" s="101"/>
+      <c r="T59" s="101"/>
       <c r="V59" s="36">
         <v>20</v>
       </c>
@@ -21195,8 +21195,8 @@
       <c r="R60" s="45">
         <v>1</v>
       </c>
-      <c r="S60" s="100"/>
-      <c r="T60" s="100"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
       <c r="V60" s="36">
         <v>20</v>
       </c>
@@ -21256,8 +21256,8 @@
       <c r="R61" s="45">
         <v>1</v>
       </c>
-      <c r="S61" s="100"/>
-      <c r="T61" s="100"/>
+      <c r="S61" s="101"/>
+      <c r="T61" s="101"/>
       <c r="V61" s="36">
         <v>20</v>
       </c>
@@ -21317,8 +21317,8 @@
       <c r="R62" s="45">
         <v>1</v>
       </c>
-      <c r="S62" s="100"/>
-      <c r="T62" s="100"/>
+      <c r="S62" s="101"/>
+      <c r="T62" s="101"/>
       <c r="V62" s="36">
         <v>20</v>
       </c>
@@ -21378,8 +21378,8 @@
       <c r="R63" s="45">
         <v>1</v>
       </c>
-      <c r="S63" s="100"/>
-      <c r="T63" s="100"/>
+      <c r="S63" s="101"/>
+      <c r="T63" s="101"/>
       <c r="V63" s="36">
         <v>20</v>
       </c>
@@ -21439,8 +21439,8 @@
       <c r="R64" s="45">
         <v>1</v>
       </c>
-      <c r="S64" s="100"/>
-      <c r="T64" s="100"/>
+      <c r="S64" s="101"/>
+      <c r="T64" s="101"/>
       <c r="V64" s="36">
         <v>20</v>
       </c>
@@ -21500,8 +21500,8 @@
       <c r="R65" s="45">
         <v>1</v>
       </c>
-      <c r="S65" s="100"/>
-      <c r="T65" s="100"/>
+      <c r="S65" s="101"/>
+      <c r="T65" s="101"/>
       <c r="V65" s="36">
         <v>20</v>
       </c>
@@ -21581,6 +21581,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="T44:T65"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="T2:T7"/>
+    <mergeCell ref="T8:T13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T21:T22"/>
     <mergeCell ref="S44:S65"/>
     <mergeCell ref="S8:S13"/>
     <mergeCell ref="S14:S16"/>
@@ -21591,16 +21601,6 @@
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="S35:S43"/>
     <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T2:T7"/>
-    <mergeCell ref="T8:T13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="T44:T65"/>
-    <mergeCell ref="T29:T30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24096,10 +24096,10 @@
       <c r="E114" s="80" t="s">
         <v>980</v>
       </c>
-      <c r="F114" s="102" t="s">
+      <c r="F114" s="103" t="s">
         <v>1104</v>
       </c>
-      <c r="G114" s="102"/>
+      <c r="G114" s="103"/>
       <c r="H114" s="80" t="s">
         <v>1201</v>
       </c>

--- a/gd/Demo/副本设计v0.4.xlsx
+++ b/gd/Demo/副本设计v0.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2280" windowWidth="27400" windowHeight="16140" activeTab="2"/>
+    <workbookView xWindow="420" yWindow="2320" windowWidth="27400" windowHeight="16140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -21581,16 +21581,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="T44:T65"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="T2:T7"/>
-    <mergeCell ref="T8:T13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T21:T22"/>
     <mergeCell ref="S44:S65"/>
     <mergeCell ref="S8:S13"/>
     <mergeCell ref="S14:S16"/>
@@ -21601,6 +21591,16 @@
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="S35:S43"/>
     <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T2:T7"/>
+    <mergeCell ref="T8:T13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="T44:T65"/>
+    <mergeCell ref="T29:T30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
